--- a/data/master_links.xlsx
+++ b/data/master_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB4F54-C336-4BF2-99CE-18CC57116DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C60B8-B19D-40B5-A442-4788AB2D30B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="bdsmvilla" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main_links!$A$1:$U$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main_links!$A$1:$U$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="644">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -1640,9 +1640,6 @@
     <t>carter cruise</t>
   </si>
   <si>
-    <t>normal-soft-lesbian</t>
-  </si>
-  <si>
     <t>69 at 5m,feet licking at 16m</t>
   </si>
   <si>
@@ -1976,16 +1973,10 @@
     <t>flagged suspicious,doesn’t load well, katie kush full length bdsm videos</t>
   </si>
   <si>
-    <t>https://curebdsm.com/katie-kox-why-you-squirting-on-yourself-why-you-squirting-on-yourself</t>
-  </si>
-  <si>
     <t>wheel</t>
   </si>
   <si>
     <t>lily's full length bdsm videos but smaller collection and not very exciting</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>lot of long length videos across several categories</t>
@@ -2046,7 +2037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2067,7 +2058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,7 +2102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2131,10 +2134,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2436,11 +2452,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>81</v>
@@ -2534,22 +2550,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(ISBLANK(R2)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>297</v>
+        <v>631</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>80</v>
@@ -2558,65 +2574,65 @@
         <v>80</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>104</v>
+        <v>509</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>299</v>
+        <v>632</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>166</v>
+        <v>389</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>233</v>
+        <v>509</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="S2" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>302</v>
+        <v>633</v>
       </c>
       <c r="U2" s="8" t="str" cm="1">
         <f t="array" ref="U2">_xlfn.REGEXEXTRACT(B2,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A66" si="0">IF(ISBLANK(R3)=TRUE,1,0)</f>
+        <f>IF(ISBLANK(R3)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>80</v>
@@ -2625,65 +2641,65 @@
         <v>80</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>628</v>
+        <v>104</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>404</v>
+        <v>116</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>629</v>
+        <v>300</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>630</v>
+        <v>166</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="S3" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>631</v>
+        <v>302</v>
       </c>
       <c r="U3" s="8" t="str" cm="1">
         <f t="array" ref="U3">_xlfn.REGEXEXTRACT(B3,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R4)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>627</v>
+        <v>362</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>632</v>
+        <v>399</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>80</v>
@@ -2695,62 +2711,62 @@
         <v>120</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>509</v>
+        <v>158</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>139</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>105</v>
+        <v>528</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>633</v>
+        <v>116</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>122</v>
+        <v>529</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>389</v>
+        <v>530</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>409</v>
+        <v>153</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S4" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>634</v>
+        <v>531</v>
       </c>
       <c r="U4" s="8" t="str" cm="1">
         <f t="array" ref="U4">_xlfn.REGEXEXTRACT(B4,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R5)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>627</v>
+        <v>240</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>361</v>
+        <v>241</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>80</v>
@@ -2759,65 +2775,65 @@
         <v>80</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>635</v>
+        <v>244</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>409</v>
+        <v>242</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S5" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>636</v>
+        <v>257</v>
       </c>
       <c r="U5" s="8" t="str" cm="1">
         <f t="array" ref="U5">_xlfn.REGEXEXTRACT(B5,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R6)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>627</v>
+        <v>136</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>416</v>
+        <v>548</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>80</v>
@@ -2829,62 +2845,62 @@
         <v>120</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>635</v>
+        <v>261</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>178</v>
+        <v>550</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>638</v>
+        <v>164</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S6" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>639</v>
+        <v>551</v>
       </c>
       <c r="U6" s="8" t="str" cm="1">
         <f t="array" ref="U6">_xlfn.REGEXEXTRACT(B6,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R7)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>627</v>
+        <v>136</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>632</v>
+        <v>462</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>80</v>
@@ -2893,65 +2909,65 @@
         <v>80</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>644</v>
+        <v>139</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>644</v>
+        <v>159</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S7" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>641</v>
+        <v>167</v>
       </c>
       <c r="U7" s="8" t="str" cm="1">
         <f t="array" ref="U7">_xlfn.REGEXEXTRACT(B7,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R8)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>627</v>
+        <v>136</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>80</v>
@@ -2960,132 +2976,132 @@
         <v>80</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>644</v>
+        <v>105</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>644</v>
+        <v>171</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>80</v>
+        <v>591</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S8" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
       <c r="U8" s="8" t="str" cm="1">
         <f t="array" ref="U8">_xlfn.REGEXEXTRACT(B8,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R9)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="C9" s="8">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>334</v>
+        <v>172</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S9" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c r="U9" s="8" t="str" cm="1">
         <f t="array" ref="U9">_xlfn.REGEXEXTRACT(B9,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R10)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C10" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>338</v>
+        <v>626</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>80</v>
@@ -3094,65 +3110,65 @@
         <v>80</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>260</v>
+        <v>627</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>105</v>
+        <v>404</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>341</v>
+        <v>628</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>80</v>
+        <v>629</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S10" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="U10" s="8" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.REGEXEXTRACT(B10,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R11)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>80</v>
@@ -3164,65 +3180,65 @@
         <v>120</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>112</v>
+        <v>434</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S11" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>117</v>
+        <v>435</v>
       </c>
       <c r="U11" s="8" t="str" cm="1">
         <f t="array" ref="U11">_xlfn.REGEXEXTRACT(B11,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R12)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="C12" s="8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>80</v>
@@ -3231,62 +3247,62 @@
         <v>383</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="O12" s="8" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>132</v>
+        <v>409</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>69</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S12" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="U12" s="8" t="str" cm="1">
         <f t="array" ref="U12">_xlfn.REGEXEXTRACT(B12,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R13)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>80</v>
@@ -3295,65 +3311,65 @@
         <v>80</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>404</v>
+        <v>148</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>271</v>
+        <v>480</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>348</v>
+        <v>103</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>349</v>
+        <v>111</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>346</v>
+        <v>453</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S13" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="U13" s="8" t="str" cm="1">
         <f t="array" ref="U13">_xlfn.REGEXEXTRACT(B13,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R14)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="C14" s="8">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>351</v>
+        <v>510</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>172</v>
+        <v>361</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>80</v>
@@ -3362,65 +3378,65 @@
         <v>80</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>404</v>
+        <v>508</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="8">
-        <v>69</v>
-      </c>
-      <c r="P14" s="8">
-        <v>619</v>
+        <v>509</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>506</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S14" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>352</v>
+        <v>507</v>
       </c>
       <c r="U14" s="8" t="str" cm="1">
         <f t="array" ref="U14">_xlfn.REGEXEXTRACT(B14,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R15)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>172</v>
+        <v>361</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>80</v>
@@ -3429,65 +3445,65 @@
         <v>80</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>346</v>
+        <v>522</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S15" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>359</v>
+        <v>590</v>
       </c>
       <c r="U15" s="8" t="str" cm="1">
         <f t="array" ref="U15">_xlfn.REGEXEXTRACT(B15,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R16)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="8">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>362</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>360</v>
+        <v>539</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>80</v>
@@ -3499,62 +3515,62 @@
         <v>120</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>404</v>
+        <v>188</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>166</v>
+        <v>540</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>363</v>
+        <v>105</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>80</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>80</v>
+        <v>521</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S16" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>364</v>
+        <v>541</v>
       </c>
       <c r="U16" s="8" t="str" cm="1">
         <f t="array" ref="U16">_xlfn.REGEXEXTRACT(B16,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R17)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="C17" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>80</v>
@@ -3563,65 +3579,65 @@
         <v>80</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>276</v>
+        <v>123</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="R17" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S17" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="U17" s="8" t="str" cm="1">
         <f t="array" ref="U17">_xlfn.REGEXEXTRACT(B17,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R18)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="C18" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>362</v>
+        <v>136</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>80</v>
@@ -3633,65 +3649,65 @@
         <v>120</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>122</v>
+        <v>151</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>139</v>
       </c>
       <c r="L18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="O18" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>365</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S18" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="U18" s="8" t="str" cm="1">
         <f t="array" ref="U18">_xlfn.REGEXEXTRACT(B18,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>abxxx.com</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R19)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="C19" s="8">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>282</v>
+        <v>465</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>283</v>
+        <v>473</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>80</v>
@@ -3703,59 +3719,59 @@
         <v>108</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>284</v>
+        <v>374</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S19" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="U19" s="8" t="str" cm="1">
         <f t="array" ref="U19">_xlfn.REGEXEXTRACT(B19,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R20)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>362</v>
+        <v>136</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>367</v>
+        <v>581</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>80</v>
@@ -3764,68 +3780,68 @@
         <v>80</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>158</v>
+        <v>484</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>139</v>
+        <v>516</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>368</v>
+        <v>565</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>148</v>
+        <v>584</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>80</v>
+        <v>586</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>80</v>
+        <v>583</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>80</v>
+        <v>625</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S20" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>369</v>
+        <v>585</v>
       </c>
       <c r="U20" s="8" t="str" cm="1">
         <f t="array" ref="U20">_xlfn.REGEXEXTRACT(B20,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R21)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="C21" s="8">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>232</v>
+        <v>542</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>232</v>
+        <v>594</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>80</v>
@@ -3834,126 +3850,126 @@
         <v>121</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>370</v>
+        <v>139</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>193</v>
+        <v>527</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S21" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>371</v>
+        <v>597</v>
       </c>
       <c r="U21" s="8" t="str" cm="1">
         <f t="array" ref="U21">_xlfn.REGEXEXTRACT(B21,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R22)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="C22" s="8">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>230</v>
+        <v>639</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>260</v>
+        <v>138</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>261</v>
+        <v>139</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>264</v>
+        <v>515</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="P22" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>80</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S22" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>262</v>
+        <v>643</v>
       </c>
       <c r="U22" s="8" t="str" cm="1">
         <f t="array" ref="U22">_xlfn.REGEXEXTRACT(B22,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R23)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="C23" s="8">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>462</v>
@@ -3971,62 +3987,62 @@
         <v>158</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S23" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="U23" s="8" t="str" cm="1">
         <f t="array" ref="U23">_xlfn.REGEXEXTRACT(B23,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R24)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C24" s="8">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>462</v>
+        <v>334</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>80</v>
@@ -4035,62 +4051,62 @@
         <v>120</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>404</v>
+        <v>125</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q24" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S24" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="U24" s="8" t="str" cm="1">
         <f t="array" ref="U24">_xlfn.REGEXEXTRACT(B24,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R25)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>2</v>
+        <v>325</v>
       </c>
       <c r="C25" s="8">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>172</v>
+        <v>339</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>80</v>
@@ -4099,132 +4115,132 @@
         <v>80</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="K25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="N25" s="8" t="s">
         <v>80</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S25" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>378</v>
+        <v>587</v>
       </c>
       <c r="U25" s="8" t="str" cm="1">
         <f t="array" ref="U25">_xlfn.REGEXEXTRACT(B25,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R26)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>379</v>
+        <v>152</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>380</v>
+        <v>463</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>381</v>
+        <v>472</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>397</v>
+        <v>120</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>166</v>
+        <v>494</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>396</v>
+        <v>103</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="P26" s="8">
+        <v>112</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="8">
         <v>69</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S26" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>394</v>
+        <v>248</v>
       </c>
       <c r="U26" s="8" t="str" cm="1">
         <f t="array" ref="U26">_xlfn.REGEXEXTRACT(B26,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R27)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C27" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>398</v>
+        <v>152</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>399</v>
+        <v>173</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>80</v>
@@ -4233,101 +4249,101 @@
         <v>80</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>383</v>
+        <v>120</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>401</v>
+        <v>148</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>404</v>
+        <v>185</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>403</v>
+        <v>181</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S27" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="U27" s="8" t="str" cm="1">
         <f t="array" ref="U27">_xlfn.REGEXEXTRACT(B27,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R28)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C28" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>152</v>
+        <v>420</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>494</v>
+        <v>341</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>112</v>
+        <v>377</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>69</v>
+        <v>193</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>94</v>
@@ -4336,32 +4352,32 @@
         <v>5</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="U28" s="8" t="str" cm="1">
         <f t="array" ref="U28">_xlfn.REGEXEXTRACT(B28,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R29)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="C29" s="8">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>80</v>
@@ -4370,129 +4386,129 @@
         <v>397</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>407</v>
+        <v>123</v>
       </c>
       <c r="K29" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>411</v>
-      </c>
       <c r="N29" s="8" t="s">
         <v>80</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>80</v>
+        <v>237</v>
+      </c>
+      <c r="P29" s="8">
+        <v>69</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="S29" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="U29" s="8" t="str" cm="1">
         <f t="array" ref="U29">_xlfn.REGEXEXTRACT(B29,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R30)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="C30" s="8">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>232</v>
+        <v>452</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>412</v>
+        <v>108</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>413</v>
+        <v>122</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>415</v>
+        <v>139</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>193</v>
+        <v>453</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>200</v>
+        <v>582</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S30" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="U30" s="8" t="str" cm="1">
         <f t="array" ref="U30">_xlfn.REGEXEXTRACT(B30,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R31)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>312</v>
+        <v>30</v>
       </c>
       <c r="C31" s="8">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>416</v>
+        <v>518</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>80</v>
@@ -4504,28 +4520,28 @@
         <v>120</v>
       </c>
       <c r="I31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>404</v>
-      </c>
       <c r="L31" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>590</v>
+        <v>159</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>80</v>
@@ -4534,32 +4550,32 @@
         <v>94</v>
       </c>
       <c r="S31" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>418</v>
+        <v>519</v>
       </c>
       <c r="U31" s="8" t="str" cm="1">
         <f t="array" ref="U31">_xlfn.REGEXEXTRACT(B31,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R32)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C32" s="8">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>152</v>
+        <v>542</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>173</v>
+        <v>462</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>80</v>
@@ -4568,34 +4584,34 @@
         <v>80</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>184</v>
+        <v>484</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>182</v>
+        <v>543</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>183</v>
+        <v>453</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>94</v>
@@ -4604,132 +4620,132 @@
         <v>5</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>250</v>
+        <v>544</v>
       </c>
       <c r="U32" s="8" t="str" cm="1">
         <f t="array" ref="U32">_xlfn.REGEXEXTRACT(B32,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>hcbdsm.com</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R33)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="C33" s="8">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>230</v>
+        <v>545</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>103</v>
+        <v>368</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>233</v>
+        <v>591</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S33" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>235</v>
+        <v>546</v>
       </c>
       <c r="U33" s="8" t="str" cm="1">
         <f t="array" ref="U33">_xlfn.REGEXEXTRACT(B33,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R34)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="C34" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>420</v>
+        <v>136</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>122</v>
+        <v>501</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>341</v>
+        <v>571</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>422</v>
+        <v>573</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>377</v>
+        <v>453</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>193</v>
+        <v>570</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>94</v>
@@ -4738,29 +4754,29 @@
         <v>5</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>421</v>
+        <v>572</v>
       </c>
       <c r="U34" s="8" t="str" cm="1">
         <f t="array" ref="U34">_xlfn.REGEXEXTRACT(B34,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R35)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" s="8">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>168</v>
+        <v>337</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>80</v>
@@ -4769,65 +4785,65 @@
         <v>80</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>139</v>
+        <v>576</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>170</v>
+        <v>577</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>103</v>
+        <v>540</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>169</v>
+        <v>578</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>171</v>
+        <v>527</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S35" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>327</v>
+        <v>580</v>
       </c>
       <c r="U35" s="8" t="str" cm="1">
         <f t="array" ref="U35">_xlfn.REGEXEXTRACT(B35,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R36)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="C36" s="8">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>376</v>
+        <v>195</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>80</v>
@@ -4836,132 +4852,132 @@
         <v>80</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>425</v>
+        <v>139</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>426</v>
+        <v>203</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>404</v>
+        <v>98</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S36" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>424</v>
+        <v>253</v>
       </c>
       <c r="U36" s="8" t="str" cm="1">
         <f t="array" ref="U36">_xlfn.REGEXEXTRACT(B36,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R37)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="C37" s="8">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>427</v>
+        <v>136</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>428</v>
+        <v>220</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>432</v>
+        <v>154</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q37" s="10" t="s">
-        <v>409</v>
+        <v>80</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S37" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>431</v>
+        <v>225</v>
       </c>
       <c r="U37" s="8" t="str" cm="1">
         <f t="array" ref="U37">_xlfn.REGEXEXTRACT(B37,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R38)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C38" s="8">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>152</v>
+        <v>542</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>80</v>
@@ -4970,168 +4986,168 @@
         <v>80</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>111</v>
+        <v>494</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>139</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>434</v>
+        <v>131</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>335</v>
+        <v>602</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="R38" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S38" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>435</v>
+        <v>612</v>
       </c>
       <c r="U38" s="8" t="str" cm="1">
         <f t="array" ref="U38">_xlfn.REGEXEXTRACT(B38,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R39)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="C39" s="8">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>436</v>
+        <v>153</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>380</v>
+        <v>613</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>383</v>
+        <v>120</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>108</v>
+        <v>516</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>439</v>
+        <v>111</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>123</v>
+        <v>565</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>429</v>
+        <v>193</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q39" s="8">
-        <v>69</v>
+        <v>131</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S39" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>438</v>
+        <v>616</v>
       </c>
       <c r="U39" s="8" t="str" cm="1">
         <f t="array" ref="U39">_xlfn.REGEXEXTRACT(B39,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R40)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C40" s="8">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>440</v>
+        <v>153</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>397</v>
+        <v>121</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>422</v>
+        <v>105</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>341</v>
+        <v>154</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>166</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="P40" s="8">
-        <v>69</v>
+        <v>527</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>377</v>
+        <v>602</v>
       </c>
       <c r="R40" s="8" t="s">
         <v>94</v>
@@ -5140,29 +5156,29 @@
         <v>5</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>443</v>
+        <v>624</v>
       </c>
       <c r="U40" s="8" t="str" cm="1">
         <f t="array" ref="U40">_xlfn.REGEXEXTRACT(B40,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R41)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="C41" s="8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>136</v>
+        <v>626</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>444</v>
+        <v>631</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>80</v>
@@ -5171,19 +5187,19 @@
         <v>80</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>111</v>
+        <v>641</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>80</v>
@@ -5192,12 +5208,12 @@
         <v>80</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>447</v>
+        <v>641</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q41" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q41" s="8" t="s">
         <v>80</v>
       </c>
       <c r="R41" s="8" t="s">
@@ -5207,29 +5223,29 @@
         <v>4</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>449</v>
+        <v>638</v>
       </c>
       <c r="U41" s="8" t="str" cm="1">
         <f t="array" ref="U41">_xlfn.REGEXEXTRACT(B41,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>netfapx.net</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R42)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C42" s="8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>450</v>
+        <v>626</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>172</v>
+        <v>631</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>80</v>
@@ -5241,16 +5257,16 @@
         <v>382</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>358</v>
+        <v>641</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>80</v>
@@ -5259,111 +5275,111 @@
         <v>80</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>447</v>
+        <v>641</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="R42" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S42" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>451</v>
+        <v>642</v>
       </c>
       <c r="U42" s="8" t="str" cm="1">
         <f t="array" ref="U42">_xlfn.REGEXEXTRACT(B42,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>pornzog</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R43)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="C43" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>452</v>
+        <v>339</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>120</v>
+        <v>383</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>122</v>
+        <v>404</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>583</v>
+        <v>133</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="R43" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S43" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>454</v>
+        <v>342</v>
       </c>
       <c r="U43" s="8" t="str" cm="1">
         <f t="array" ref="U43">_xlfn.REGEXEXTRACT(B43,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>xhamster18.desi</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R44)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="C44" s="8">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>80</v>
@@ -5372,19 +5388,19 @@
         <v>80</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>119</v>
+        <v>382</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>178</v>
+        <v>404</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>80</v>
@@ -5392,45 +5408,45 @@
       <c r="N44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="O44" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>142</v>
+      <c r="O44" s="8">
+        <v>69</v>
+      </c>
+      <c r="P44" s="8">
+        <v>619</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="S44" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="U44" s="8" t="str" cm="1">
         <f t="array" ref="U44">_xlfn.REGEXEXTRACT(B44,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.porndead.org</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R45)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C45" s="8">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>457</v>
+        <v>360</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>80</v>
@@ -5442,62 +5458,62 @@
         <v>120</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>480</v>
+        <v>363</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="R45" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S45" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="U45" s="8" t="str" cm="1">
         <f t="array" ref="U45">_xlfn.REGEXEXTRACT(B45,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R46)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="C46" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>479</v>
+        <v>361</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>80</v>
@@ -5509,31 +5525,31 @@
         <v>120</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>481</v>
+        <v>158</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>483</v>
+        <v>103</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>484</v>
+        <v>80</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>482</v>
+        <v>153</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>448</v>
+        <v>365</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="R46" s="8" t="s">
         <v>94</v>
@@ -5542,160 +5558,160 @@
         <v>4</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>485</v>
+        <v>366</v>
       </c>
       <c r="U46" s="8" t="str" cm="1">
         <f t="array" ref="U46">_xlfn.REGEXEXTRACT(B46,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R47)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C47" s="8">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>487</v>
+        <v>136</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>488</v>
+        <v>154</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L47" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>341</v>
-      </c>
       <c r="M47" s="8" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="R47" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S47" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>489</v>
+        <v>375</v>
       </c>
       <c r="U47" s="8" t="str" cm="1">
         <f t="array" ref="U47">_xlfn.REGEXEXTRACT(B47,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R48)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C48" s="8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>490</v>
+        <v>406</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>492</v>
+        <v>80</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>491</v>
+        <v>397</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>494</v>
+        <v>407</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>134</v>
+        <v>411</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>193</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="S48" s="8">
         <v>4</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>493</v>
+        <v>410</v>
       </c>
       <c r="U48" s="8" t="str" cm="1">
         <f t="array" ref="U48">_xlfn.REGEXEXTRACT(B48,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>txxx.me</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R49)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="8">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>220</v>
@@ -5707,65 +5723,65 @@
         <v>80</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="K49" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="M49" s="8" t="s">
-        <v>498</v>
+        <v>103</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>409</v>
+        <v>169</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>402</v>
+        <v>171</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="R49" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S49" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>496</v>
+        <v>327</v>
       </c>
       <c r="U49" s="8" t="str" cm="1">
         <f t="array" ref="U49">_xlfn.REGEXEXTRACT(B49,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R50)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="C50" s="8">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>153</v>
+        <v>376</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>80</v>
@@ -5774,34 +5790,34 @@
         <v>80</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>116</v>
+        <v>404</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>503</v>
+        <v>133</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>153</v>
+        <v>402</v>
       </c>
       <c r="R50" s="8" t="s">
         <v>94</v>
@@ -5810,29 +5826,29 @@
         <v>4</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="U50" s="8" t="str" cm="1">
         <f t="array" ref="U50">_xlfn.REGEXEXTRACT(B50,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R51)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C51" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>510</v>
+        <v>136</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>80</v>
@@ -5844,62 +5860,62 @@
         <v>120</v>
       </c>
       <c r="I51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K51" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>508</v>
-      </c>
       <c r="L51" s="8" t="s">
-        <v>368</v>
+        <v>166</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>593</v>
+        <v>80</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>174</v>
+        <v>447</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>409</v>
+        <v>445</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="R51" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S51" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T51" s="8" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="U51" s="8" t="str" cm="1">
         <f t="array" ref="U51">_xlfn.REGEXEXTRACT(B51,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R52)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C52" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>333</v>
+        <v>152</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>80</v>
@@ -5911,98 +5927,98 @@
         <v>120</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>139</v>
+        <v>481</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>157</v>
+        <v>483</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>516</v>
+        <v>486</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>484</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>132</v>
+        <v>482</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>233</v>
+        <v>448</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>190</v>
+        <v>453</v>
       </c>
       <c r="R52" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S52" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T52" s="8" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="U52" s="8" t="str" cm="1">
         <f t="array" ref="U52">_xlfn.REGEXEXTRACT(B52,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R53)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="C53" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>120</v>
+        <v>491</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>481</v>
+        <v>164</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>480</v>
+        <v>105</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>515</v>
+        <v>103</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>516</v>
+        <v>134</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>502</v>
+        <v>123</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>514</v>
+        <v>193</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="R53" s="8" t="s">
         <v>94</v>
@@ -6011,29 +6027,29 @@
         <v>4</v>
       </c>
       <c r="T53" s="8" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="U53" s="8" t="str" cm="1">
         <f t="array" ref="U53">_xlfn.REGEXEXTRACT(B53,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R54)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C54" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>80</v>
@@ -6045,62 +6061,62 @@
         <v>120</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>103</v>
+        <v>502</v>
       </c>
       <c r="K54" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L54" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="L54" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="M54" s="8" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="N54" s="8" t="s">
         <v>504</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>193</v>
+        <v>503</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="R54" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S54" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="U54" s="8" t="str" cm="1">
         <f t="array" ref="U54">_xlfn.REGEXEXTRACT(B54,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R55)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C55" s="8">
         <v>46</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>361</v>
+        <v>513</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>80</v>
@@ -6112,95 +6128,95 @@
         <v>120</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>188</v>
+        <v>480</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>111</v>
+        <v>515</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>166</v>
+        <v>516</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>103</v>
+        <v>502</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>409</v>
+        <v>514</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>522</v>
+        <v>233</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="R55" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S55" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="U55" s="8" t="str" cm="1">
         <f t="array" ref="U55">_xlfn.REGEXEXTRACT(B55,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R56)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="8">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>525</v>
+        <v>120</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>527</v>
+        <v>341</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>358</v>
+        <v>553</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>404</v>
+        <v>103</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="O56" s="8">
-        <v>69</v>
+        <v>158</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>132</v>
+        <v>552</v>
       </c>
       <c r="Q56" s="8" t="s">
         <v>193</v>
@@ -6209,32 +6225,32 @@
         <v>94</v>
       </c>
       <c r="S56" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T56" s="8" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="U56" s="8" t="str" cm="1">
         <f t="array" ref="U56">_xlfn.REGEXEXTRACT(B56,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.party</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R57)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>308</v>
+        <v>51</v>
       </c>
       <c r="C57" s="8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>399</v>
+        <v>220</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>80</v>
@@ -6243,132 +6259,132 @@
         <v>80</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>158</v>
+        <v>562</v>
       </c>
       <c r="J57" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="L57" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="M57" s="8" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>153</v>
+        <v>565</v>
+      </c>
+      <c r="O57" s="8">
+        <v>69</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>193</v>
+        <v>566</v>
       </c>
       <c r="R57" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S57" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="U57" s="8" t="str" cm="1">
         <f t="array" ref="U57">_xlfn.REGEXEXTRACT(B57,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R58)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="C58" s="8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>535</v>
+        <v>105</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>166</v>
+        <v>501</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>537</v>
+        <v>103</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>538</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>131</v>
+        <v>567</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="R58" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S58" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="U58" s="8" t="str" cm="1">
         <f t="array" ref="U58">_xlfn.REGEXEXTRACT(B58,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R59)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="C59" s="8">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>241</v>
+        <v>466</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>80</v>
@@ -6377,31 +6393,31 @@
         <v>80</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>258</v>
+        <v>480</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>154</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="Q59" s="8" t="s">
         <v>80</v>
@@ -6410,35 +6426,35 @@
         <v>94</v>
       </c>
       <c r="S59" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T59" s="8" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="U59" s="8" t="str" cm="1">
         <f t="array" ref="U59">_xlfn.REGEXEXTRACT(B59,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R60)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="C60" s="8">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>232</v>
+        <v>603</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>80</v>
@@ -6447,196 +6463,196 @@
         <v>121</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>520</v>
+        <v>105</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>193</v>
+        <v>377</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>80</v>
+        <v>602</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="S60" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="U60" s="8" t="str" cm="1">
         <f t="array" ref="U60">_xlfn.REGEXEXTRACT(B60,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R61)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C61" s="8">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>540</v>
+        <v>468</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>541</v>
+        <v>123</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>409</v>
+        <v>131</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>521</v>
+        <v>132</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="R61" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S61" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>542</v>
+        <v>135</v>
       </c>
       <c r="U61" s="8" t="str" cm="1">
         <f t="array" ref="U61">_xlfn.REGEXEXTRACT(B61,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R62)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="C62" s="8">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>172</v>
+        <v>610</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>80</v>
+        <v>622</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>125</v>
+        <v>540</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>190</v>
+        <v>602</v>
       </c>
       <c r="R62" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S62" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>251</v>
+        <v>615</v>
       </c>
       <c r="U62" s="8" t="str" cm="1">
         <f t="array" ref="U62">_xlfn.REGEXEXTRACT(B62,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R63)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="C63" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>195</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>80</v>
@@ -6648,65 +6664,65 @@
         <v>197</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>558</v>
+        <v>199</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N63" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N63" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O63" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P63" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="P63" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="Q63" s="8" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="R63" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S63" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="U63" s="8" t="str" cm="1">
         <f t="array" ref="U63">_xlfn.REGEXEXTRACT(B63,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R64)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="C64" s="8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>543</v>
+        <v>265</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>80</v>
@@ -6715,62 +6731,62 @@
         <v>121</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>164</v>
+        <v>271</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="R64" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S64" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>545</v>
+        <v>270</v>
       </c>
       <c r="U64" s="8" t="str" cm="1">
         <f t="array" ref="U64">_xlfn.REGEXEXTRACT(B64,"(?&lt;=//)[^/]+")</f>
-        <v>hcbdsm.com</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R65)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="C65" s="8">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>153</v>
+        <v>626</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>546</v>
+        <v>361</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>80</v>
@@ -6782,62 +6798,62 @@
         <v>120</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="K65" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K65" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="L65" s="8" t="s">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>271</v>
+        <v>125</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>541</v>
+        <v>389</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>592</v>
+        <v>409</v>
       </c>
       <c r="P65" s="8" t="s">
         <v>509</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
       <c r="R65" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S65" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>547</v>
+        <v>635</v>
       </c>
       <c r="U65" s="8" t="str" cm="1">
         <f t="array" ref="U65">_xlfn.REGEXEXTRACT(B65,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R66)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C66" s="8">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>136</v>
+        <v>626</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>549</v>
+        <v>416</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>80</v>
@@ -6849,62 +6865,62 @@
         <v>120</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>261</v>
+        <v>634</v>
       </c>
       <c r="J66" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="M66" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K66" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="N66" s="8" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S66" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T66" s="8" t="s">
-        <v>552</v>
+        <v>637</v>
       </c>
       <c r="U66" s="8" t="str" cm="1">
         <f t="array" ref="U66">_xlfn.REGEXEXTRACT(B66,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <f t="shared" ref="A67:A110" si="1">IF(ISBLANK(R67)=TRUE,1,0)</f>
+        <f>IF(ISBLANK(R67)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C67" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>80</v>
@@ -6916,62 +6932,62 @@
         <v>120</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>164</v>
+        <v>104</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>553</v>
+        <v>80</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="R67" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S67" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>555</v>
+        <v>117</v>
       </c>
       <c r="U67" s="8" t="str" cm="1">
         <f t="array" ref="U67">_xlfn.REGEXEXTRACT(B67,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.party</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>anyporn.com</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R68)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>137</v>
+        <v>320</v>
       </c>
       <c r="C68" s="8">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>80</v>
@@ -6980,199 +6996,199 @@
         <v>80</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>139</v>
+        <v>404</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="P68" s="8" t="s">
         <v>132</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="R68" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S68" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="U68" s="8" t="str" cm="1">
         <f t="array" ref="U68">_xlfn.REGEXEXTRACT(B68,"(?&lt;=//)[^/]+")</f>
-        <v>abxxx.com</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R69)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C69" s="8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>118</v>
+        <v>362</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>465</v>
+        <v>367</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>374</v>
+        <v>122</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>126</v>
+        <v>368</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="N69" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="N69" s="8" t="s">
         <v>80</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="R69" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S69" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="U69" s="8" t="str" cm="1">
         <f t="array" ref="U69">_xlfn.REGEXEXTRACT(B69,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R70)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="C70" s="8">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>462</v>
+        <v>230</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="R70" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S70" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="U70" s="8" t="str" cm="1">
         <f t="array" ref="U70">_xlfn.REGEXEXTRACT(B70,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R71)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="C71" s="8">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>80</v>
@@ -7181,34 +7197,34 @@
         <v>80</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="I71" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="K71" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>559</v>
-      </c>
       <c r="L71" s="8" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>541</v>
+        <v>103</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>561</v>
+        <v>80</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="R71" s="8" t="s">
         <v>94</v>
@@ -7217,29 +7233,29 @@
         <v>3</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="U71" s="8" t="str" cm="1">
         <f t="array" ref="U71">_xlfn.REGEXEXTRACT(B71,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R72)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C72" s="8">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>80</v>
@@ -7248,98 +7264,98 @@
         <v>80</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>121</v>
+        <v>382</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>563</v>
+        <v>125</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>564</v>
+        <v>341</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>551</v>
+        <v>80</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="O72" s="8">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>567</v>
+        <v>377</v>
       </c>
       <c r="R72" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S72" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T72" s="8" t="s">
-        <v>565</v>
+        <v>378</v>
       </c>
       <c r="U72" s="8" t="str" cm="1">
         <f t="array" ref="U72">_xlfn.REGEXEXTRACT(B72,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R73)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C73" s="8">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>562</v>
+        <v>380</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>120</v>
+        <v>397</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>417</v>
+        <v>166</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>501</v>
+        <v>395</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="P73" s="8" t="s">
-        <v>569</v>
+        <v>200</v>
+      </c>
+      <c r="P73" s="8">
+        <v>69</v>
       </c>
       <c r="Q73" s="8" t="s">
         <v>142</v>
@@ -7348,32 +7364,32 @@
         <v>94</v>
       </c>
       <c r="S73" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T73" s="8" t="s">
-        <v>570</v>
+        <v>394</v>
       </c>
       <c r="U73" s="8" t="str" cm="1">
         <f t="array" ref="U73">_xlfn.REGEXEXTRACT(B73,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R74)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C74" s="8">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>152</v>
+        <v>398</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>80</v>
@@ -7382,132 +7398,132 @@
         <v>80</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>120</v>
+        <v>383</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>178</v>
+        <v>401</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>480</v>
+        <v>404</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>158</v>
+        <v>403</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="R74" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S74" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T74" s="8" t="s">
-        <v>156</v>
+        <v>400</v>
       </c>
       <c r="U74" s="8" t="str" cm="1">
         <f t="array" ref="U74">_xlfn.REGEXEXTRACT(B74,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R75)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="C75" s="8">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>501</v>
+        <v>412</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>572</v>
+        <v>415</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>574</v>
+        <v>80</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>571</v>
+        <v>200</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="R75" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S75" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T75" s="8" t="s">
-        <v>573</v>
+        <v>414</v>
       </c>
       <c r="U75" s="8" t="str" cm="1">
         <f t="array" ref="U75">_xlfn.REGEXEXTRACT(B75,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R76)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="C76" s="8">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>80</v>
@@ -7516,65 +7532,65 @@
         <v>80</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>121</v>
+        <v>382</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>577</v>
+        <v>125</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>578</v>
+        <v>432</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>579</v>
+        <v>430</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q76" s="8" t="s">
-        <v>580</v>
+        <v>377</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="R76" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S76" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T76" s="8" t="s">
-        <v>581</v>
+        <v>431</v>
       </c>
       <c r="U76" s="8" t="str" cm="1">
         <f t="array" ref="U76">_xlfn.REGEXEXTRACT(B76,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R77)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C77" s="8">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>136</v>
+        <v>450</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>582</v>
+        <v>172</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>80</v>
@@ -7583,65 +7599,65 @@
         <v>80</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>121</v>
+        <v>382</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>516</v>
+        <v>123</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>566</v>
+        <v>404</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>585</v>
+        <v>80</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="O77" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="P77" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q77" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="P77" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>626</v>
       </c>
       <c r="R77" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S77" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>586</v>
+        <v>451</v>
       </c>
       <c r="U77" s="8" t="str" cm="1">
         <f t="array" ref="U77">_xlfn.REGEXEXTRACT(B77,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R78)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="C78" s="8">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>589</v>
+        <v>226</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>80</v>
@@ -7650,65 +7666,65 @@
         <v>80</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>105</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>593</v>
+        <v>178</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>508</v>
+        <v>239</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>592</v>
+        <v>142</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="R78" s="8" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="S78" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T78" s="8" t="s">
-        <v>594</v>
+        <v>256</v>
       </c>
       <c r="U78" s="8" t="str" cm="1">
         <f t="array" ref="U78">_xlfn.REGEXEXTRACT(B78,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R79)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="C79" s="8">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>195</v>
+        <v>487</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>80</v>
@@ -7717,65 +7733,65 @@
         <v>80</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>139</v>
+        <v>488</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>205</v>
+        <v>341</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>171</v>
+        <v>346</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="R79" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S79" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T79" s="8" t="s">
-        <v>253</v>
+        <v>489</v>
       </c>
       <c r="U79" s="8" t="str" cm="1">
         <f t="array" ref="U79">_xlfn.REGEXEXTRACT(B79,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R80)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C80" s="8">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>543</v>
+        <v>333</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>595</v>
+        <v>511</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>80</v>
@@ -7784,403 +7800,403 @@
         <v>80</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>157</v>
+        <v>488</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>139</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>104</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>111</v>
+        <v>516</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>528</v>
+        <v>132</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
       <c r="R80" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S80" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T80" s="8" t="s">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="U80" s="8" t="str" cm="1">
         <f t="array" ref="U80">_xlfn.REGEXEXTRACT(B80,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R81)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C81" s="8">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>599</v>
+        <v>337</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>120</v>
+        <v>397</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>151</v>
+        <v>526</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>139</v>
+        <v>358</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>404</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>453</v>
+        <v>341</v>
+      </c>
+      <c r="O81" s="8">
+        <v>69</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>430</v>
+        <v>132</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>603</v>
+        <v>193</v>
       </c>
       <c r="R81" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S81" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T81" s="8" t="s">
-        <v>601</v>
+        <v>525</v>
       </c>
       <c r="U81" s="8" t="str" cm="1">
         <f t="array" ref="U81">_xlfn.REGEXEXTRACT(B81,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R82)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="C82" s="8">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>510</v>
+        <v>195</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>470</v>
+        <v>215</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>494</v>
+        <v>122</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>368</v>
+        <v>216</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>557</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N82" s="8" t="s">
         <v>80</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>605</v>
+        <v>193</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="R82" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S82" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T82" s="8" t="s">
-        <v>606</v>
+        <v>255</v>
       </c>
       <c r="U82" s="8" t="str" cm="1">
         <f t="array" ref="U82">_xlfn.REGEXEXTRACT(B82,"(?&lt;=//)[^/]+")</f>
-        <v>www.omg.xxx</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R83)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>32</v>
+        <v>555</v>
       </c>
       <c r="C83" s="8">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>220</v>
+        <v>556</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>105</v>
+        <v>139</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>557</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>154</v>
+        <v>558</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>139</v>
+        <v>540</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>165</v>
+        <v>560</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="R83" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S83" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T83" s="8" t="s">
-        <v>225</v>
+        <v>559</v>
       </c>
       <c r="U83" s="8" t="str" cm="1">
         <f t="array" ref="U83">_xlfn.REGEXEXTRACT(B83,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>pervtube.net</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R84)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C84" s="8">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>136</v>
+        <v>459</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>604</v>
+        <v>469</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>597</v>
+        <v>475</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>607</v>
+        <v>139</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>609</v>
+        <v>191</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>610</v>
+        <v>166</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>377</v>
+        <v>193</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="R84" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S84" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T84" s="8" t="s">
-        <v>608</v>
+        <v>252</v>
       </c>
       <c r="U84" s="8" t="str" cm="1">
         <f t="array" ref="U84">_xlfn.REGEXEXTRACT(B84,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R85)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="C85" s="8">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>123</v>
+        <v>601</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="R85" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S85" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T85" s="8" t="s">
-        <v>135</v>
+        <v>575</v>
       </c>
       <c r="U85" s="8" t="str" cm="1">
         <f t="array" ref="U85">_xlfn.REGEXEXTRACT(B85,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R86)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="C86" s="8">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>611</v>
+        <v>471</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>80</v>
@@ -8189,62 +8205,62 @@
         <v>120</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>139</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>541</v>
+        <v>147</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>132</v>
+        <v>503</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>603</v>
+        <v>149</v>
       </c>
       <c r="R86" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S86" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T86" s="8" t="s">
-        <v>616</v>
+        <v>247</v>
       </c>
       <c r="U86" s="8" t="str" cm="1">
         <f t="array" ref="U86">_xlfn.REGEXEXTRACT(B86,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R87)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="C87" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>543</v>
+        <v>273</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>612</v>
+        <v>274</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>80</v>
@@ -8253,168 +8269,168 @@
         <v>80</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q87" s="9" t="s">
-        <v>509</v>
+        <v>80</v>
+      </c>
+      <c r="Q87" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="R87" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S87" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>613</v>
+        <v>278</v>
       </c>
       <c r="U87" s="8" t="str" cm="1">
         <f t="array" ref="U87">_xlfn.REGEXEXTRACT(B87,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R88)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="C88" s="8">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>614</v>
+        <v>282</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>516</v>
+        <v>108</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>139</v>
+        <v>284</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="O88" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P88" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="P88" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="Q88" s="8" t="s">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="R88" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S88" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T88" s="8" t="s">
-        <v>617</v>
+        <v>286</v>
       </c>
       <c r="U88" s="8" t="str" cm="1">
         <f t="array" ref="U88">_xlfn.REGEXEXTRACT(B88,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R89)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="C89" s="8">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>624</v>
+        <v>232</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>232</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>382</v>
+        <v>121</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>619</v>
+        <v>370</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>620</v>
+        <v>139</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="R89" s="8" t="s">
         <v>94</v>
@@ -8423,29 +8439,29 @@
         <v>2</v>
       </c>
       <c r="T89" s="8" t="s">
-        <v>621</v>
+        <v>371</v>
       </c>
       <c r="U89" s="8" t="str" cm="1">
         <f t="array" ref="U89">_xlfn.REGEXEXTRACT(B89,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R90)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="C90" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>615</v>
+        <v>416</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>80</v>
@@ -8454,65 +8470,65 @@
         <v>80</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>105</v>
+        <v>404</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="R90" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S90" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>625</v>
+        <v>418</v>
       </c>
       <c r="U90" s="8" t="str" cm="1">
         <f t="array" ref="U90">_xlfn.REGEXEXTRACT(B90,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R91)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C91" s="8">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>642</v>
+        <v>220</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>80</v>
@@ -8521,98 +8537,98 @@
         <v>80</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>515</v>
+        <v>188</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>122</v>
+        <v>498</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>178</v>
+        <v>499</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="P91" s="9" t="s">
-        <v>80</v>
+        <v>409</v>
+      </c>
+      <c r="P91" s="23" t="s">
+        <v>402</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="R91" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S91" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T91" s="8" t="s">
-        <v>646</v>
+        <v>496</v>
       </c>
       <c r="U91" s="8" t="str" cm="1">
         <f t="array" ref="U91">_xlfn.REGEXEXTRACT(B91,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R92)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="C92" s="8">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>196</v>
+        <v>532</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>199</v>
+        <v>534</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N92" s="10" t="s">
-        <v>80</v>
+        <v>536</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>193</v>
+        <v>509</v>
       </c>
       <c r="Q92" s="8" t="s">
         <v>200</v>
@@ -8621,102 +8637,102 @@
         <v>94</v>
       </c>
       <c r="S92" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T92" s="8" t="s">
-        <v>202</v>
+        <v>535</v>
       </c>
       <c r="U92" s="8" t="str" cm="1">
         <f t="array" ref="U92">_xlfn.REGEXEXTRACT(B92,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R93)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C93" s="8">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>459</v>
+        <v>598</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>469</v>
+        <v>599</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J93" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L93" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="M93" s="8" t="s">
-        <v>166</v>
+        <v>404</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>106</v>
+        <v>453</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>193</v>
+        <v>430</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>80</v>
+        <v>602</v>
       </c>
       <c r="R93" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S93" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T93" s="8" t="s">
-        <v>252</v>
+        <v>600</v>
       </c>
       <c r="U93" s="8" t="str" cm="1">
         <f t="array" ref="U93">_xlfn.REGEXEXTRACT(B93,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R94)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C94" s="8">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>265</v>
+        <v>510</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>470</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>476</v>
+        <v>595</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>80</v>
@@ -8725,16 +8741,16 @@
         <v>121</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>269</v>
+        <v>494</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>134</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="L94" s="10" t="s">
-        <v>80</v>
+        <v>368</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>80</v>
@@ -8743,44 +8759,44 @@
         <v>80</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>193</v>
+        <v>409</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="R94" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S94" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T94" s="8" t="s">
-        <v>270</v>
+        <v>605</v>
       </c>
       <c r="U94" s="8" t="str" cm="1">
         <f t="array" ref="U94">_xlfn.REGEXEXTRACT(B94,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.omg.xxx</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R95)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C95" s="8">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>136</v>
+        <v>617</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>416</v>
+        <v>623</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>80</v>
@@ -8789,65 +8805,65 @@
         <v>80</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="R95" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S95" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T95" s="8" t="s">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="U95" s="8" t="str" cm="1">
         <f t="array" ref="U95">_xlfn.REGEXEXTRACT(B95,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.peekvids.com</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R96)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="C96" s="8">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>208</v>
+        <v>357</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>462</v>
+        <v>172</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>80</v>
@@ -8856,132 +8872,132 @@
         <v>80</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>209</v>
+        <v>346</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="R96" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S96" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T96" s="8" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="U96" s="8" t="str" cm="1">
         <f t="array" ref="U96">_xlfn.REGEXEXTRACT(B96,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R97)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="C97" s="8">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>459</v>
+        <v>232</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>477</v>
+        <v>231</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="R97" s="8" t="s">
         <v>94</v>
       </c>
       <c r="S97" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T97" s="8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="U97" s="8" t="str" cm="1">
         <f t="array" ref="U97">_xlfn.REGEXEXTRACT(B97,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R98)=TRUE,1,0)</f>
         <v>0</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="C98" s="8">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>471</v>
+        <v>232</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>80</v>
@@ -8990,52 +9006,52 @@
         <v>80</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>144</v>
+        <v>520</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>503</v>
+        <v>193</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="S98" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T98" s="8" t="s">
-        <v>247</v>
+        <v>538</v>
       </c>
       <c r="U98" s="8" t="str" cm="1">
         <f t="array" ref="U98">_xlfn.REGEXEXTRACT(B98,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A67:A109" si="0">IF(ISBLANK(R99)=TRUE,1,0)</f>
         <v>1</v>
       </c>
       <c r="B99" s="10" t="s">
@@ -9074,9 +9090,9 @@
         <v>m.hqporner.com</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -9115,9 +9131,9 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -9156,9 +9172,9 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -9197,9 +9213,9 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B103" s="10" t="s">
@@ -9238,9 +9254,9 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -9267,7 +9283,7 @@
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
-      <c r="P104" s="14"/>
+      <c r="P104" s="12"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
@@ -9279,9 +9295,9 @@
         <v>punishworld.com</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B105" s="10" t="s">
@@ -9320,9 +9336,9 @@
         <v>punishworld.com</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B106" s="10" t="s">
@@ -9361,9 +9377,9 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B107" s="10" t="s">
@@ -9402,9 +9418,9 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B108" s="10" t="s">
@@ -9443,12 +9459,12 @@
         <v>punishbang.com</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C109" s="8">
@@ -9484,46 +9500,19 @@
         <v>punishbang.com</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U110" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
+  <autoFilter ref="A1:U109" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
     <filterColumn colId="0">
       <filters>
-        <filter val="0"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U98">
+      <sortCondition descending="1" ref="S1:S109"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D1:U39 A1:C110 D40:J40 L40:U40 D41:U72 D73:I74 K73:U74 D75:U86 D87:P87 R87:U87 D88:U88 D89 F89:U89 D90:U90 D91:O91 Q91:U91 D92:U103 D104:O104 Q104:U104 D105:U110">
+  <conditionalFormatting sqref="D1:U39 A1:C109 D40:J40 L40:U40 D73:I74 K73:U74 D75:U86 D87:P87 R87:U87 D88:U88 D89 F89:U89 D90:U90 D91:O91 Q91:U91 D92:U103 D104:O104 Q104:U104 D105:U109 D41:U72">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -9547,74 +9536,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1605F2D5-8484-4D0C-86D0-D24E81A20C64}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="9.140625" style="16"/>
+    <col min="18" max="18" width="7.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="17" t="str">
+        <f>_xlfn.CONCAT(A1,"-",B1,"-",C1)</f>
+        <v>bdsm-soft-maledom</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="17" t="str">
+        <f t="shared" ref="D2:D6" si="0">_xlfn.CONCAT(A2,"-",B2,"-",C2)</f>
+        <v>bdsm-soft-femdom</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>bdsm-soft-lesdom</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C4" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>bdsm-hard-maledom</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="13" t="s">
+      <c r="D5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>bdsm-hard-femdom</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>bdsm-hard-lesdom</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>_xlfn.CONCAT(A7,"-",B7,"-",C7)</f>
+        <v>normal-rough-cis</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f t="shared" ref="D8:D16" si="1">_xlfn.CONCAT(A8,"-",B8,"-",C8)</f>
+        <v>normal-rough-maledom</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>normal-rough-femdom</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>normal-rough-lesdom</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>normal-rough-lesbian</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="C12" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>normal-sensual-cis</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="D13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>normal-sensual-maledom</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>normal-sensual-femdom</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="D15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>normal-sensual-lesdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>110</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>normal-sensual-lesbian</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_links.xlsx
+++ b/data/master_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E226355-CC60-495D-A92E-26F62F289CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46C3A3C-6B0B-4C75-9729-559C69D31F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-45" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_links" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="bdsmvilla" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main_links!$A$1:$U$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main_links!$A$1:$U$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,9 +41,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -54,16 +55,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="723">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -2163,6 +2178,75 @@
   </si>
   <si>
     <t>cunnilingus</t>
+  </si>
+  <si>
+    <t>https://www.txxx.porn/sites/divine-bitches/</t>
+  </si>
+  <si>
+    <t>decent sized collection of full length femdom videos from divine bitches</t>
+  </si>
+  <si>
+    <t>https://www.txxx.porn/sites/men-in-pain/</t>
+  </si>
+  <si>
+    <t>men in pain</t>
+  </si>
+  <si>
+    <t>decent sized collection of full length femdom videos from men in pain</t>
+  </si>
+  <si>
+    <t>https://www.txxx.porn/sites/kink/</t>
+  </si>
+  <si>
+    <t>https://www.txxx.porn/sites/kink-classics/</t>
+  </si>
+  <si>
+    <t>kink classic</t>
+  </si>
+  <si>
+    <t>decent sized collection of full length femdom videos from kink</t>
+  </si>
+  <si>
+    <t>decent sized collection of full length femdom videos from kink classic</t>
+  </si>
+  <si>
+    <t>https://www.tubegalore.com/c/japanese-femdom</t>
+  </si>
+  <si>
+    <t>jap femdom</t>
+  </si>
+  <si>
+    <t>https://www.eporner.com/video-YbhCJeVFRxq/mxpa-012-japanese-strapon-femdom/</t>
+  </si>
+  <si>
+    <t>https://xhamster44.desi/moments/japanese-mistress-whipping-training-slave-xhZCsMd</t>
+  </si>
+  <si>
+    <t>https://abjav.com/video/114433/japanese-femdom-pt3/?campaign_id=251311668</t>
+  </si>
+  <si>
+    <t>https://www.pornhits.com/video/39573/mommy-s-little-pervert/</t>
+  </si>
+  <si>
+    <t>foot worship</t>
+  </si>
+  <si>
+    <t>cbt</t>
+  </si>
+  <si>
+    <t>dani daniels</t>
+  </si>
+  <si>
+    <t>othero</t>
+  </si>
+  <si>
+    <t>body licking</t>
+  </si>
+  <si>
+    <t>bikini</t>
+  </si>
+  <si>
+    <t>ass eating at 14m,foot licking at 35m</t>
   </si>
 </sst>
 </file>
@@ -2422,6 +2506,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <fb t="e">#N/A</fb>
+    <v>6</v>
+    <v>7</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2687,11 +2830,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-  <dimension ref="A1:U110"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R105" sqref="R105"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O109" sqref="O109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,22 +2929,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>IF(ISBLANK(R2)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="C2" s="12">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>614</v>
+        <v>206</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>79</v>
@@ -2812,31 +2956,31 @@
         <v>118</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>499</v>
+        <v>345</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="N2" s="12" t="s">
-        <v>380</v>
+        <v>656</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>93</v>
@@ -2845,29 +2989,29 @@
         <v>8</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="U2" s="12" t="str" cm="1">
         <f t="array" ref="U2">_xlfn.REGEXEXTRACT(B2,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>IF(ISBLANK(R3)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="C3" s="12">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>206</v>
+        <v>614</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>79</v>
@@ -2879,31 +3023,31 @@
         <v>118</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>345</v>
+        <v>499</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>654</v>
+        <v>137</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>137</v>
+        <v>620</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>656</v>
+        <v>380</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>93</v>
@@ -2912,29 +3056,29 @@
         <v>8</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="U3" s="12" t="str" cm="1">
         <f t="array" ref="U3">_xlfn.REGEXEXTRACT(B3,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
-        <f>IF(ISBLANK(R4)=TRUE,"Pending","Done")</f>
+        <f>IF(ISBLANK(Q4)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>294</v>
+        <v>69</v>
       </c>
       <c r="C4" s="12">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>614</v>
+        <v>329</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>79</v>
@@ -2943,34 +3087,34 @@
         <v>79</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>296</v>
+        <v>118</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>102</v>
+        <v>670</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>114</v>
+        <v>665</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>297</v>
+        <v>530</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>191</v>
+        <v>666</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>231</v>
+        <v>667</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>208</v>
+        <v>668</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>93</v>
@@ -2979,65 +3123,65 @@
         <v>7</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>299</v>
+        <v>669</v>
       </c>
       <c r="U4" s="12" t="str" cm="1">
         <f t="array" ref="U4">_xlfn.REGEXEXTRACT(B4,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>punishworld.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f>IF(ISBLANK(R5)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>390</v>
+        <v>170</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>156</v>
+        <v>657</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>137</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>518</v>
+        <v>174</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>519</v>
+        <v>129</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>520</v>
+        <v>177</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>93</v>
@@ -3046,29 +3190,29 @@
         <v>7</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>521</v>
+        <v>247</v>
       </c>
       <c r="U5" s="12" t="str" cm="1">
         <f t="array" ref="U5">_xlfn.REGEXEXTRACT(B5,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>IF(ISBLANK(R6)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>226</v>
+        <v>642</v>
       </c>
       <c r="C6" s="12">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>239</v>
+        <v>647</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>79</v>
@@ -3077,34 +3221,34 @@
         <v>79</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>242</v>
+        <v>648</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>152</v>
+        <v>650</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>103</v>
+        <v>395</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>240</v>
+        <v>649</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>93</v>
@@ -3113,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>255</v>
+        <v>652</v>
       </c>
       <c r="U6" s="12" t="str" cm="1">
         <f t="array" ref="U6">_xlfn.REGEXEXTRACT(B6,"(?&lt;=//)[^/]+")</f>
@@ -3126,16 +3270,16 @@
         <v>Done</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="12">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>79</v>
@@ -3147,31 +3291,31 @@
         <v>118</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>162</v>
+        <v>498</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>93</v>
@@ -3180,7 +3324,7 @@
         <v>7</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="U7" s="12" t="str" cm="1">
         <f t="array" ref="U7">_xlfn.REGEXEXTRACT(B7,"(?&lt;=//)[^/]+")</f>
@@ -3254,22 +3398,22 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f>IF(ISBLANK(R9)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C9" s="12">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>79</v>
@@ -3281,31 +3425,31 @@
         <v>118</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="K9" s="12" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>498</v>
+        <v>162</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>530</v>
+        <v>146</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>93</v>
@@ -3314,7 +3458,7 @@
         <v>7</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="U9" s="12" t="str" cm="1">
         <f t="array" ref="U9">_xlfn.REGEXEXTRACT(B9,"(?&lt;=//)[^/]+")</f>
@@ -3327,52 +3471,52 @@
         <v>Done</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="C10" s="12">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>657</v>
+        <v>242</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>93</v>
@@ -3381,11 +3525,11 @@
         <v>7</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="U10" s="12" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.REGEXEXTRACT(B10,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -3394,16 +3538,16 @@
         <v>Done</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>642</v>
+        <v>305</v>
       </c>
       <c r="C11" s="12">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>647</v>
+        <v>390</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>79</v>
@@ -3415,31 +3559,31 @@
         <v>118</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>648</v>
+        <v>156</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>137</v>
+        <v>518</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>650</v>
+        <v>519</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>395</v>
+        <v>520</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>649</v>
+        <v>151</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>651</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>400</v>
+        <v>191</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>93</v>
@@ -3448,29 +3592,29 @@
         <v>7</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>652</v>
+        <v>521</v>
       </c>
       <c r="U11" s="12" t="str" cm="1">
         <f t="array" ref="U11">_xlfn.REGEXEXTRACT(B11,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
-        <f>IF(ISBLANK(Q12)=TRUE,"Pending","Done")</f>
+        <f>IF(ISBLANK(R12)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="C12" s="12">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>329</v>
+        <v>614</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>79</v>
@@ -3479,34 +3623,34 @@
         <v>79</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>670</v>
+        <v>102</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>665</v>
+        <v>114</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>530</v>
+        <v>297</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>666</v>
+        <v>191</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>667</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>668</v>
+        <v>208</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>93</v>
@@ -3515,11 +3659,11 @@
         <v>7</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>669</v>
+        <v>299</v>
       </c>
       <c r="U12" s="12" t="str" cm="1">
         <f t="array" ref="U12">_xlfn.REGEXEXTRACT(B12,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3528,16 +3672,16 @@
         <v>Done</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>319</v>
+        <v>700</v>
       </c>
       <c r="C13" s="12">
         <v>0</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>614</v>
+        <v>193</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>414</v>
+        <v>619</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>79</v>
@@ -3546,47 +3690,47 @@
         <v>79</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>373</v>
+        <v>195</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>615</v>
+        <v>97</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>269</v>
+        <v>716</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>616</v>
+        <v>717</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>617</v>
+        <v>530</v>
       </c>
       <c r="O13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="Q13" s="12" t="s">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S13" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="U13" s="12" t="str" cm="1">
         <f t="array" ref="U13">_xlfn.REGEXEXTRACT(B13,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>www.txxx.porn</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -3595,16 +3739,16 @@
         <v>Done</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="C14" s="12">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>79</v>
@@ -3616,31 +3760,31 @@
         <v>118</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>425</v>
+        <v>172</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>327</v>
+        <v>208</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>93</v>
@@ -3649,11 +3793,11 @@
         <v>6</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>426</v>
+        <v>252</v>
       </c>
       <c r="U14" s="12" t="str" cm="1">
         <f t="array" ref="U14">_xlfn.REGEXEXTRACT(B14,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.pornhits.com</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -3662,52 +3806,52 @@
         <v>Done</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>427</v>
+        <v>151</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>371</v>
+        <v>627</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>657</v>
+        <v>136</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>395</v>
+        <v>176</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>93</v>
@@ -3716,29 +3860,29 @@
         <v>6</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>429</v>
+        <v>631</v>
       </c>
       <c r="U15" s="12" t="str" cm="1">
         <f t="array" ref="U15">_xlfn.REGEXEXTRACT(B15,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f>IF(ISBLANK(R16)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C16" s="12">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>448</v>
+        <v>583</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>79</v>
@@ -3747,34 +3891,34 @@
         <v>79</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>359</v>
+        <v>137</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>146</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>470</v>
+        <v>168</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>109</v>
       </c>
       <c r="O16" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="R16" s="12" t="s">
         <v>93</v>
@@ -3783,29 +3927,29 @@
         <v>6</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>449</v>
+        <v>586</v>
       </c>
       <c r="U16" s="12" t="str" cm="1">
         <f t="array" ref="U16">_xlfn.REGEXEXTRACT(B16,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f>IF(ISBLANK(R17)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="C17" s="12">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>500</v>
+        <v>134</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>353</v>
+        <v>570</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>79</v>
@@ -3814,34 +3958,34 @@
         <v>79</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>137</v>
+        <v>474</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>359</v>
+        <v>554</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>400</v>
+        <v>613</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>93</v>
@@ -3850,11 +3994,11 @@
         <v>6</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>497</v>
+        <v>574</v>
       </c>
       <c r="U17" s="12" t="str" cm="1">
         <f t="array" ref="U17">_xlfn.REGEXEXTRACT(B17,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3863,16 +4007,16 @@
         <v>Done</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="C18" s="12">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>353</v>
+        <v>455</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>79</v>
@@ -3884,31 +4028,31 @@
         <v>118</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="K18" s="12" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>102</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>400</v>
+        <v>141</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>512</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>513</v>
+        <v>140</v>
       </c>
       <c r="R18" s="12" t="s">
         <v>93</v>
@@ -3917,11 +4061,11 @@
         <v>6</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>579</v>
+        <v>244</v>
       </c>
       <c r="U18" s="12" t="str" cm="1">
         <f t="array" ref="U18">_xlfn.REGEXEXTRACT(B18,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>abxxx.com</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -3930,52 +4074,52 @@
         <v>Done</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C19" s="12">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>137</v>
+        <v>657</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>186</v>
+        <v>365</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>530</v>
+        <v>128</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>511</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="R19" s="12" t="s">
         <v>93</v>
@@ -3984,11 +4128,11 @@
         <v>6</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>531</v>
+        <v>243</v>
       </c>
       <c r="U19" s="12" t="str" cm="1">
         <f t="array" ref="U19">_xlfn.REGEXEXTRACT(B19,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -4058,22 +4202,22 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>IF(ISBLANK(R21)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="C21" s="12">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>79</v>
@@ -4085,31 +4229,31 @@
         <v>118</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>137</v>
+        <v>530</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>141</v>
+        <v>400</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>130</v>
+        <v>511</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="R21" s="12" t="s">
         <v>93</v>
@@ -4118,65 +4262,65 @@
         <v>6</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>244</v>
+        <v>531</v>
       </c>
       <c r="U21" s="12" t="str" cm="1">
         <f t="array" ref="U21">_xlfn.REGEXEXTRACT(B21,"(?&lt;=//)[^/]+")</f>
-        <v>abxxx.com</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>IF(ISBLANK(R22)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22" s="12">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>456</v>
+        <v>353</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>657</v>
+        <v>136</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>365</v>
+        <v>162</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>158</v>
+        <v>400</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>126</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>125</v>
+        <v>513</v>
       </c>
       <c r="R22" s="12" t="s">
         <v>93</v>
@@ -4185,29 +4329,29 @@
         <v>6</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>243</v>
+        <v>579</v>
       </c>
       <c r="U22" s="12" t="str" cm="1">
         <f t="array" ref="U22">_xlfn.REGEXEXTRACT(B22,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>IF(ISBLANK(R23)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C23" s="12">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>570</v>
+        <v>353</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>79</v>
@@ -4216,34 +4360,34 @@
         <v>79</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>474</v>
+        <v>137</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>554</v>
+        <v>359</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>572</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>613</v>
+        <v>400</v>
       </c>
       <c r="R23" s="12" t="s">
         <v>93</v>
@@ -4252,11 +4396,11 @@
         <v>6</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>574</v>
+        <v>497</v>
       </c>
       <c r="U23" s="12" t="str" cm="1">
         <f t="array" ref="U23">_xlfn.REGEXEXTRACT(B23,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>m.hqporner.com</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -4265,16 +4409,16 @@
         <v>Done</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C24" s="12">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>532</v>
+        <v>447</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>583</v>
+        <v>448</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>79</v>
@@ -4283,34 +4427,34 @@
         <v>79</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>146</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>168</v>
+        <v>470</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>109</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>517</v>
+        <v>444</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>93</v>
@@ -4319,7 +4463,7 @@
         <v>6</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>586</v>
+        <v>449</v>
       </c>
       <c r="U24" s="12" t="str" cm="1">
         <f t="array" ref="U24">_xlfn.REGEXEXTRACT(B24,"(?&lt;=//)[^/]+")</f>
@@ -4332,52 +4476,52 @@
         <v>Done</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="C25" s="12">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>151</v>
+        <v>427</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>136</v>
+        <v>657</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>505</v>
+        <v>430</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>176</v>
+        <v>395</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>499</v>
+        <v>420</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>191</v>
+        <v>400</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>69</v>
       </c>
       <c r="R25" s="12" t="s">
         <v>93</v>
@@ -4386,11 +4530,11 @@
         <v>6</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>631</v>
+        <v>429</v>
       </c>
       <c r="U25" s="12" t="str" cm="1">
         <f t="array" ref="U25">_xlfn.REGEXEXTRACT(B25,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.tnaflix.com</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -4399,16 +4543,16 @@
         <v>Done</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="C26" s="12">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>79</v>
@@ -4420,31 +4564,31 @@
         <v>118</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>211</v>
+        <v>359</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>207</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="R26" s="12" t="s">
         <v>93</v>
@@ -4453,11 +4597,11 @@
         <v>6</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>252</v>
+        <v>426</v>
       </c>
       <c r="U26" s="12" t="str" cm="1">
         <f t="array" ref="U26">_xlfn.REGEXEXTRACT(B26,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -4527,22 +4671,22 @@
         <v>punishworld.com</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f>IF(ISBLANK(R28)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C28" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>325</v>
+        <v>614</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>326</v>
+        <v>414</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>79</v>
@@ -4551,47 +4695,47 @@
         <v>79</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>109</v>
+        <v>615</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>121</v>
+        <v>616</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="R28" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S28" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>328</v>
+        <v>618</v>
       </c>
       <c r="U28" s="12" t="str" cm="1">
         <f t="array" ref="U28">_xlfn.REGEXEXTRACT(B28,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -4600,16 +4744,16 @@
         <v>Done</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>322</v>
+        <v>702</v>
       </c>
       <c r="C29" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>330</v>
+        <v>703</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>331</v>
+        <v>619</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>79</v>
@@ -4618,68 +4762,68 @@
         <v>79</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="K29" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="O29" s="12" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="R29" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S29" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>576</v>
+        <v>704</v>
       </c>
       <c r="U29" s="12" t="str" cm="1">
         <f t="array" ref="U29">_xlfn.REGEXEXTRACT(B29,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>www.txxx.porn</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>IF(ISBLANK(R30)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>46</v>
+        <v>705</v>
       </c>
       <c r="C30" s="12">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>454</v>
+        <v>619</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>79</v>
@@ -4688,65 +4832,65 @@
         <v>118</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>657</v>
+        <v>114</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>484</v>
+        <v>102</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>102</v>
+        <v>379</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>109</v>
+        <v>380</v>
       </c>
       <c r="O30" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q30" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>69</v>
       </c>
       <c r="R30" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S30" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>246</v>
+        <v>708</v>
       </c>
       <c r="U30" s="12" t="str" cm="1">
         <f t="array" ref="U30">_xlfn.REGEXEXTRACT(B30,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.txxx.porn</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f>IF(ISBLANK(R31)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="12">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>150</v>
+        <v>682</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>79</v>
@@ -4755,98 +4899,98 @@
         <v>118</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>178</v>
+        <v>657</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>146</v>
+        <v>681</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>179</v>
+        <v>622</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>93</v>
+        <v>688</v>
       </c>
       <c r="S31" s="13">
         <v>5</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>248</v>
+        <v>687</v>
       </c>
       <c r="U31" s="12" t="str" cm="1">
         <f t="array" ref="U31">_xlfn.REGEXEXTRACT(B31,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f>IF(ISBLANK(R32)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C32" s="12">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>410</v>
+        <v>329</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J32" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>333</v>
-      </c>
       <c r="L32" s="12" t="s">
-        <v>413</v>
+        <v>164</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>79</v>
+        <v>698</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>368</v>
+        <v>699</v>
+      </c>
+      <c r="O32" s="12">
+        <v>69</v>
       </c>
       <c r="P32" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q32" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>338</v>
       </c>
       <c r="R32" s="12" t="s">
         <v>93</v>
@@ -4855,65 +4999,65 @@
         <v>5</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>412</v>
+        <v>697</v>
       </c>
       <c r="U32" s="12" t="str" cm="1">
         <f t="array" ref="U32">_xlfn.REGEXEXTRACT(B32,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f>IF(ISBLANK(R33)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C33" s="12">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>431</v>
+        <v>671</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>371</v>
+        <v>672</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>388</v>
+        <v>118</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>198</v>
+        <v>492</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>413</v>
+        <v>670</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="P33" s="12">
-        <v>69</v>
+        <v>591</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>675</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>368</v>
+        <v>649</v>
       </c>
       <c r="R33" s="12" t="s">
         <v>93</v>
@@ -4922,11 +5066,11 @@
         <v>5</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>434</v>
+        <v>673</v>
       </c>
       <c r="U33" s="12" t="str" cm="1">
         <f t="array" ref="U33">_xlfn.REGEXEXTRACT(B33,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>punishworld.com</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -4935,19 +5079,19 @@
         <v>Done</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="C34" s="12">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>443</v>
+        <v>570</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>433</v>
+        <v>220</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>79</v>
@@ -4956,31 +5100,31 @@
         <v>118</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>657</v>
+        <v>137</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>120</v>
+        <v>658</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>156</v>
+        <v>660</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>446</v>
+        <v>661</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>444</v>
+        <v>662</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>151</v>
+        <v>663</v>
       </c>
       <c r="R34" s="12" t="s">
         <v>93</v>
@@ -4989,29 +5133,29 @@
         <v>5</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>445</v>
+        <v>659</v>
       </c>
       <c r="U34" s="12" t="str" cm="1">
         <f t="array" ref="U34">_xlfn.REGEXEXTRACT(B34,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f>IF(ISBLANK(R35)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="12">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>508</v>
+        <v>602</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>79</v>
@@ -5020,34 +5164,34 @@
         <v>79</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>494</v>
+        <v>156</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>157</v>
+        <v>517</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="R35" s="12" t="s">
         <v>93</v>
@@ -5056,29 +5200,29 @@
         <v>5</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>509</v>
+        <v>612</v>
       </c>
       <c r="U35" s="12" t="str" cm="1">
         <f t="array" ref="U35">_xlfn.REGEXEXTRACT(B35,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f>IF(ISBLANK(R36)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C36" s="12">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>532</v>
+        <v>151</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>453</v>
+        <v>601</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>79</v>
@@ -5087,34 +5231,34 @@
         <v>79</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="K36" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K36" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="L36" s="12" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>132</v>
+        <v>554</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>474</v>
+        <v>156</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>533</v>
+        <v>191</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>444</v>
+        <v>129</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
       <c r="R36" s="12" t="s">
         <v>93</v>
@@ -5123,29 +5267,29 @@
         <v>5</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="U36" s="12" t="str" cm="1">
         <f t="array" ref="U36">_xlfn.REGEXEXTRACT(B36,"(?&lt;=//)[^/]+")</f>
-        <v>hcbdsm.com</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f>IF(ISBLANK(R37)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C37" s="12">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>151</v>
+        <v>532</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>79</v>
@@ -5154,34 +5298,34 @@
         <v>79</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I37" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L37" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="M37" s="12" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>530</v>
+        <v>156</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>580</v>
+        <v>129</v>
       </c>
       <c r="P37" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q37" s="12" t="s">
         <v>499</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>537</v>
       </c>
       <c r="R37" s="12" t="s">
         <v>93</v>
@@ -5190,7 +5334,7 @@
         <v>5</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="U37" s="12" t="str" cm="1">
         <f t="array" ref="U37">_xlfn.REGEXEXTRACT(B37,"(?&lt;=//)[^/]+")</f>
@@ -5203,52 +5347,52 @@
         <v>Done</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="C38" s="12">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>118</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>491</v>
+        <v>121</v>
       </c>
       <c r="J38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>562</v>
-      </c>
       <c r="M38" s="12" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>563</v>
+        <v>163</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="R38" s="12" t="s">
         <v>93</v>
@@ -5257,11 +5401,11 @@
         <v>5</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>561</v>
+        <v>223</v>
       </c>
       <c r="U38" s="12" t="str" cm="1">
         <f t="array" ref="U38">_xlfn.REGEXEXTRACT(B38,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -5270,16 +5414,16 @@
         <v>Done</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C39" s="12">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>79</v>
@@ -5288,34 +5432,34 @@
         <v>79</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>565</v>
+        <v>137</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>566</v>
+        <v>97</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>530</v>
+        <v>204</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>489</v>
+        <v>121</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>567</v>
+        <v>169</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>517</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="R39" s="12" t="s">
         <v>93</v>
@@ -5324,29 +5468,29 @@
         <v>5</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>569</v>
+        <v>251</v>
       </c>
       <c r="U39" s="12" t="str" cm="1">
         <f t="array" ref="U39">_xlfn.REGEXEXTRACT(B39,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f>IF(ISBLANK(R40)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="C40" s="12">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>79</v>
@@ -5355,34 +5499,34 @@
         <v>79</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>137</v>
+        <v>491</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>97</v>
+        <v>560</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>203</v>
+        <v>562</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>121</v>
+        <v>563</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>169</v>
+        <v>444</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>202</v>
+        <v>559</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="R40" s="12" t="s">
         <v>93</v>
@@ -5391,65 +5535,65 @@
         <v>5</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>251</v>
+        <v>561</v>
       </c>
       <c r="U40" s="12" t="str" cm="1">
         <f t="array" ref="U40">_xlfn.REGEXEXTRACT(B40,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
         <f>IF(ISBLANK(R41)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C41" s="12">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>121</v>
+        <v>565</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>152</v>
+        <v>566</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>137</v>
+        <v>530</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>163</v>
+        <v>489</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>221</v>
+        <v>567</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="R41" s="12" t="s">
         <v>93</v>
@@ -5458,29 +5602,29 @@
         <v>5</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>223</v>
+        <v>569</v>
       </c>
       <c r="U41" s="12" t="str" cm="1">
         <f t="array" ref="U41">_xlfn.REGEXEXTRACT(B41,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f>IF(ISBLANK(R42)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C42" s="12">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>532</v>
+        <v>151</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>599</v>
+        <v>535</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>79</v>
@@ -5489,34 +5633,34 @@
         <v>79</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>484</v>
+        <v>104</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>156</v>
+        <v>530</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>129</v>
+        <v>580</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>591</v>
+        <v>499</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="R42" s="12" t="s">
         <v>93</v>
@@ -5525,29 +5669,29 @@
         <v>5</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="U42" s="12" t="str" cm="1">
         <f t="array" ref="U42">_xlfn.REGEXEXTRACT(B42,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
         <f>IF(ISBLANK(R43)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C43" s="12">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>151</v>
+        <v>532</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>601</v>
+        <v>453</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>79</v>
@@ -5556,34 +5700,34 @@
         <v>79</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>506</v>
+        <v>137</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>554</v>
+        <v>132</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>156</v>
+        <v>474</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>191</v>
+        <v>533</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>129</v>
+        <v>444</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>368</v>
+        <v>130</v>
       </c>
       <c r="R43" s="12" t="s">
         <v>93</v>
@@ -5592,29 +5736,29 @@
         <v>5</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>604</v>
+        <v>534</v>
       </c>
       <c r="U43" s="12" t="str" cm="1">
         <f t="array" ref="U43">_xlfn.REGEXEXTRACT(B43,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>hcbdsm.com</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
         <f>IF(ISBLANK(R44)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" s="12">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>79</v>
@@ -5623,34 +5767,34 @@
         <v>79</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="J44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="L44" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="M44" s="12" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>156</v>
+        <v>494</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>517</v>
+        <v>157</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="R44" s="12" t="s">
         <v>93</v>
@@ -5659,7 +5803,7 @@
         <v>5</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>612</v>
+        <v>509</v>
       </c>
       <c r="U44" s="12" t="str" cm="1">
         <f t="array" ref="U44">_xlfn.REGEXEXTRACT(B44,"(?&lt;=//)[^/]+")</f>
@@ -5672,19 +5816,19 @@
         <v>Done</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="C45" s="12">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>570</v>
+        <v>443</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>220</v>
+        <v>433</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>79</v>
@@ -5693,31 +5837,31 @@
         <v>118</v>
       </c>
       <c r="I45" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="L45" s="12" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>660</v>
+        <v>156</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>661</v>
+        <v>446</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>662</v>
+        <v>444</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>663</v>
+        <v>151</v>
       </c>
       <c r="R45" s="12" t="s">
         <v>93</v>
@@ -5726,65 +5870,65 @@
         <v>5</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>659</v>
+        <v>445</v>
       </c>
       <c r="U45" s="12" t="str" cm="1">
         <f t="array" ref="U45">_xlfn.REGEXEXTRACT(B45,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
         <f>IF(ISBLANK(R46)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C46" s="12">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>671</v>
+        <v>431</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>672</v>
+        <v>371</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>492</v>
+        <v>198</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>670</v>
+        <v>413</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>674</v>
+        <v>333</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>675</v>
+        <v>235</v>
+      </c>
+      <c r="P46" s="12">
+        <v>69</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>649</v>
+        <v>368</v>
       </c>
       <c r="R46" s="12" t="s">
         <v>93</v>
@@ -5793,65 +5937,65 @@
         <v>5</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>673</v>
+        <v>434</v>
       </c>
       <c r="U46" s="12" t="str" cm="1">
         <f t="array" ref="U46">_xlfn.REGEXEXTRACT(B46,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f>IF(ISBLANK(R47)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C47" s="12">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>388</v>
+        <v>119</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J47" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="K47" s="12" t="s">
-        <v>198</v>
-      </c>
       <c r="L47" s="12" t="s">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>698</v>
+        <v>79</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="O47" s="12">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="R47" s="12" t="s">
         <v>93</v>
@@ -5860,32 +6004,32 @@
         <v>5</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>697</v>
+        <v>412</v>
       </c>
       <c r="U47" s="12" t="str" cm="1">
         <f t="array" ref="U47">_xlfn.REGEXEXTRACT(B47,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
         <f>IF(ISBLANK(R48)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" s="12">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>682</v>
+        <v>150</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>79</v>
@@ -5894,111 +6038,111 @@
         <v>118</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>657</v>
+        <v>178</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>681</v>
+        <v>146</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>622</v>
+        <v>179</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>400</v>
+        <v>181</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>688</v>
+        <v>93</v>
       </c>
       <c r="S48" s="13">
         <v>5</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>687</v>
+        <v>248</v>
       </c>
       <c r="U48" s="12" t="str" cm="1">
         <f t="array" ref="U48">_xlfn.REGEXEXTRACT(B48,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f>IF(ISBLANK(R49)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C49" s="12">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>614</v>
+        <v>150</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>619</v>
+        <v>454</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>629</v>
+        <v>110</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q49" s="12" t="s">
-        <v>79</v>
+        <v>111</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>69</v>
       </c>
       <c r="R49" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S49" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>626</v>
+        <v>246</v>
       </c>
       <c r="U49" s="12" t="str" cm="1">
         <f t="array" ref="U49">_xlfn.REGEXEXTRACT(B49,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -6007,16 +6151,16 @@
         <v>Done</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="C50" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>614</v>
+        <v>330</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>619</v>
+        <v>331</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>79</v>
@@ -6025,28 +6169,28 @@
         <v>79</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>629</v>
+        <v>258</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="N50" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>629</v>
+        <v>257</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>79</v>
@@ -6058,14 +6202,14 @@
         <v>93</v>
       </c>
       <c r="S50" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>630</v>
+        <v>576</v>
       </c>
       <c r="U50" s="12" t="str" cm="1">
         <f t="array" ref="U50">_xlfn.REGEXEXTRACT(B50,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -6074,16 +6218,16 @@
         <v>Done</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="C51" s="12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>451</v>
+        <v>325</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>79</v>
@@ -6092,47 +6236,47 @@
         <v>79</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I51" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L51" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="M51" s="12" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="N51" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="R51" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S51" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="U51" s="12" t="str" cm="1">
         <f t="array" ref="U51">_xlfn.REGEXEXTRACT(B51,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
+        <v>txxx.com</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -6141,83 +6285,83 @@
         <v>Done</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>320</v>
+        <v>706</v>
       </c>
       <c r="C52" s="12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>343</v>
+        <v>707</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>170</v>
+        <v>619</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>79</v>
+        <v>718</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O52" s="12">
-        <v>69</v>
-      </c>
-      <c r="P52" s="12">
-        <v>619</v>
+        <v>104</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="R52" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S52" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>344</v>
+        <v>709</v>
       </c>
       <c r="U52" s="12" t="str" cm="1">
         <f t="array" ref="U52">_xlfn.REGEXEXTRACT(B52,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.txxx.porn</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
         <f>IF(ISBLANK(R53)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C53" s="12">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>79</v>
@@ -6229,31 +6373,31 @@
         <v>118</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>123</v>
+        <v>657</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>395</v>
+        <v>661</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>650</v>
+        <v>492</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>333</v>
+        <v>693</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>79</v>
+        <v>694</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>439</v>
+        <v>191</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>79</v>
+        <v>695</v>
       </c>
       <c r="Q53" s="12" t="s">
-        <v>79</v>
+        <v>696</v>
       </c>
       <c r="R53" s="12" t="s">
         <v>93</v>
@@ -6262,11 +6406,11 @@
         <v>4</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>355</v>
+        <v>692</v>
       </c>
       <c r="U53" s="12" t="str" cm="1">
         <f t="array" ref="U53">_xlfn.REGEXEXTRACT(B53,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>punishbang.com</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -6275,52 +6419,52 @@
         <v>Done</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>313</v>
+        <v>71</v>
       </c>
       <c r="C54" s="12">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>354</v>
+        <v>683</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>353</v>
+        <v>684</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>79</v>
+        <v>685</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I54" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="L54" s="12" t="s">
-        <v>102</v>
+        <v>689</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>79</v>
+        <v>690</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>79</v>
+        <v>691</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>356</v>
+        <v>649</v>
       </c>
       <c r="Q54" s="12" t="s">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="R54" s="12" t="s">
         <v>93</v>
@@ -6329,11 +6473,11 @@
         <v>4</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>357</v>
+        <v>686</v>
       </c>
       <c r="U54" s="12" t="str" cm="1">
         <f t="array" ref="U54">_xlfn.REGEXEXTRACT(B54,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>punishbang.com</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -6342,52 +6486,52 @@
         <v>Done</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C55" s="12">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>220</v>
+        <v>467</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>231</v>
+        <v>591</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="Q55" s="12" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="R55" s="12" t="s">
         <v>93</v>
@@ -6396,11 +6540,11 @@
         <v>4</v>
       </c>
       <c r="T55" s="12" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="U55" s="12" t="str" cm="1">
         <f t="array" ref="U55">_xlfn.REGEXEXTRACT(B55,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -6409,16 +6553,16 @@
         <v>Done</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="C56" s="12">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>396</v>
+        <v>193</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>397</v>
+        <v>194</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>79</v>
@@ -6427,34 +6571,34 @@
         <v>79</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>388</v>
+        <v>195</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>398</v>
+        <v>197</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>402</v>
+        <v>199</v>
       </c>
       <c r="N56" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O56" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="P56" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="P56" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="Q56" s="12" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="R56" s="12" t="s">
         <v>93</v>
@@ -6463,11 +6607,11 @@
         <v>4</v>
       </c>
       <c r="T56" s="12" t="s">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="U56" s="12" t="str" cm="1">
         <f t="array" ref="U56">_xlfn.REGEXEXTRACT(B56,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -6476,16 +6620,16 @@
         <v>Done</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="C57" s="12">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>166</v>
+        <v>632</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>218</v>
+        <v>633</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>79</v>
@@ -6494,34 +6638,34 @@
         <v>79</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>137</v>
+        <v>635</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>156</v>
+        <v>345</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>168</v>
+        <v>492</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>102</v>
+        <v>638</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>79</v>
+        <v>639</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>169</v>
+        <v>636</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="R57" s="12" t="s">
         <v>93</v>
@@ -6530,65 +6674,65 @@
         <v>4</v>
       </c>
       <c r="T57" s="12" t="s">
-        <v>324</v>
+        <v>634</v>
       </c>
       <c r="U57" s="12" t="str" cm="1">
         <f t="array" ref="U57">_xlfn.REGEXEXTRACT(B57,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f>IF(ISBLANK(R58)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C58" s="12">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>414</v>
+        <v>598</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>416</v>
+        <v>149</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>417</v>
+        <v>104</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>395</v>
+        <v>137</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>333</v>
+        <v>530</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="O58" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="P58" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="P58" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="Q58" s="12" t="s">
-        <v>393</v>
+        <v>591</v>
       </c>
       <c r="R58" s="12" t="s">
         <v>93</v>
@@ -6597,65 +6741,65 @@
         <v>4</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>415</v>
+        <v>603</v>
       </c>
       <c r="U58" s="12" t="str" cm="1">
         <f t="array" ref="U58">_xlfn.REGEXEXTRACT(B58,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f>IF(ISBLANK(R59)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="C59" s="12">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>437</v>
+        <v>120</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>438</v>
+        <v>129</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>436</v>
+        <v>130</v>
       </c>
       <c r="Q59" s="12" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="R59" s="12" t="s">
         <v>93</v>
@@ -6664,65 +6808,65 @@
         <v>4</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>440</v>
+        <v>133</v>
       </c>
       <c r="U59" s="12" t="str" cm="1">
         <f t="array" ref="U59">_xlfn.REGEXEXTRACT(B59,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f>IF(ISBLANK(R60)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C60" s="12">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>469</v>
+        <v>592</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>470</v>
+        <v>104</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>471</v>
+        <v>595</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>359</v>
+        <v>597</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>473</v>
+        <v>136</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>476</v>
+        <v>109</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>474</v>
+        <v>137</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>472</v>
+        <v>131</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
       <c r="Q60" s="12" t="s">
-        <v>444</v>
+        <v>591</v>
       </c>
       <c r="R60" s="12" t="s">
         <v>93</v>
@@ -6731,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="T60" s="12" t="s">
-        <v>475</v>
+        <v>596</v>
       </c>
       <c r="U60" s="12" t="str" cm="1">
         <f t="array" ref="U60">_xlfn.REGEXEXTRACT(B60,"(?&lt;=//)[^/]+")</f>
@@ -6744,52 +6888,52 @@
         <v>Done</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="C61" s="12">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>481</v>
+        <v>118</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="L61" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="N61" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="M61" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N61" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="O61" s="12" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="R61" s="12" t="s">
         <v>93</v>
@@ -6798,29 +6942,29 @@
         <v>4</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>483</v>
+        <v>154</v>
       </c>
       <c r="U61" s="12" t="str" cm="1">
         <f t="array" ref="U61">_xlfn.REGEXEXTRACT(B61,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
         <f>IF(ISBLANK(R62)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C62" s="12">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>151</v>
+        <v>447</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>490</v>
+        <v>218</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>79</v>
@@ -6829,34 +6973,34 @@
         <v>79</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>114</v>
+        <v>552</v>
       </c>
       <c r="L62" s="12" t="s">
         <v>137</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>152</v>
+        <v>540</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="O62" s="12" t="s">
-        <v>191</v>
+        <v>554</v>
+      </c>
+      <c r="O62" s="12">
+        <v>69</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>493</v>
+        <v>231</v>
       </c>
       <c r="Q62" s="12" t="s">
-        <v>151</v>
+        <v>555</v>
       </c>
       <c r="R62" s="12" t="s">
         <v>93</v>
@@ -6865,29 +7009,29 @@
         <v>4</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="U62" s="12" t="str" cm="1">
         <f t="array" ref="U62">_xlfn.REGEXEXTRACT(B62,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
         <f>IF(ISBLANK(R63)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C63" s="12">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>79</v>
@@ -6899,31 +7043,31 @@
         <v>118</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>471</v>
+        <v>359</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>506</v>
+        <v>102</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>492</v>
+        <v>156</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>231</v>
+        <v>557</v>
       </c>
       <c r="Q63" s="12" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="R63" s="12" t="s">
         <v>93</v>
@@ -6932,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="T63" s="12" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="U63" s="12" t="str" cm="1">
         <f t="array" ref="U63">_xlfn.REGEXEXTRACT(B63,"(?&lt;=//)[^/]+")</f>
@@ -7006,22 +7150,22 @@
         <v>spankbang.party</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
         <f>IF(ISBLANK(R65)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C65" s="12">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>447</v>
+        <v>150</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>218</v>
+        <v>503</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>79</v>
@@ -7030,34 +7174,34 @@
         <v>79</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>551</v>
+        <v>471</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>404</v>
+        <v>109</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>552</v>
+        <v>470</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="O65" s="12">
-        <v>69</v>
+        <v>492</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="P65" s="12" t="s">
         <v>231</v>
       </c>
       <c r="Q65" s="12" t="s">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="R65" s="12" t="s">
         <v>93</v>
@@ -7066,7 +7210,7 @@
         <v>4</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="U65" s="12" t="str" cm="1">
         <f t="array" ref="U65">_xlfn.REGEXEXTRACT(B65,"(?&lt;=//)[^/]+")</f>
@@ -7079,16 +7223,16 @@
         <v>Done</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C66" s="12">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>151</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>79</v>
@@ -7100,31 +7244,31 @@
         <v>118</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>359</v>
+        <v>491</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>104</v>
+        <v>492</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>408</v>
+        <v>114</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>491</v>
+        <v>137</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>156</v>
+        <v>494</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>556</v>
+        <v>191</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>557</v>
+        <v>493</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R66" s="12" t="s">
         <v>93</v>
@@ -7133,29 +7277,29 @@
         <v>4</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>558</v>
+        <v>495</v>
       </c>
       <c r="U66" s="12" t="str" cm="1">
         <f t="array" ref="U66">_xlfn.REGEXEXTRACT(B66,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
         <f>IF(ISBLANK(R67)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C67" s="12">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>79</v>
@@ -7167,31 +7311,31 @@
         <v>118</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>155</v>
+        <v>470</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>176</v>
+        <v>471</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>470</v>
+        <v>359</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>152</v>
+        <v>476</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>102</v>
+        <v>474</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>151</v>
+        <v>472</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>153</v>
+        <v>439</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="R67" s="12" t="s">
         <v>93</v>
@@ -7200,11 +7344,11 @@
         <v>4</v>
       </c>
       <c r="T67" s="12" t="s">
-        <v>154</v>
+        <v>475</v>
       </c>
       <c r="U67" s="12" t="str" cm="1">
         <f t="array" ref="U67">_xlfn.REGEXEXTRACT(B67,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7213,52 +7357,52 @@
         <v>Done</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="C68" s="12">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>592</v>
+        <v>480</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>585</v>
+        <v>482</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>119</v>
+        <v>481</v>
       </c>
       <c r="I68" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J68" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>595</v>
-      </c>
       <c r="K68" s="12" t="s">
-        <v>597</v>
+        <v>484</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>368</v>
+        <v>129</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>591</v>
+        <v>485</v>
       </c>
       <c r="R68" s="12" t="s">
         <v>93</v>
@@ -7267,65 +7411,65 @@
         <v>4</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>596</v>
+        <v>483</v>
       </c>
       <c r="U68" s="12" t="str" cm="1">
         <f t="array" ref="U68">_xlfn.REGEXEXTRACT(B68,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
         <f>IF(ISBLANK(R69)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="C69" s="12">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>120</v>
+        <v>437</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>129</v>
+        <v>438</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>130</v>
+        <v>436</v>
       </c>
       <c r="Q69" s="12" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="R69" s="12" t="s">
         <v>93</v>
@@ -7334,32 +7478,32 @@
         <v>4</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>133</v>
+        <v>440</v>
       </c>
       <c r="U69" s="12" t="str" cm="1">
         <f t="array" ref="U69">_xlfn.REGEXEXTRACT(B69,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="str">
         <f>IF(ISBLANK(R70)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="C70" s="12">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>325</v>
+        <v>166</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>598</v>
+        <v>218</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>79</v>
@@ -7368,31 +7512,31 @@
         <v>118</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J70" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="L70" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K70" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>530</v>
-      </c>
       <c r="M70" s="12" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="R70" s="12" t="s">
         <v>93</v>
@@ -7401,29 +7545,29 @@
         <v>4</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>603</v>
+        <v>324</v>
       </c>
       <c r="U70" s="12" t="str" cm="1">
         <f t="array" ref="U70">_xlfn.REGEXEXTRACT(B70,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
         <f>IF(ISBLANK(R71)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c r="C71" s="12">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>194</v>
+        <v>414</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>79</v>
@@ -7432,34 +7576,34 @@
         <v>79</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>195</v>
+        <v>373</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>196</v>
+        <v>416</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>197</v>
+        <v>417</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>97</v>
+        <v>333</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="N71" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>198</v>
+        <v>393</v>
       </c>
       <c r="R71" s="12" t="s">
         <v>93</v>
@@ -7468,65 +7612,65 @@
         <v>4</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="U71" s="12" t="str" cm="1">
         <f t="array" ref="U71">_xlfn.REGEXEXTRACT(B71,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="str">
         <f>IF(ISBLANK(R72)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="C72" s="12">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>263</v>
+        <v>396</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="N72" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>591</v>
+        <v>191</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="R72" s="12" t="s">
         <v>93</v>
@@ -7535,11 +7679,11 @@
         <v>4</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>268</v>
+        <v>401</v>
       </c>
       <c r="U72" s="12" t="str" cm="1">
         <f t="array" ref="U72">_xlfn.REGEXEXTRACT(B72,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>txxx.me</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7548,52 +7692,52 @@
         <v>Done</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C73" s="12">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>632</v>
+        <v>134</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>633</v>
+        <v>453</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>635</v>
+        <v>152</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>492</v>
+        <v>114</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>638</v>
+        <v>102</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>639</v>
+        <v>489</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>636</v>
+        <v>131</v>
       </c>
       <c r="Q73" s="12" t="s">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="R73" s="12" t="s">
         <v>93</v>
@@ -7602,11 +7746,11 @@
         <v>4</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>634</v>
+        <v>366</v>
       </c>
       <c r="U73" s="12" t="str" cm="1">
         <f t="array" ref="U73">_xlfn.REGEXEXTRACT(B73,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7615,52 +7759,52 @@
         <v>Done</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="C74" s="12">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>683</v>
+        <v>354</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>684</v>
+        <v>353</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>685</v>
+        <v>79</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>540</v>
+        <v>156</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>492</v>
+        <v>120</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>689</v>
+        <v>102</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>690</v>
+        <v>79</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>691</v>
+        <v>79</v>
       </c>
       <c r="O74" s="12" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>649</v>
+        <v>356</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="R74" s="12" t="s">
         <v>93</v>
@@ -7669,29 +7813,29 @@
         <v>4</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>686</v>
+        <v>357</v>
       </c>
       <c r="U74" s="12" t="str" cm="1">
         <f t="array" ref="U74">_xlfn.REGEXEXTRACT(B74,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
         <f>IF(ISBLANK(R75)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C75" s="12">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>79</v>
@@ -7703,31 +7847,31 @@
         <v>118</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>657</v>
+        <v>123</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>661</v>
+        <v>395</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>693</v>
+        <v>333</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>694</v>
+        <v>79</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>695</v>
+        <v>79</v>
       </c>
       <c r="Q75" s="12" t="s">
-        <v>696</v>
+        <v>79</v>
       </c>
       <c r="R75" s="12" t="s">
         <v>93</v>
@@ -7736,11 +7880,11 @@
         <v>4</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>692</v>
+        <v>355</v>
       </c>
       <c r="U75" s="12" t="str" cm="1">
         <f t="array" ref="U75">_xlfn.REGEXEXTRACT(B75,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7749,16 +7893,16 @@
         <v>Done</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C76" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>614</v>
+        <v>343</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>353</v>
+        <v>170</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>79</v>
@@ -7767,65 +7911,65 @@
         <v>79</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>622</v>
+        <v>123</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>104</v>
+        <v>395</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="O76" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="P76" s="12" t="s">
-        <v>499</v>
+        <v>79</v>
+      </c>
+      <c r="O76" s="12">
+        <v>69</v>
+      </c>
+      <c r="P76" s="12">
+        <v>619</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="R76" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S76" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>623</v>
+        <v>344</v>
       </c>
       <c r="U76" s="12" t="str" cm="1">
         <f t="array" ref="U76">_xlfn.REGEXEXTRACT(B76,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.porndead.org</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
         <f>IF(ISBLANK(R77)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="C77" s="12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>614</v>
+        <v>451</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>79</v>
@@ -7834,65 +7978,65 @@
         <v>79</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>622</v>
+        <v>123</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>624</v>
+        <v>79</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>559</v>
+        <v>131</v>
       </c>
       <c r="Q77" s="12" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="R77" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S77" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>625</v>
+        <v>334</v>
       </c>
       <c r="U77" s="12" t="str" cm="1">
         <f t="array" ref="U77">_xlfn.REGEXEXTRACT(B77,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>xhamster18.desi</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="str">
         <f>IF(ISBLANK(R78)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C78" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>112</v>
+        <v>614</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>452</v>
+        <v>619</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>79</v>
@@ -7901,16 +8045,16 @@
         <v>79</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>103</v>
+        <v>629</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="L78" s="12" t="s">
         <v>79</v>
@@ -7922,7 +8066,7 @@
         <v>79</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>110</v>
+        <v>629</v>
       </c>
       <c r="P78" s="12" t="s">
         <v>79</v>
@@ -7934,32 +8078,32 @@
         <v>93</v>
       </c>
       <c r="S78" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T78" s="12" t="s">
-        <v>115</v>
+        <v>626</v>
       </c>
       <c r="U78" s="12" t="str" cm="1">
         <f t="array" ref="U78">_xlfn.REGEXEXTRACT(B78,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>netfapx.net</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
         <f>IF(ISBLANK(R79)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="C79" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>336</v>
+        <v>614</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>337</v>
+        <v>619</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>79</v>
@@ -7971,44 +8115,44 @@
         <v>373</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>103</v>
+        <v>629</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>338</v>
+        <v>629</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="Q79" s="12" t="s">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="R79" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S79" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>342</v>
+        <v>630</v>
       </c>
       <c r="U79" s="12" t="str" cm="1">
         <f t="array" ref="U79">_xlfn.REGEXEXTRACT(B79,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
+        <v>pornzog</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8017,16 +8161,16 @@
         <v>Done</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>6</v>
+        <v>710</v>
       </c>
       <c r="C80" s="12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>354</v>
+        <v>614</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>358</v>
+        <v>619</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>79</v>
@@ -8035,101 +8179,101 @@
         <v>79</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>156</v>
+        <v>688</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>120</v>
+        <v>716</v>
       </c>
       <c r="K80" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="L80" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="L80" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="M80" s="12" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>129</v>
+        <v>499</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Q80" s="12" t="s">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>93</v>
+        <v>688</v>
       </c>
       <c r="S80" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>360</v>
+        <v>711</v>
       </c>
       <c r="U80" s="12" t="str" cm="1">
         <f t="array" ref="U80">_xlfn.REGEXEXTRACT(B80,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.tubegalore.com</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="str">
         <f>IF(ISBLANK(R81)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="C81" s="12">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Q81" s="12" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="R81" s="12" t="s">
         <v>93</v>
@@ -8138,29 +8282,29 @@
         <v>3</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="U81" s="12" t="str" cm="1">
         <f t="array" ref="U81">_xlfn.REGEXEXTRACT(B81,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="str">
         <f>IF(ISBLANK(R82)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="C82" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>79</v>
@@ -8172,28 +8316,28 @@
         <v>118</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>156</v>
+        <v>359</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="K82" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="L82" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="L82" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="M82" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N82" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>363</v>
+        <v>191</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Q82" s="12" t="s">
         <v>79</v>
@@ -8205,11 +8349,11 @@
         <v>3</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>364</v>
+        <v>564</v>
       </c>
       <c r="U82" s="12" t="str" cm="1">
         <f t="array" ref="U82">_xlfn.REGEXEXTRACT(B82,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8218,16 +8362,16 @@
         <v>Done</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C83" s="12">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>367</v>
+        <v>150</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>170</v>
+        <v>640</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>79</v>
@@ -8236,34 +8380,34 @@
         <v>79</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>395</v>
+        <v>581</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>333</v>
+        <v>643</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>79</v>
+        <v>646</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>130</v>
+        <v>641</v>
       </c>
       <c r="Q83" s="12" t="s">
-        <v>368</v>
+        <v>644</v>
       </c>
       <c r="R83" s="12" t="s">
         <v>93</v>
@@ -8272,11 +8416,11 @@
         <v>3</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>369</v>
+        <v>645</v>
       </c>
       <c r="U83" s="12" t="str" cm="1">
         <f t="array" ref="U83">_xlfn.REGEXEXTRACT(B83,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -8285,52 +8429,52 @@
         <v>Done</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C84" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>388</v>
+        <v>117</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="K84" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M84" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="L84" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="M84" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="N84" s="12" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="O84" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="P84" s="12">
-        <v>69</v>
+        <v>105</v>
+      </c>
+      <c r="P84" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="Q84" s="12" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="R84" s="12" t="s">
         <v>93</v>
@@ -8339,29 +8483,29 @@
         <v>3</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>385</v>
+        <v>250</v>
       </c>
       <c r="U84" s="12" t="str" cm="1">
         <f t="array" ref="U84">_xlfn.REGEXEXTRACT(B84,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="str">
         <f>IF(ISBLANK(R85)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="C85" s="12">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>389</v>
+        <v>193</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>390</v>
+        <v>545</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>79</v>
@@ -8370,34 +8514,34 @@
         <v>79</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>374</v>
+        <v>195</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>395</v>
+        <v>547</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>394</v>
+        <v>97</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="N85" s="12" t="s">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="O85" s="12" t="s">
         <v>191</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q85" s="12" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="R85" s="12" t="s">
         <v>93</v>
@@ -8406,11 +8550,11 @@
         <v>3</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="U85" s="12" t="str" cm="1">
         <f t="array" ref="U85">_xlfn.REGEXEXTRACT(B85,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>pervtube.net</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -8419,40 +8563,40 @@
         <v>Done</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="C86" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>404</v>
+        <v>214</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>406</v>
+        <v>546</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="N86" s="12" t="s">
         <v>79</v>
@@ -8461,7 +8605,7 @@
         <v>191</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="Q86" s="12" t="s">
         <v>79</v>
@@ -8473,11 +8617,11 @@
         <v>3</v>
       </c>
       <c r="T86" s="12" t="s">
-        <v>405</v>
+        <v>253</v>
       </c>
       <c r="U86" s="12" t="str" cm="1">
         <f t="array" ref="U86">_xlfn.REGEXEXTRACT(B86,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.pornhits.com</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8486,16 +8630,16 @@
         <v>Done</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="C87" s="12">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>79</v>
@@ -8504,34 +8648,34 @@
         <v>79</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>123</v>
+        <v>478</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>423</v>
+        <v>156</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>421</v>
+        <v>130</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="Q87" s="12" t="s">
-        <v>400</v>
+        <v>188</v>
       </c>
       <c r="R87" s="12" t="s">
         <v>93</v>
@@ -8540,65 +8684,65 @@
         <v>3</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
       <c r="U87" s="12" t="str" cm="1">
         <f t="array" ref="U87">_xlfn.REGEXEXTRACT(B87,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="str">
         <f>IF(ISBLANK(R88)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C88" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>441</v>
+        <v>329</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>170</v>
+        <v>371</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>123</v>
+        <v>516</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>121</v>
       </c>
       <c r="L88" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="M88" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="M88" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="N88" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O88" s="12" t="s">
-        <v>438</v>
+        <v>333</v>
+      </c>
+      <c r="O88" s="12">
+        <v>69</v>
       </c>
       <c r="P88" s="12" t="s">
         <v>130</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="R88" s="12" t="s">
         <v>93</v>
@@ -8607,11 +8751,11 @@
         <v>3</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="U88" s="12" t="str" cm="1">
         <f t="array" ref="U88">_xlfn.REGEXEXTRACT(B88,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8754,16 +8898,16 @@
         <v>Done</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C91" s="12">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>325</v>
+        <v>441</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>501</v>
+        <v>170</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>79</v>
@@ -8772,34 +8916,34 @@
         <v>79</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>478</v>
+        <v>350</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>155</v>
+        <v>395</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N91" s="12" t="s">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="O91" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="P91" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="P91" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="Q91" s="12" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="R91" s="12" t="s">
         <v>93</v>
@@ -8808,65 +8952,65 @@
         <v>3</v>
       </c>
       <c r="T91" s="12" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="U91" s="12" t="str" cm="1">
         <f t="array" ref="U91">_xlfn.REGEXEXTRACT(B91,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f>IF(ISBLANK(R92)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="C92" s="12">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>398</v>
+        <v>123</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>516</v>
+        <v>269</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>121</v>
+        <v>423</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="N92" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="O92" s="12">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="O92" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="R92" s="12" t="s">
         <v>93</v>
@@ -8875,11 +9019,11 @@
         <v>3</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>515</v>
+        <v>422</v>
       </c>
       <c r="U92" s="12" t="str" cm="1">
         <f t="array" ref="U92">_xlfn.REGEXEXTRACT(B92,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -8888,40 +9032,40 @@
         <v>Done</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="C93" s="12">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="G93" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>120</v>
+        <v>403</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>546</v>
+        <v>406</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="N93" s="12" t="s">
         <v>79</v>
@@ -8930,7 +9074,7 @@
         <v>191</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="Q93" s="12" t="s">
         <v>79</v>
@@ -8942,11 +9086,11 @@
         <v>3</v>
       </c>
       <c r="T93" s="12" t="s">
-        <v>253</v>
+        <v>405</v>
       </c>
       <c r="U93" s="12" t="str" cm="1">
         <f t="array" ref="U93">_xlfn.REGEXEXTRACT(B93,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -8955,52 +9099,52 @@
         <v>Done</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>544</v>
+        <v>76</v>
       </c>
       <c r="C94" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>546</v>
+        <v>121</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>547</v>
+        <v>164</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>97</v>
+        <v>386</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>530</v>
+        <v>387</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="P94" s="12" t="s">
-        <v>130</v>
+        <v>198</v>
+      </c>
+      <c r="P94" s="12">
+        <v>69</v>
       </c>
       <c r="Q94" s="12" t="s">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="R94" s="12" t="s">
         <v>93</v>
@@ -9009,65 +9153,65 @@
         <v>3</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>548</v>
+        <v>385</v>
       </c>
       <c r="U94" s="12" t="str" cm="1">
         <f t="array" ref="U94">_xlfn.REGEXEXTRACT(B94,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f>IF(ISBLANK(R95)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C95" s="12">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>117</v>
+        <v>374</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>137</v>
+        <v>392</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>190</v>
+        <v>394</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="O95" s="12" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="Q95" s="12" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="R95" s="12" t="s">
         <v>93</v>
@@ -9076,11 +9220,11 @@
         <v>3</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="U95" s="12" t="str" cm="1">
         <f t="array" ref="U95">_xlfn.REGEXEXTRACT(B95,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9089,16 +9233,16 @@
         <v>Done</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>316</v>
+        <v>2</v>
       </c>
       <c r="C96" s="12">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>407</v>
+        <v>170</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>79</v>
@@ -9107,19 +9251,19 @@
         <v>79</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>104</v>
+        <v>395</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>590</v>
+        <v>333</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>79</v>
@@ -9128,13 +9272,13 @@
         <v>79</v>
       </c>
       <c r="O96" s="12" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="Q96" s="12" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="R96" s="12" t="s">
         <v>93</v>
@@ -9143,29 +9287,29 @@
         <v>3</v>
       </c>
       <c r="T96" s="12" t="s">
-        <v>564</v>
+        <v>369</v>
       </c>
       <c r="U96" s="12" t="str" cm="1">
         <f t="array" ref="U96">_xlfn.REGEXEXTRACT(B96,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f>IF(ISBLANK(R97)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="C97" s="12">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>79</v>
@@ -9177,31 +9321,31 @@
         <v>118</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>143</v>
+        <v>347</v>
       </c>
       <c r="K97" s="12" t="s">
         <v>137</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>144</v>
+        <v>363</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>493</v>
+        <v>235</v>
       </c>
       <c r="Q97" s="12" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="R97" s="12" t="s">
         <v>93</v>
@@ -9210,65 +9354,65 @@
         <v>3</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="U97" s="12" t="str" cm="1">
         <f t="array" ref="U97">_xlfn.REGEXEXTRACT(B97,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f>IF(ISBLANK(R98)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="C98" s="12">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>640</v>
+        <v>228</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>581</v>
+        <v>259</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>643</v>
+        <v>261</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>646</v>
+        <v>79</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="O98" s="12" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>641</v>
+        <v>79</v>
       </c>
       <c r="Q98" s="12" t="s">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="R98" s="12" t="s">
         <v>93</v>
@@ -9277,29 +9421,29 @@
         <v>3</v>
       </c>
       <c r="T98" s="12" t="s">
-        <v>645</v>
+        <v>260</v>
       </c>
       <c r="U98" s="12" t="str" cm="1">
         <f t="array" ref="U98">_xlfn.REGEXEXTRACT(B98,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f>IF(ISBLANK(R99)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="C99" s="12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>79</v>
@@ -9308,28 +9452,28 @@
         <v>79</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>274</v>
+        <v>120</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>103</v>
+        <v>359</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="O99" s="12" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="P99" s="12" t="s">
         <v>79</v>
@@ -9341,10 +9485,10 @@
         <v>93</v>
       </c>
       <c r="S99" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T99" s="12" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="U99" s="12" t="str" cm="1">
         <f t="array" ref="U99">_xlfn.REGEXEXTRACT(B99,"(?&lt;=//)[^/]+")</f>
@@ -9357,101 +9501,101 @@
         <v>Done</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="C100" s="12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>657</v>
+        <v>103</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="R100" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S100" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T100" s="12" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="U100" s="12" t="str" cm="1">
         <f t="array" ref="U100">_xlfn.REGEXEXTRACT(B100,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f>IF(ISBLANK(R101)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="C101" s="12">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>230</v>
+        <v>452</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>361</v>
+        <v>114</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L101" s="12" t="s">
         <v>79</v>
@@ -9463,7 +9607,7 @@
         <v>79</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="P101" s="12" t="s">
         <v>79</v>
@@ -9475,32 +9619,32 @@
         <v>93</v>
       </c>
       <c r="S101" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T101" s="12" t="s">
-        <v>362</v>
+        <v>115</v>
       </c>
       <c r="U101" s="12" t="str" cm="1">
         <f t="array" ref="U101">_xlfn.REGEXEXTRACT(B101,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>anyporn.com</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f>IF(ISBLANK(R102)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C102" s="12">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>134</v>
+        <v>614</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>79</v>
@@ -9512,44 +9656,44 @@
         <v>118</v>
       </c>
       <c r="I102" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="J102" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J102" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="K102" s="12" t="s">
-        <v>395</v>
+        <v>104</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>578</v>
+        <v>400</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="R102" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S102" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>409</v>
+        <v>623</v>
       </c>
       <c r="U102" s="12" t="str" cm="1">
         <f t="array" ref="U102">_xlfn.REGEXEXTRACT(B102,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9558,16 +9702,16 @@
         <v>Done</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="C103" s="12">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>150</v>
+        <v>614</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>218</v>
+        <v>407</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>79</v>
@@ -9576,101 +9720,101 @@
         <v>79</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>156</v>
+        <v>622</v>
       </c>
       <c r="J103" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K103" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L103" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="M103" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K103" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="L103" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="M103" s="12" t="s">
-        <v>488</v>
-      </c>
       <c r="N103" s="12" t="s">
-        <v>489</v>
+        <v>102</v>
       </c>
       <c r="O103" s="12" t="s">
-        <v>400</v>
+        <v>191</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>393</v>
+        <v>559</v>
       </c>
       <c r="Q103" s="12" t="s">
-        <v>488</v>
+        <v>105</v>
       </c>
       <c r="R103" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S103" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>486</v>
+        <v>625</v>
       </c>
       <c r="U103" s="12" t="str" cm="1">
         <f t="array" ref="U103">_xlfn.REGEXEXTRACT(B103,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="str">
         <f>IF(ISBLANK(R104)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C104" s="12">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>263</v>
+        <v>605</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>522</v>
+        <v>611</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>119</v>
+        <v>373</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>524</v>
+        <v>606</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>121</v>
+        <v>607</v>
       </c>
       <c r="L104" s="12" t="s">
         <v>164</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>526</v>
+        <v>269</v>
       </c>
       <c r="N104" s="12" t="s">
-        <v>527</v>
+        <v>123</v>
       </c>
       <c r="O104" s="12" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>499</v>
+        <v>393</v>
       </c>
       <c r="Q104" s="12" t="s">
-        <v>198</v>
+        <v>609</v>
       </c>
       <c r="R104" s="12" t="s">
         <v>93</v>
@@ -9679,11 +9823,11 @@
         <v>2</v>
       </c>
       <c r="T104" s="12" t="s">
-        <v>525</v>
+        <v>608</v>
       </c>
       <c r="U104" s="12" t="str" cm="1">
         <f t="array" ref="U104">_xlfn.REGEXEXTRACT(B104,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>www.peekvids.com</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9820,58 +9964,58 @@
         <v>www.omg.xxx</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="str">
         <f>IF(ISBLANK(R107)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C107" s="12">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>605</v>
+        <v>263</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>611</v>
+        <v>522</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>373</v>
+        <v>119</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>606</v>
+        <v>524</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>607</v>
+        <v>121</v>
       </c>
       <c r="L107" s="12" t="s">
         <v>164</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>269</v>
+        <v>526</v>
       </c>
       <c r="N107" s="12" t="s">
-        <v>123</v>
+        <v>527</v>
       </c>
       <c r="O107" s="12" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>393</v>
+        <v>499</v>
       </c>
       <c r="Q107" s="12" t="s">
-        <v>609</v>
+        <v>198</v>
       </c>
       <c r="R107" s="12" t="s">
         <v>93</v>
@@ -9880,11 +10024,11 @@
         <v>2</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>608</v>
+        <v>525</v>
       </c>
       <c r="U107" s="12" t="str" cm="1">
         <f t="array" ref="U107">_xlfn.REGEXEXTRACT(B107,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
+        <v>m.hqporner.com</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9893,16 +10037,16 @@
         <v>Done</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C108" s="12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>349</v>
+        <v>150</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>79</v>
@@ -9911,83 +10055,83 @@
         <v>79</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>373</v>
+        <v>119</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>345</v>
+        <v>156</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>347</v>
+        <v>487</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>350</v>
+        <v>186</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="N108" s="12" t="s">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="O108" s="12" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="Q108" s="12" t="s">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="R108" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S108" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>351</v>
+        <v>486</v>
       </c>
       <c r="U108" s="12" t="str" cm="1">
         <f t="array" ref="U108">_xlfn.REGEXEXTRACT(B108,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="str">
         <f>IF(ISBLANK(R109)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="C109" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>228</v>
+        <v>407</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>149</v>
+        <v>395</v>
       </c>
       <c r="L109" s="12" t="s">
         <v>102</v>
@@ -9999,7 +10143,7 @@
         <v>79</v>
       </c>
       <c r="O109" s="12" t="s">
-        <v>231</v>
+        <v>578</v>
       </c>
       <c r="P109" s="12" t="s">
         <v>79</v>
@@ -10011,26 +10155,26 @@
         <v>93</v>
       </c>
       <c r="S109" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T109" s="12" t="s">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="U109" s="12" t="str" cm="1">
         <f t="array" ref="U109">_xlfn.REGEXEXTRACT(B109,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="str">
         <f>IF(ISBLANK(R110)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="C110" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>230</v>
@@ -10039,7 +10183,7 @@
         <v>230</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="G110" s="12" t="s">
         <v>79</v>
@@ -10048,13 +10192,13 @@
         <v>119</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>510</v>
+        <v>136</v>
       </c>
       <c r="J110" s="12" t="s">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="L110" s="12" t="s">
         <v>79</v>
@@ -10066,10 +10210,10 @@
         <v>79</v>
       </c>
       <c r="O110" s="12" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="P110" s="12" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Q110" s="12" t="s">
         <v>79</v>
@@ -10078,30 +10222,580 @@
         <v>93</v>
       </c>
       <c r="S110" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T110" s="12" t="s">
-        <v>528</v>
+        <v>362</v>
       </c>
       <c r="U110" s="12" t="str" cm="1">
         <f t="array" ref="U110">_xlfn.REGEXEXTRACT(B110,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
+    <row r="111" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="str">
+        <f>IF(ISBLANK(R111)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="12">
+        <v>18</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O111" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="P111" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R111" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S111" s="13">
+        <v>2</v>
+      </c>
+      <c r="T111" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="U111" s="12" t="str" cm="1">
+        <f t="array" ref="U111">_xlfn.REGEXEXTRACT(B111,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="str">
+        <f>IF(ISBLANK(R112)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="12">
+        <v>14</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="L112" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M112" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="N112" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="O112" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="P112" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q112" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R112" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S112" s="13">
+        <v>2</v>
+      </c>
+      <c r="T112" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="U112" s="12" t="str" cm="1">
+        <f t="array" ref="U112">_xlfn.REGEXEXTRACT(B112,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="str">
+        <f>IF(ISBLANK(R113)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="12">
+        <v>48</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O113" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="P113" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R113" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S113" s="13">
+        <v>1</v>
+      </c>
+      <c r="T113" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="U113" s="12" t="str" cm="1">
+        <f t="array" ref="U113">_xlfn.REGEXEXTRACT(B113,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="str">
+        <f>IF(ISBLANK(R114)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" s="12">
+        <v>34</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L114" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O114" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="P114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R114" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S114" s="13">
+        <v>1</v>
+      </c>
+      <c r="T114" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="U114" s="12" t="str" cm="1">
+        <f t="array" ref="U114">_xlfn.REGEXEXTRACT(B114,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="str">
+        <f>IF(ISBLANK(R115)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="12">
+        <v>11</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L115" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="M115" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N115" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O115" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="P115" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q115" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R115" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S115" s="13">
+        <v>1</v>
+      </c>
+      <c r="T115" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="U115" s="12" t="str" cm="1">
+        <f t="array" ref="U115">_xlfn.REGEXEXTRACT(B115,"(?&lt;=//)[^/]+")</f>
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="str">
+        <f t="shared" ref="A111:A121" si="0">IF(ISBLANK(R116)=TRUE,"Pending","Done")</f>
+        <v>Pending</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="C116" s="12">
+        <v>106</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="13">
+        <v>5</v>
+      </c>
+      <c r="T116" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="U116" s="12" t="str" cm="1">
+        <f t="array" ref="U116">_xlfn.REGEXEXTRACT(B116,"(?&lt;=//)[^/]+")</f>
+        <v>www.eporner.com</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Pending</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C117" s="12">
+        <v>1</v>
+      </c>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12" t="str" cm="1">
+        <f t="array" ref="U117">_xlfn.REGEXEXTRACT(B117,"(?&lt;=//)[^/]+")</f>
+        <v>xhamster44.desi</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Pending</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C118" s="12">
+        <v>113</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12" t="str" cm="1">
+        <f t="array" ref="U118">_xlfn.REGEXEXTRACT(B118,"(?&lt;=//)[^/]+")</f>
+        <v>abjav.com</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Pending</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="C119" s="12">
+        <v>58</v>
+      </c>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12" t="str" cm="1">
+        <f t="array" ref="U119">_xlfn.REGEXEXTRACT(B119,"(?&lt;=//)[^/]+")</f>
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Pending</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12" t="e" cm="1" vm="1">
+        <f t="array" ref="U120">_xlfn.REGEXEXTRACT(B120,"(?&lt;=//)[^/]+")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Pending</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12" t="e" cm="1" vm="1">
+        <f t="array" ref="U121">_xlfn.REGEXEXTRACT(B121,"(?&lt;=//)[^/]+")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U110" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U110">
-      <sortCondition descending="1" ref="S1:S110"/>
+  <autoFilter ref="A1:U121" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Done"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U115">
+      <sortCondition descending="1" ref="S1:S121"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD110 V111:XFD112 A111:U121 V114:XFD121 A122:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/data/master_links.xlsx
+++ b/data/master_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C4C428-765B-423A-A972-2B499B5E923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91419EB2-59AA-4C15-98A5-010EA384F153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_links" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="799">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -1334,9 +1334,6 @@
     <t>tushy</t>
   </si>
   <si>
-    <t>paige owens</t>
-  </si>
-  <si>
     <t>paige full nelson at 12m,riley full nelson at 21m,riley pretzel at 24m</t>
   </si>
   <si>
@@ -1889,9 +1886,6 @@
     <t>split face down suspended</t>
   </si>
   <si>
-    <t>zlink</t>
-  </si>
-  <si>
     <t>teacher-student</t>
   </si>
   <si>
@@ -2463,6 +2457,9 @@
   </si>
   <si>
     <t>stripping at 6m,tit flogging at 6m,oiled at 15m</t>
+  </si>
+  <si>
+    <t>websitelink</t>
   </si>
 </sst>
 </file>
@@ -2648,10 +2645,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2663,19 +2660,19 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6161"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6161"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2963,31 +2960,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
   <dimension ref="A1:U135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:U135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="16" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="16" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="21.5703125" style="16" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="53.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
@@ -2996,7 +2983,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>78</v>
@@ -3071,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>77</v>
@@ -3086,7 +3073,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>135</v>
@@ -3095,7 +3082,7 @@
         <v>102</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>118</v>
@@ -3104,7 +3091,7 @@
         <v>375</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>395</v>
@@ -3119,7 +3106,7 @@
         <v>8</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="U2" s="17" t="str" cm="1">
         <f t="array" ref="U2">_xlfn.REGEXEXTRACT(B2,"(?&lt;=//)[^/]+")</f>
@@ -3132,16 +3119,16 @@
         <v>Done</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>77</v>
@@ -3153,7 +3140,7 @@
         <v>193</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>401</v>
@@ -3165,16 +3152,16 @@
         <v>194</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Q3" s="17" t="s">
         <v>189</v>
@@ -3186,7 +3173,7 @@
         <v>8</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="U3" s="17" t="str" cm="1">
         <f t="array" ref="U3">_xlfn.REGEXEXTRACT(B3,"(?&lt;=//)[^/]+")</f>
@@ -3208,7 +3195,7 @@
         <v>204</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>77</v>
@@ -3223,7 +3210,7 @@
         <v>340</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>174</v>
@@ -3235,13 +3222,13 @@
         <v>102</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="17" t="s">
         <v>128</v>
@@ -3253,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="U4" s="17" t="str" cm="1">
         <f t="array" ref="U4">_xlfn.REGEXEXTRACT(B4,"(?&lt;=//)[^/]+")</f>
@@ -3266,16 +3253,16 @@
         <v>Done</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C5" s="17">
         <v>57</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>77</v>
@@ -3299,13 +3286,13 @@
         <v>118</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>129</v>
@@ -3320,7 +3307,7 @@
         <v>8</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="U5" s="17" t="str" cm="1">
         <f t="array" ref="U5">_xlfn.REGEXEXTRACT(B5,"(?&lt;=//)[^/]+")</f>
@@ -3339,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>613</v>
+        <v>291</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>77</v>
@@ -3400,7 +3387,7 @@
         <v>Done</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C7" s="17">
         <v>0</v>
@@ -3409,7 +3396,7 @@
         <v>191</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>77</v>
@@ -3430,13 +3417,13 @@
         <v>340</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>196</v>
@@ -3454,29 +3441,29 @@
         <v>7</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="U7" s="17" t="str" cm="1">
         <f t="array" ref="U7">_xlfn.REGEXEXTRACT(B7,"(?&lt;=//)[^/]+")</f>
         <v>www.txxx.porn</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="str">
         <f>IF(ISBLANK(R8)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C8" s="17">
         <v>0</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>77</v>
@@ -3488,7 +3475,7 @@
         <v>193</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>401</v>
@@ -3500,7 +3487,7 @@
         <v>196</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>272</v>
@@ -3509,7 +3496,7 @@
         <v>128</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Q8" s="17" t="s">
         <v>128</v>
@@ -3521,29 +3508,29 @@
         <v>7</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="U8" s="17" t="str" cm="1">
         <f t="array" ref="U8">_xlfn.REGEXEXTRACT(B8,"(?&lt;=//)[^/]+")</f>
         <v>beeg.com</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="str">
         <f>IF(ISBLANK(R9)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>77</v>
@@ -3552,7 +3539,7 @@
         <v>77</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -3573,13 +3560,13 @@
         <v>77</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>416</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="R9" s="17" t="s">
         <v>91</v>
@@ -3588,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="U9" s="17" t="str" cm="1">
         <f t="array" ref="U9">_xlfn.REGEXEXTRACT(B9,"(?&lt;=//)[^/]+")</f>
@@ -3601,16 +3588,16 @@
         <v>Done</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>77</v>
@@ -3619,7 +3606,7 @@
         <v>77</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -3640,10 +3627,10 @@
         <v>77</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="Q10" s="17" t="s">
         <v>128</v>
@@ -3655,7 +3642,7 @@
         <v>7</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="U10" s="17" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.REGEXEXTRACT(B10,"(?&lt;=//)[^/]+")</f>
@@ -3695,16 +3682,16 @@
         <v>135</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>112</v>
       </c>
       <c r="M11" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="N11" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>515</v>
       </c>
       <c r="O11" s="17" t="s">
         <v>149</v>
@@ -3722,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U11" s="17" t="str" cm="1">
         <f t="array" ref="U11">_xlfn.REGEXEXTRACT(B11,"(?&lt;=//)[^/]+")</f>
@@ -3811,7 +3798,7 @@
         <v>132</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>77</v>
@@ -3829,7 +3816,7 @@
         <v>102</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>160</v>
@@ -3844,7 +3831,7 @@
         <v>255</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="17" t="s">
         <v>128</v>
@@ -3856,7 +3843,7 @@
         <v>7</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U13" s="17" t="str" cm="1">
         <f t="array" ref="U13">_xlfn.REGEXEXTRACT(B13,"(?&lt;=//)[^/]+")</f>
@@ -3878,7 +3865,7 @@
         <v>132</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>77</v>
@@ -3945,7 +3932,7 @@
         <v>132</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>77</v>
@@ -3963,13 +3950,13 @@
         <v>135</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>162</v>
@@ -3978,7 +3965,7 @@
         <v>167</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q15" s="17" t="s">
         <v>189</v>
@@ -3990,7 +3977,7 @@
         <v>7</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="U15" s="17" t="str" cm="1">
         <f t="array" ref="U15">_xlfn.REGEXEXTRACT(B15,"(?&lt;=//)[^/]+")</f>
@@ -4003,7 +3990,7 @@
         <v>Done</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C16" s="17">
         <v>73</v>
@@ -4012,7 +3999,7 @@
         <v>321</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>77</v>
@@ -4024,7 +4011,7 @@
         <v>116</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>121</v>
@@ -4036,16 +4023,16 @@
         <v>118</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>390</v>
       </c>
       <c r="O16" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="P16" s="17" t="s">
         <v>642</v>
-      </c>
-      <c r="P16" s="17" t="s">
-        <v>644</v>
       </c>
       <c r="Q16" s="17" t="s">
         <v>395</v>
@@ -4057,7 +4044,7 @@
         <v>7</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="U16" s="17" t="str" cm="1">
         <f t="array" ref="U16">_xlfn.REGEXEXTRACT(B16,"(?&lt;=//)[^/]+")</f>
@@ -4076,13 +4063,13 @@
         <v>85</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>168</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>77</v>
@@ -4091,7 +4078,7 @@
         <v>115</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>135</v>
@@ -4143,10 +4130,10 @@
         <v>111</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>77</v>
@@ -4161,13 +4148,13 @@
         <v>135</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>174</v>
@@ -4176,13 +4163,13 @@
         <v>102</v>
       </c>
       <c r="O18" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q18" s="17" t="s">
         <v>659</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>661</v>
       </c>
       <c r="R18" s="17" t="s">
         <v>91</v>
@@ -4191,7 +4178,7 @@
         <v>7</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="U18" s="17" t="str" cm="1">
         <f t="array" ref="U18">_xlfn.REGEXEXTRACT(B18,"(?&lt;=//)[^/]+")</f>
@@ -4204,7 +4191,7 @@
         <v>Done</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C19" s="17">
         <v>46</v>
@@ -4213,7 +4200,7 @@
         <v>191</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>77</v>
@@ -4225,7 +4212,7 @@
         <v>193</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>154</v>
@@ -4237,7 +4224,7 @@
         <v>118</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>95</v>
@@ -4249,7 +4236,7 @@
         <v>189</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="R19" s="17" t="s">
         <v>91</v>
@@ -4258,7 +4245,7 @@
         <v>7</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="U19" s="17" t="str" cm="1">
         <f t="array" ref="U19">_xlfn.REGEXEXTRACT(B19,"(?&lt;=//)[^/]+")</f>
@@ -4277,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>613</v>
+        <v>409</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>77</v>
@@ -4292,7 +4279,7 @@
         <v>368</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>121</v>
@@ -4304,10 +4291,10 @@
         <v>267</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>129</v>
@@ -4325,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="U20" s="17" t="str" cm="1">
         <f t="array" ref="U20">_xlfn.REGEXEXTRACT(B20,"(?&lt;=//)[^/]+")</f>
@@ -4338,16 +4325,16 @@
         <v>Done</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>77</v>
@@ -4368,7 +4355,7 @@
         <v>107</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>174</v>
@@ -4392,7 +4379,7 @@
         <v>6</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U21" s="17" t="str" cm="1">
         <f t="array" ref="U21">_xlfn.REGEXEXTRACT(B21,"(?&lt;=//)[^/]+")</f>
@@ -4405,16 +4392,16 @@
         <v>Done</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C22" s="17">
         <v>0</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>77</v>
@@ -4459,29 +4446,29 @@
         <v>6</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="U22" s="17" t="str" cm="1">
         <f t="array" ref="U22">_xlfn.REGEXEXTRACT(B22,"(?&lt;=//)[^/]+")</f>
         <v>www.txxx.porn</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="str">
         <f>IF(ISBLANK(R23)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C23" s="17">
         <v>0</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>77</v>
@@ -4493,7 +4480,7 @@
         <v>193</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>95</v>
@@ -4502,13 +4489,13 @@
         <v>121</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="O23" s="17" t="s">
         <v>128</v>
@@ -4517,7 +4504,7 @@
         <v>129</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R23" s="17" t="s">
         <v>91</v>
@@ -4526,29 +4513,29 @@
         <v>6</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="U23" s="17" t="str" cm="1">
         <f t="array" ref="U23">_xlfn.REGEXEXTRACT(B23,"(?&lt;=//)[^/]+")</f>
         <v>beeg.com</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="str">
         <f>IF(ISBLANK(R24)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C24" s="17">
         <v>0</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>77</v>
@@ -4560,31 +4547,31 @@
         <v>193</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>274</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N24" s="17" t="s">
         <v>95</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P24" s="17" t="s">
         <v>128</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="R24" s="17" t="s">
         <v>91</v>
@@ -4593,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U24" s="17" t="str" cm="1">
         <f t="array" ref="U24">_xlfn.REGEXEXTRACT(B24,"(?&lt;=//)[^/]+")</f>
@@ -4606,16 +4593,16 @@
         <v>Done</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C25" s="17">
         <v>0</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>77</v>
@@ -4630,19 +4617,19 @@
         <v>95</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K25" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="N25" s="17" t="s">
         <v>758</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>760</v>
       </c>
       <c r="O25" s="17" t="s">
         <v>128</v>
@@ -4651,7 +4638,7 @@
         <v>363</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="R25" s="17" t="s">
         <v>91</v>
@@ -4660,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="U25" s="17" t="str" cm="1">
         <f t="array" ref="U25">_xlfn.REGEXEXTRACT(B25,"(?&lt;=//)[^/]+")</f>
@@ -4673,16 +4660,16 @@
         <v>Done</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>77</v>
@@ -4694,19 +4681,19 @@
         <v>193</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J26" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>762</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>763</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>765</v>
       </c>
       <c r="N26" s="17" t="s">
         <v>401</v>
@@ -4718,7 +4705,7 @@
         <v>189</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R26" s="17" t="s">
         <v>91</v>
@@ -4727,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="T26" s="17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U26" s="17" t="str" cm="1">
         <f t="array" ref="U26">_xlfn.REGEXEXTRACT(B26,"(?&lt;=//)[^/]+")</f>
@@ -4740,16 +4727,16 @@
         <v>Done</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C27" s="17">
         <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>77</v>
@@ -4761,40 +4748,40 @@
         <v>116</v>
       </c>
       <c r="I27" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="P27" s="17" t="s">
         <v>670</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>672</v>
       </c>
       <c r="Q27" s="17" t="s">
         <v>128</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="S27" s="17">
         <v>6</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="U27" s="17" t="str" cm="1">
         <f t="array" ref="U27">_xlfn.REGEXEXTRACT(B27,"(?&lt;=//)[^/]+")</f>
@@ -4886,7 +4873,7 @@
         <v>366</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>77</v>
@@ -4895,7 +4882,7 @@
         <v>369</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>121</v>
@@ -4904,7 +4891,7 @@
         <v>267</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>119</v>
@@ -4928,14 +4915,14 @@
         <v>6</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U29" s="17" t="str" cm="1">
         <f t="array" ref="U29">_xlfn.REGEXEXTRACT(B29,"(?&lt;=//)[^/]+")</f>
         <v>www.tnaflix.com</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="str">
         <f>IF(ISBLANK(R30)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -4947,10 +4934,10 @@
         <v>44</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>442</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>443</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>77</v>
@@ -4971,7 +4958,7 @@
         <v>144</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>100</v>
@@ -4980,7 +4967,7 @@
         <v>107</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P30" s="17" t="s">
         <v>167</v>
@@ -4995,7 +4982,7 @@
         <v>6</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U30" s="17" t="str" cm="1">
         <f t="array" ref="U30">_xlfn.REGEXEXTRACT(B30,"(?&lt;=//)[^/]+")</f>
@@ -5014,7 +5001,7 @@
         <v>45</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>348</v>
@@ -5035,22 +5022,22 @@
         <v>100</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L31" s="17" t="s">
         <v>354</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O31" s="17" t="s">
         <v>170</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="17" t="s">
         <v>395</v>
@@ -5062,7 +5049,7 @@
         <v>6</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U31" s="17" t="str" cm="1">
         <f t="array" ref="U31">_xlfn.REGEXEXTRACT(B31,"(?&lt;=//)[^/]+")</f>
@@ -5117,10 +5104,10 @@
         <v>395</v>
       </c>
       <c r="P32" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q32" s="17" t="s">
         <v>507</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>508</v>
       </c>
       <c r="R32" s="17" t="s">
         <v>91</v>
@@ -5129,7 +5116,7 @@
         <v>6</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="U32" s="17" t="str" cm="1">
         <f t="array" ref="U32">_xlfn.REGEXEXTRACT(B32,"(?&lt;=//)[^/]+")</f>
@@ -5151,7 +5138,7 @@
         <v>349</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>77</v>
@@ -5169,7 +5156,7 @@
         <v>184</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L33" s="17" t="s">
         <v>102</v>
@@ -5184,7 +5171,7 @@
         <v>395</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q33" s="17" t="s">
         <v>229</v>
@@ -5196,7 +5183,7 @@
         <v>6</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="U33" s="17" t="str" cm="1">
         <f t="array" ref="U33">_xlfn.REGEXEXTRACT(B33,"(?&lt;=//)[^/]+")</f>
@@ -5285,7 +5272,7 @@
         <v>132</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>77</v>
@@ -5352,10 +5339,10 @@
         <v>114</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>77</v>
@@ -5364,7 +5351,7 @@
         <v>115</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>360</v>
@@ -5419,7 +5406,7 @@
         <v>132</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>77</v>
@@ -5431,31 +5418,31 @@
         <v>117</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J37" s="17" t="s">
         <v>260</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O37" s="17" t="s">
         <v>129</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R37" s="17" t="s">
         <v>91</v>
@@ -5464,7 +5451,7 @@
         <v>6</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U37" s="17" t="str" cm="1">
         <f t="array" ref="U37">_xlfn.REGEXEXTRACT(B37,"(?&lt;=//)[^/]+")</f>
@@ -5483,10 +5470,10 @@
         <v>57</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>77</v>
@@ -5516,13 +5503,13 @@
         <v>107</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P38" s="17" t="s">
         <v>127</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R38" s="17" t="s">
         <v>91</v>
@@ -5531,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="U38" s="17" t="str" cm="1">
         <f t="array" ref="U38">_xlfn.REGEXEXTRACT(B38,"(?&lt;=//)[^/]+")</f>
@@ -5553,7 +5540,7 @@
         <v>149</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>77</v>
@@ -5574,7 +5561,7 @@
         <v>102</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>118</v>
@@ -5583,7 +5570,7 @@
         <v>174</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P39" s="17" t="s">
         <v>77</v>
@@ -5598,7 +5585,7 @@
         <v>6</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="U39" s="17" t="str" cm="1">
         <f t="array" ref="U39">_xlfn.REGEXEXTRACT(B39,"(?&lt;=//)[^/]+")</f>
@@ -5620,7 +5607,7 @@
         <v>204</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>77</v>
@@ -5678,16 +5665,16 @@
         <v>Done</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C41" s="17">
         <v>113</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>77</v>
@@ -5699,16 +5686,16 @@
         <v>193</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K41" s="17" t="s">
         <v>398</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M41" s="17" t="s">
         <v>95</v>
@@ -5723,16 +5710,16 @@
         <v>128</v>
       </c>
       <c r="Q41" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="S41" s="17">
         <v>6</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="U41" s="17" t="str" cm="1">
         <f t="array" ref="U41">_xlfn.REGEXEXTRACT(B41,"(?&lt;=//)[^/]+")</f>
@@ -5745,19 +5732,19 @@
         <v>Done</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C42" s="17">
         <v>0</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>613</v>
+        <v>708</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>710</v>
+        <v>77</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>77</v>
@@ -5790,7 +5777,7 @@
         <v>129</v>
       </c>
       <c r="Q42" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R42" s="17" t="s">
         <v>91</v>
@@ -5799,7 +5786,7 @@
         <v>5</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="U42" s="17" t="str" cm="1">
         <f t="array" ref="U42">_xlfn.REGEXEXTRACT(B42,"(?&lt;=//)[^/]+")</f>
@@ -5812,16 +5799,16 @@
         <v>Done</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C43" s="17">
         <v>0</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>77</v>
@@ -5836,19 +5823,19 @@
         <v>208</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K43" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="M43" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="N43" s="17" t="s">
         <v>753</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="N43" s="17" t="s">
-        <v>755</v>
       </c>
       <c r="O43" s="17" t="s">
         <v>128</v>
@@ -5857,7 +5844,7 @@
         <v>103</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="R43" s="17" t="s">
         <v>91</v>
@@ -5866,29 +5853,29 @@
         <v>5</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U43" s="17" t="str" cm="1">
         <f t="array" ref="U43">_xlfn.REGEXEXTRACT(B43,"(?&lt;=//)[^/]+")</f>
         <v>www.fuq.com</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="str">
         <f>IF(ISBLANK(R44)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C44" s="17">
         <v>1</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>77</v>
@@ -5909,7 +5896,7 @@
         <v>153</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M44" s="17" t="s">
         <v>77</v>
@@ -5918,7 +5905,7 @@
         <v>77</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="P44" s="17" t="s">
         <v>77</v>
@@ -5927,13 +5914,13 @@
         <v>77</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="S44" s="17">
         <v>5</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="U44" s="17" t="str" cm="1">
         <f t="array" ref="U44">_xlfn.REGEXEXTRACT(B44,"(?&lt;=//)[^/]+")</f>
@@ -6067,38 +6054,38 @@
         <v>5</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U46" s="17" t="str" cm="1">
         <f t="array" ref="U46">_xlfn.REGEXEXTRACT(B46,"(?&lt;=//)[^/]+")</f>
         <v>spankbang.com</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="str">
         <f>IF(ISBLANK(R47)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C47" s="17">
         <v>11</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>733</v>
+        <v>77</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>265</v>
@@ -6107,7 +6094,7 @@
         <v>101</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="L47" s="17" t="s">
         <v>100</v>
@@ -6134,29 +6121,29 @@
         <v>5</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="U47" s="17" t="str" cm="1">
         <f t="array" ref="U47">_xlfn.REGEXEXTRACT(B47,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="str">
         <f>IF(ISBLANK(R48)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C48" s="17">
         <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>77</v>
@@ -6168,25 +6155,25 @@
         <v>193</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K48" s="17" t="s">
         <v>95</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="N48" s="17" t="s">
         <v>274</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P48" s="17" t="s">
         <v>128</v>
@@ -6201,7 +6188,7 @@
         <v>5</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="U48" s="17" t="str" cm="1">
         <f t="array" ref="U48">_xlfn.REGEXEXTRACT(B48,"(?&lt;=//)[^/]+")</f>
@@ -6223,10 +6210,10 @@
         <v>148</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>77</v>
@@ -6235,13 +6222,13 @@
         <v>116</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J49" s="17" t="s">
         <v>105</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L49" s="17" t="s">
         <v>354</v>
@@ -6342,7 +6329,7 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="str">
         <f>IF(ISBLANK(R51)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -6409,7 +6396,7 @@
         <v>tube.perverzija.com</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="str">
         <f>IF(ISBLANK(R52)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -6421,13 +6408,13 @@
         <v>41</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>366</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>77</v>
@@ -6469,7 +6456,7 @@
         <v>5</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U52" s="17" t="str" cm="1">
         <f t="array" ref="U52">_xlfn.REGEXEXTRACT(B52,"(?&lt;=//)[^/]+")</f>
@@ -6491,10 +6478,10 @@
         <v>149</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>77</v>
@@ -6503,7 +6490,7 @@
         <v>116</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J53" s="17" t="s">
         <v>118</v>
@@ -6518,13 +6505,13 @@
         <v>154</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q53" s="17" t="s">
         <v>149</v>
@@ -6536,7 +6523,7 @@
         <v>5</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U53" s="17" t="str" cm="1">
         <f t="array" ref="U53">_xlfn.REGEXEXTRACT(B53,"(?&lt;=//)[^/]+")</f>
@@ -6558,7 +6545,7 @@
         <v>132</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>77</v>
@@ -6585,7 +6572,7 @@
         <v>112</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O54" s="17" t="s">
         <v>155</v>
@@ -6603,7 +6590,7 @@
         <v>5</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="U54" s="17" t="str" cm="1">
         <f t="array" ref="U54">_xlfn.REGEXEXTRACT(B54,"(?&lt;=//)[^/]+")</f>
@@ -6622,10 +6609,10 @@
         <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>77</v>
@@ -6652,13 +6639,13 @@
         <v>130</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q55" s="17" t="s">
         <v>128</v>
@@ -6670,7 +6657,7 @@
         <v>5</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U55" s="17" t="str" cm="1">
         <f t="array" ref="U55">_xlfn.REGEXEXTRACT(B55,"(?&lt;=//)[^/]+")</f>
@@ -6692,7 +6679,7 @@
         <v>149</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>77</v>
@@ -6719,16 +6706,16 @@
         <v>267</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O56" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q56" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R56" s="17" t="s">
         <v>91</v>
@@ -6737,14 +6724,14 @@
         <v>5</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U56" s="17" t="str" cm="1">
         <f t="array" ref="U56">_xlfn.REGEXEXTRACT(B56,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="str">
         <f>IF(ISBLANK(R57)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -6771,28 +6758,28 @@
         <v>116</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J57" s="17" t="s">
         <v>154</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M57" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q57" s="17" t="s">
         <v>103</v>
@@ -6804,7 +6791,7 @@
         <v>5</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U57" s="17" t="str" cm="1">
         <f t="array" ref="U57">_xlfn.REGEXEXTRACT(B57,"(?&lt;=//)[^/]+")</f>
@@ -6823,10 +6810,10 @@
         <v>55</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>77</v>
@@ -6838,31 +6825,31 @@
         <v>117</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J58" s="17" t="s">
         <v>118</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L58" s="17" t="s">
         <v>153</v>
       </c>
       <c r="M58" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O58" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="P58" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q58" s="17" t="s">
         <v>561</v>
-      </c>
-      <c r="P58" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>562</v>
       </c>
       <c r="R58" s="17" t="s">
         <v>91</v>
@@ -6871,7 +6858,7 @@
         <v>5</v>
       </c>
       <c r="T58" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U58" s="17" t="str" cm="1">
         <f t="array" ref="U58">_xlfn.REGEXEXTRACT(B58,"(?&lt;=//)[^/]+")</f>
@@ -6893,7 +6880,7 @@
         <v>191</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>77</v>
@@ -7024,10 +7011,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>77</v>
@@ -7042,7 +7029,7 @@
         <v>118</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K61" s="17" t="s">
         <v>153</v>
@@ -7060,10 +7047,10 @@
         <v>127</v>
       </c>
       <c r="P61" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R61" s="17" t="s">
         <v>91</v>
@@ -7072,7 +7059,7 @@
         <v>5</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U61" s="17" t="str" cm="1">
         <f t="array" ref="U61">_xlfn.REGEXEXTRACT(B61,"(?&lt;=//)[^/]+")</f>
@@ -7094,7 +7081,7 @@
         <v>149</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>77</v>
@@ -7106,7 +7093,7 @@
         <v>116</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J62" s="17" t="s">
         <v>135</v>
@@ -7118,7 +7105,7 @@
         <v>107</v>
       </c>
       <c r="M62" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N62" s="17" t="s">
         <v>154</v>
@@ -7139,7 +7126,7 @@
         <v>5</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U62" s="17" t="str" cm="1">
         <f t="array" ref="U62">_xlfn.REGEXEXTRACT(B62,"(?&lt;=//)[^/]+")</f>
@@ -7161,7 +7148,7 @@
         <v>149</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>77</v>
@@ -7191,13 +7178,13 @@
         <v>154</v>
       </c>
       <c r="O63" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P63" s="17" t="s">
         <v>138</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R63" s="17" t="s">
         <v>91</v>
@@ -7206,7 +7193,7 @@
         <v>5</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U63" s="17" t="str" cm="1">
         <f t="array" ref="U63">_xlfn.REGEXEXTRACT(B63,"(?&lt;=//)[^/]+")</f>
@@ -7228,7 +7215,7 @@
         <v>132</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>218</v>
@@ -7243,7 +7230,7 @@
         <v>135</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K64" s="17" t="s">
         <v>107</v>
@@ -7252,19 +7239,19 @@
         <v>174</v>
       </c>
       <c r="M64" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="N64" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="O64" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="N64" s="17" t="s">
+      <c r="P64" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q64" s="17" t="s">
         <v>654</v>
-      </c>
-      <c r="O64" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="P64" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q64" s="17" t="s">
-        <v>656</v>
       </c>
       <c r="R64" s="17" t="s">
         <v>91</v>
@@ -7273,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="T64" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="U64" s="17" t="str" cm="1">
         <f t="array" ref="U64">_xlfn.REGEXEXTRACT(B64,"(?&lt;=//)[^/]+")</f>
@@ -7292,10 +7279,10 @@
         <v>116</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>77</v>
@@ -7307,16 +7294,16 @@
         <v>116</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J65" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M65" s="17" t="s">
         <v>102</v>
@@ -7325,13 +7312,13 @@
         <v>118</v>
       </c>
       <c r="O65" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Q65" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="R65" s="17" t="s">
         <v>91</v>
@@ -7340,32 +7327,32 @@
         <v>5</v>
       </c>
       <c r="T65" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="U65" s="17" t="str" cm="1">
         <f t="array" ref="U65">_xlfn.REGEXEXTRACT(B65,"(?&lt;=//)[^/]+")</f>
         <v>punishworld.com</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="str">
         <f>IF(ISBLANK(R66)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C66" s="17">
         <v>128</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>77</v>
@@ -7386,10 +7373,10 @@
         <v>162</v>
       </c>
       <c r="M66" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="O66" s="17">
         <v>69</v>
@@ -7407,7 +7394,7 @@
         <v>5</v>
       </c>
       <c r="T66" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="U66" s="17" t="str" cm="1">
         <f t="array" ref="U66">_xlfn.REGEXEXTRACT(B66,"(?&lt;=//)[^/]+")</f>
@@ -7426,13 +7413,13 @@
         <v>129</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G67" s="17" t="s">
         <v>77</v>
@@ -7441,16 +7428,16 @@
         <v>116</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K67" s="17" t="s">
         <v>174</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M67" s="17" t="s">
         <v>328</v>
@@ -7468,35 +7455,35 @@
         <v>128</v>
       </c>
       <c r="R67" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="S67" s="17">
         <v>5</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="U67" s="17" t="str" cm="1">
         <f t="array" ref="U67">_xlfn.REGEXEXTRACT(B67,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="str">
         <f>IF(ISBLANK(R68)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C68" s="17">
         <v>46</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>77</v>
@@ -7508,16 +7495,16 @@
         <v>116</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K68" s="17" t="s">
         <v>121</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M68" s="17" t="s">
         <v>102</v>
@@ -7532,7 +7519,7 @@
         <v>128</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R68" s="17" t="s">
         <v>91</v>
@@ -7541,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U68" s="17" t="str" cm="1">
         <f t="array" ref="U68">_xlfn.REGEXEXTRACT(B68,"(?&lt;=//)[^/]+")</f>
@@ -7560,10 +7547,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>77</v>
@@ -7572,7 +7559,7 @@
         <v>77</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>77</v>
@@ -7608,7 +7595,7 @@
         <v>4</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="U69" s="17" t="str" cm="1">
         <f t="array" ref="U69">_xlfn.REGEXEXTRACT(B69,"(?&lt;=//)[^/]+")</f>
@@ -7627,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>77</v>
@@ -7639,7 +7626,7 @@
         <v>77</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>77</v>
@@ -7675,7 +7662,7 @@
         <v>4</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="U70" s="17" t="str" cm="1">
         <f t="array" ref="U70">_xlfn.REGEXEXTRACT(B70,"(?&lt;=//)[^/]+")</f>
@@ -7688,16 +7675,16 @@
         <v>Done</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C71" s="17">
         <v>0</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>77</v>
@@ -7709,13 +7696,13 @@
         <v>193</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L71" s="17" t="s">
         <v>135</v>
@@ -7727,29 +7714,29 @@
         <v>340</v>
       </c>
       <c r="O71" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P71" s="17" t="s">
         <v>167</v>
       </c>
       <c r="Q71" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R71" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="S71" s="17">
         <v>4</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="U71" s="17" t="str" cm="1">
         <f t="array" ref="U71">_xlfn.REGEXEXTRACT(B71,"(?&lt;=//)[^/]+")</f>
         <v>www.tubegalore.com</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="str">
         <f>IF(ISBLANK(R72)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -7761,7 +7748,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>326</v>
@@ -7919,7 +7906,7 @@
         <v>162</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M74" s="17" t="s">
         <v>328</v>
@@ -7928,7 +7915,7 @@
         <v>77</v>
       </c>
       <c r="O74" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P74" s="17" t="s">
         <v>77</v>
@@ -8032,7 +8019,7 @@
         <v>132</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>218</v>
@@ -8059,7 +8046,7 @@
         <v>100</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O76" s="17" t="s">
         <v>229</v>
@@ -8300,7 +8287,7 @@
         <v>132</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>77</v>
@@ -8315,7 +8302,7 @@
         <v>107</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K80" s="17" t="s">
         <v>135</v>
@@ -8330,10 +8317,10 @@
         <v>77</v>
       </c>
       <c r="O80" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q80" s="17" t="s">
         <v>77</v>
@@ -8345,14 +8332,14 @@
         <v>4</v>
       </c>
       <c r="T80" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U80" s="17" t="str" cm="1">
         <f t="array" ref="U80">_xlfn.REGEXEXTRACT(B80,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="str">
         <f>IF(ISBLANK(R81)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -8367,7 +8354,7 @@
         <v>148</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>77</v>
@@ -8379,31 +8366,31 @@
         <v>116</v>
       </c>
       <c r="I81" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="J81" s="17" t="s">
         <v>465</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>466</v>
       </c>
       <c r="K81" s="17" t="s">
         <v>354</v>
       </c>
       <c r="L81" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="N81" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="M81" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="N81" s="17" t="s">
-        <v>469</v>
-      </c>
       <c r="O81" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q81" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R81" s="17" t="s">
         <v>91</v>
@@ -8412,7 +8399,7 @@
         <v>4</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U81" s="17" t="str" cm="1">
         <f t="array" ref="U81">_xlfn.REGEXEXTRACT(B81,"(?&lt;=//)[^/]+")</f>
@@ -8431,19 +8418,19 @@
         <v>44</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E82" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" s="17" t="s">
         <v>475</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>476</v>
       </c>
       <c r="I82" s="17" t="s">
         <v>160</v>
@@ -8452,7 +8439,7 @@
         <v>102</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L82" s="17" t="s">
         <v>100</v>
@@ -8470,7 +8457,7 @@
         <v>127</v>
       </c>
       <c r="Q82" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R82" s="17" t="s">
         <v>91</v>
@@ -8479,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U82" s="17" t="str" cm="1">
         <f t="array" ref="U82">_xlfn.REGEXEXTRACT(B82,"(?&lt;=//)[^/]+")</f>
@@ -8501,7 +8488,7 @@
         <v>149</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>77</v>
@@ -8513,10 +8500,10 @@
         <v>116</v>
       </c>
       <c r="I83" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="J83" s="17" t="s">
         <v>486</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>487</v>
       </c>
       <c r="K83" s="17" t="s">
         <v>112</v>
@@ -8528,13 +8515,13 @@
         <v>150</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O83" s="17" t="s">
         <v>189</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q83" s="17" t="s">
         <v>149</v>
@@ -8546,7 +8533,7 @@
         <v>4</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U83" s="17" t="str" cm="1">
         <f t="array" ref="U83">_xlfn.REGEXEXTRACT(B83,"(?&lt;=//)[^/]+")</f>
@@ -8568,7 +8555,7 @@
         <v>148</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>77</v>
@@ -8580,25 +8567,25 @@
         <v>116</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J84" s="17" t="s">
         <v>107</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L84" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="M84" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="M84" s="17" t="s">
-        <v>501</v>
-      </c>
       <c r="N84" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O84" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P84" s="17" t="s">
         <v>229</v>
@@ -8613,7 +8600,7 @@
         <v>4</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U84" s="17" t="str" cm="1">
         <f t="array" ref="U84">_xlfn.REGEXEXTRACT(B84,"(?&lt;=//)[^/]+")</f>
@@ -8635,7 +8622,7 @@
         <v>349</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>77</v>
@@ -8668,7 +8655,7 @@
         <v>149</v>
       </c>
       <c r="P85" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q85" s="17" t="s">
         <v>189</v>
@@ -8680,7 +8667,7 @@
         <v>4</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="U85" s="17" t="str" cm="1">
         <f t="array" ref="U85">_xlfn.REGEXEXTRACT(B85,"(?&lt;=//)[^/]+")</f>
@@ -8699,7 +8686,7 @@
         <v>53</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>216</v>
@@ -8714,22 +8701,22 @@
         <v>117</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J86" s="17" t="s">
         <v>399</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L86" s="17" t="s">
         <v>135</v>
       </c>
       <c r="M86" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O86" s="17">
         <v>69</v>
@@ -8738,7 +8725,7 @@
         <v>229</v>
       </c>
       <c r="Q86" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="R86" s="17" t="s">
         <v>91</v>
@@ -8747,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U86" s="17" t="str" cm="1">
         <f t="array" ref="U86">_xlfn.REGEXEXTRACT(B86,"(?&lt;=//)[^/]+")</f>
@@ -8769,7 +8756,7 @@
         <v>149</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>77</v>
@@ -8790,7 +8777,7 @@
         <v>403</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M87" s="17" t="s">
         <v>100</v>
@@ -8799,10 +8786,10 @@
         <v>154</v>
       </c>
       <c r="O87" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="P87" s="17" t="s">
         <v>550</v>
-      </c>
-      <c r="P87" s="17" t="s">
-        <v>551</v>
       </c>
       <c r="Q87" s="17" t="s">
         <v>138</v>
@@ -8814,7 +8801,7 @@
         <v>4</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U87" s="17" t="str" cm="1">
         <f t="array" ref="U87">_xlfn.REGEXEXTRACT(B87,"(?&lt;=//)[^/]+")</f>
@@ -8836,7 +8823,7 @@
         <v>148</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>77</v>
@@ -8854,7 +8841,7 @@
         <v>174</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L88" s="17" t="s">
         <v>154</v>
@@ -8903,10 +8890,10 @@
         <v>132</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>77</v>
@@ -8918,10 +8905,10 @@
         <v>102</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L89" s="17" t="s">
         <v>134</v>
@@ -8939,7 +8926,7 @@
         <v>363</v>
       </c>
       <c r="Q89" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R89" s="17" t="s">
         <v>91</v>
@@ -8948,7 +8935,7 @@
         <v>4</v>
       </c>
       <c r="T89" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="U89" s="17" t="str" cm="1">
         <f t="array" ref="U89">_xlfn.REGEXEXTRACT(B89,"(?&lt;=//)[^/]+")</f>
@@ -8970,10 +8957,10 @@
         <v>262</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>77</v>
@@ -9037,10 +9024,10 @@
         <v>321</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>77</v>
@@ -9058,7 +9045,7 @@
         <v>135</v>
       </c>
       <c r="L91" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M91" s="17" t="s">
         <v>162</v>
@@ -9073,7 +9060,7 @@
         <v>128</v>
       </c>
       <c r="Q91" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R91" s="17" t="s">
         <v>91</v>
@@ -9082,7 +9069,7 @@
         <v>4</v>
       </c>
       <c r="T91" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U91" s="17" t="str" cm="1">
         <f t="array" ref="U91">_xlfn.REGEXEXTRACT(B91,"(?&lt;=//)[^/]+")</f>
@@ -9101,10 +9088,10 @@
         <v>66</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>77</v>
@@ -9116,31 +9103,31 @@
         <v>368</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J92" s="17" t="s">
         <v>340</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L92" s="17" t="s">
         <v>121</v>
       </c>
       <c r="M92" s="17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O92" s="17" t="s">
         <v>189</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Q92" s="17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="R92" s="17" t="s">
         <v>91</v>
@@ -9149,14 +9136,14 @@
         <v>4</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="U92" s="17" t="str" cm="1">
         <f t="array" ref="U92">_xlfn.REGEXEXTRACT(B92,"(?&lt;=//)[^/]+")</f>
         <v>m.hqporner.com</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="str">
         <f>IF(ISBLANK(R93)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -9238,10 +9225,10 @@
         <v>261</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>77</v>
@@ -9268,7 +9255,7 @@
         <v>77</v>
       </c>
       <c r="O94" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P94" s="17" t="s">
         <v>189</v>
@@ -9302,13 +9289,13 @@
         <v>170</v>
       </c>
       <c r="D95" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="F95" s="17" t="s">
         <v>676</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>677</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>678</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>77</v>
@@ -9317,31 +9304,31 @@
         <v>117</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K95" s="17" t="s">
         <v>154</v>
       </c>
       <c r="L95" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="M95" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="N95" s="17" t="s">
         <v>682</v>
-      </c>
-      <c r="M95" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="N95" s="17" t="s">
-        <v>684</v>
       </c>
       <c r="O95" s="17" t="s">
         <v>189</v>
       </c>
       <c r="P95" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q95" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R95" s="17" t="s">
         <v>91</v>
@@ -9350,7 +9337,7 @@
         <v>4</v>
       </c>
       <c r="T95" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="U95" s="17" t="str" cm="1">
         <f t="array" ref="U95">_xlfn.REGEXEXTRACT(B95,"(?&lt;=//)[^/]+")</f>
@@ -9369,10 +9356,10 @@
         <v>182</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>77</v>
@@ -9384,31 +9371,31 @@
         <v>116</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K96" s="17" t="s">
         <v>100</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M96" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N96" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="O96" s="17" t="s">
         <v>189</v>
       </c>
       <c r="P96" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Q96" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="R96" s="17" t="s">
         <v>91</v>
@@ -9417,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="U96" s="17" t="str" cm="1">
         <f t="array" ref="U96">_xlfn.REGEXEXTRACT(B96,"(?&lt;=//)[^/]+")</f>
@@ -9430,7 +9417,7 @@
         <v>Done</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C97" s="17">
         <v>22</v>
@@ -9439,7 +9426,7 @@
         <v>269</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>77</v>
@@ -9451,7 +9438,7 @@
         <v>193</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J97" s="17" t="s">
         <v>118</v>
@@ -9463,19 +9450,19 @@
         <v>135</v>
       </c>
       <c r="M97" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N97" s="17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O97" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="P97" s="17" t="s">
         <v>128</v>
       </c>
       <c r="Q97" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R97" s="17" t="s">
         <v>91</v>
@@ -9484,7 +9471,7 @@
         <v>4</v>
       </c>
       <c r="T97" s="17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U97" s="17" t="str" cm="1">
         <f t="array" ref="U97">_xlfn.REGEXEXTRACT(B97,"(?&lt;=//)[^/]+")</f>
@@ -9503,13 +9490,13 @@
         <v>0</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>613</v>
+        <v>348</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>77</v>
@@ -9518,7 +9505,7 @@
         <v>116</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J98" s="17" t="s">
         <v>135</v>
@@ -9539,10 +9526,10 @@
         <v>395</v>
       </c>
       <c r="P98" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q98" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R98" s="17" t="s">
         <v>91</v>
@@ -9551,7 +9538,7 @@
         <v>3</v>
       </c>
       <c r="T98" s="17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="U98" s="17" t="str" cm="1">
         <f t="array" ref="U98">_xlfn.REGEXEXTRACT(B98,"(?&lt;=//)[^/]+")</f>
@@ -9570,13 +9557,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>608</v>
+        <v>798</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>613</v>
+        <v>402</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>77</v>
@@ -9585,7 +9572,7 @@
         <v>116</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J99" s="17" t="s">
         <v>135</v>
@@ -9594,7 +9581,7 @@
         <v>174</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M99" s="17" t="s">
         <v>102</v>
@@ -9606,7 +9593,7 @@
         <v>189</v>
       </c>
       <c r="P99" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q99" s="17" t="s">
         <v>103</v>
@@ -9618,7 +9605,7 @@
         <v>3</v>
       </c>
       <c r="T99" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="U99" s="17" t="str" cm="1">
         <f t="array" ref="U99">_xlfn.REGEXEXTRACT(B99,"(?&lt;=//)[^/]+")</f>
@@ -9631,7 +9618,7 @@
         <v>Done</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C100" s="17">
         <v>4</v>
@@ -9640,7 +9627,7 @@
         <v>191</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>77</v>
@@ -9658,7 +9645,7 @@
         <v>121</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L100" s="17" t="s">
         <v>77</v>
@@ -9685,7 +9672,7 @@
         <v>3</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="U100" s="17" t="str" cm="1">
         <f t="array" ref="U100">_xlfn.REGEXEXTRACT(B100,"(?&lt;=//)[^/]+")</f>
@@ -9698,16 +9685,16 @@
         <v>Done</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C101" s="17">
         <v>5</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>77</v>
@@ -9719,10 +9706,10 @@
         <v>193</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K101" s="17" t="s">
         <v>77</v>
@@ -9737,7 +9724,7 @@
         <v>77</v>
       </c>
       <c r="O101" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P101" s="17" t="s">
         <v>77</v>
@@ -9746,13 +9733,13 @@
         <v>77</v>
       </c>
       <c r="R101" s="17" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="S101" s="17">
         <v>3</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="U101" s="17" t="str" cm="1">
         <f t="array" ref="U101">_xlfn.REGEXEXTRACT(B101,"(?&lt;=//)[^/]+")</f>
@@ -9774,7 +9761,7 @@
         <v>110</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>77</v>
@@ -9960,7 +9947,7 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="str">
         <f>IF(ISBLANK(R105)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -10027,7 +10014,7 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="str">
         <f>IF(ISBLANK(R106)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -10042,7 +10029,7 @@
         <v>132</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>77</v>
@@ -10362,7 +10349,7 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="str">
         <f>IF(ISBLANK(R111)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -10441,7 +10428,7 @@
         <v>42</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>168</v>
@@ -10474,7 +10461,7 @@
         <v>77</v>
       </c>
       <c r="O112" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P112" s="17" t="s">
         <v>128</v>
@@ -10489,7 +10476,7 @@
         <v>3</v>
       </c>
       <c r="T112" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U112" s="17" t="str" cm="1">
         <f t="array" ref="U112">_xlfn.REGEXEXTRACT(B112,"(?&lt;=//)[^/]+")</f>
@@ -10575,7 +10562,7 @@
         <v>44</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>385</v>
@@ -10590,7 +10577,7 @@
         <v>368</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J114" s="17" t="s">
         <v>121</v>
@@ -10623,7 +10610,7 @@
         <v>3</v>
       </c>
       <c r="T114" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U114" s="17" t="str" cm="1">
         <f t="array" ref="U114">_xlfn.REGEXEXTRACT(B114,"(?&lt;=//)[^/]+")</f>
@@ -10645,7 +10632,7 @@
         <v>321</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F115" s="17" t="s">
         <v>77</v>
@@ -10657,7 +10644,7 @@
         <v>116</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J115" s="17" t="s">
         <v>135</v>
@@ -10672,7 +10659,7 @@
         <v>101</v>
       </c>
       <c r="N115" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O115" s="17" t="s">
         <v>128</v>
@@ -10690,7 +10677,7 @@
         <v>3</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="U115" s="17" t="str" cm="1">
         <f t="array" ref="U115">_xlfn.REGEXEXTRACT(B115,"(?&lt;=//)[^/]+")</f>
@@ -10703,19 +10690,19 @@
         <v>Done</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C116" s="17">
         <v>46</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>366</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G116" s="17" t="s">
         <v>77</v>
@@ -10727,7 +10714,7 @@
         <v>393</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K116" s="17" t="s">
         <v>119</v>
@@ -10757,14 +10744,14 @@
         <v>3</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U116" s="17" t="str" cm="1">
         <f t="array" ref="U116">_xlfn.REGEXEXTRACT(B116,"(?&lt;=//)[^/]+")</f>
         <v>spankbang.com</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="str">
         <f>IF(ISBLANK(R117)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -10797,7 +10784,7 @@
         <v>212</v>
       </c>
       <c r="K117" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L117" s="17" t="s">
         <v>213</v>
@@ -10831,13 +10818,13 @@
         <v>www.pornhits.com</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="str">
         <f>IF(ISBLANK(R118)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C118" s="17">
         <v>53</v>
@@ -10846,7 +10833,7 @@
         <v>191</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>77</v>
@@ -10861,19 +10848,19 @@
         <v>135</v>
       </c>
       <c r="J118" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="K118" s="17" t="s">
         <v>541</v>
-      </c>
-      <c r="K118" s="17" t="s">
-        <v>542</v>
       </c>
       <c r="L118" s="17" t="s">
         <v>95</v>
       </c>
       <c r="M118" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N118" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O118" s="17" t="s">
         <v>189</v>
@@ -10882,7 +10869,7 @@
         <v>128</v>
       </c>
       <c r="Q118" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R118" s="17" t="s">
         <v>91</v>
@@ -10891,7 +10878,7 @@
         <v>3</v>
       </c>
       <c r="T118" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="U118" s="17" t="str" cm="1">
         <f t="array" ref="U118">_xlfn.REGEXEXTRACT(B118,"(?&lt;=//)[^/]+")</f>
@@ -10910,13 +10897,13 @@
         <v>70</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G119" s="17" t="s">
         <v>77</v>
@@ -10980,7 +10967,7 @@
         <v>148</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F120" s="17" t="s">
         <v>77</v>
@@ -10995,16 +10982,16 @@
         <v>134</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L120" s="17" t="s">
         <v>107</v>
       </c>
       <c r="M120" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N120" s="17" t="s">
         <v>100</v>
@@ -11013,10 +11000,10 @@
         <v>149</v>
       </c>
       <c r="P120" s="17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q120" s="17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="R120" s="17" t="s">
         <v>91</v>
@@ -11025,7 +11012,7 @@
         <v>3</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="U120" s="17" t="str" cm="1">
         <f t="array" ref="U120">_xlfn.REGEXEXTRACT(B120,"(?&lt;=//)[^/]+")</f>
@@ -11065,7 +11052,7 @@
         <v>102</v>
       </c>
       <c r="K121" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L121" s="17" t="s">
         <v>135</v>
@@ -11092,7 +11079,7 @@
         <v>3</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U121" s="17" t="str" cm="1">
         <f t="array" ref="U121">_xlfn.REGEXEXTRACT(B121,"(?&lt;=//)[^/]+")</f>
@@ -11114,7 +11101,7 @@
         <v>263</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F122" s="17" t="s">
         <v>77</v>
@@ -11147,7 +11134,7 @@
         <v>142</v>
       </c>
       <c r="P122" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q122" s="17" t="s">
         <v>145</v>
@@ -11172,19 +11159,19 @@
         <v>Done</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C123" s="17">
         <v>106</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G123" s="17" t="s">
         <v>77</v>
@@ -11193,22 +11180,22 @@
         <v>193</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K123" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L123" s="17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="N123" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="O123" s="17" t="s">
         <v>189</v>
@@ -11217,23 +11204,23 @@
         <v>129</v>
       </c>
       <c r="Q123" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R123" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="S123" s="17">
         <v>3</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="U123" s="17" t="str" cm="1">
         <f t="array" ref="U123">_xlfn.REGEXEXTRACT(B123,"(?&lt;=//)[^/]+")</f>
         <v>www.eporner.com</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="str">
         <f>IF(ISBLANK(R124)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -11293,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="U124" s="17" t="str" cm="1">
         <f t="array" ref="U124">_xlfn.REGEXEXTRACT(B124,"(?&lt;=//)[^/]+")</f>
@@ -11312,7 +11299,7 @@
         <v>18</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>277</v>
@@ -11327,7 +11314,7 @@
         <v>115</v>
       </c>
       <c r="I125" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J125" s="17" t="s">
         <v>279</v>
@@ -11360,7 +11347,7 @@
         <v>2</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="U125" s="17" t="str" cm="1">
         <f t="array" ref="U125">_xlfn.REGEXEXTRACT(B125,"(?&lt;=//)[^/]+")</f>
@@ -11434,7 +11421,7 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="str">
         <f>IF(ISBLANK(R127)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -11479,7 +11466,7 @@
         <v>77</v>
       </c>
       <c r="O127" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P127" s="17" t="s">
         <v>77</v>
@@ -11534,16 +11521,16 @@
         <v>102</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L128" s="17" t="s">
         <v>184</v>
       </c>
       <c r="M128" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="N128" s="17" t="s">
         <v>483</v>
-      </c>
-      <c r="N128" s="17" t="s">
-        <v>484</v>
       </c>
       <c r="O128" s="17" t="s">
         <v>395</v>
@@ -11552,7 +11539,7 @@
         <v>388</v>
       </c>
       <c r="Q128" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R128" s="17" t="s">
         <v>91</v>
@@ -11561,14 +11548,14 @@
         <v>2</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U128" s="17" t="str" cm="1">
         <f t="array" ref="U128">_xlfn.REGEXEXTRACT(B128,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="str">
         <f>IF(ISBLANK(R129)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -11583,10 +11570,10 @@
         <v>261</v>
       </c>
       <c r="E129" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="F129" s="17" t="s">
         <v>517</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>518</v>
       </c>
       <c r="G129" s="17" t="s">
         <v>77</v>
@@ -11598,7 +11585,7 @@
         <v>265</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K129" s="17" t="s">
         <v>119</v>
@@ -11607,16 +11594,16 @@
         <v>162</v>
       </c>
       <c r="M129" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="N129" s="17" t="s">
         <v>521</v>
-      </c>
-      <c r="N129" s="17" t="s">
-        <v>522</v>
       </c>
       <c r="O129" s="17" t="s">
         <v>127</v>
       </c>
       <c r="P129" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q129" s="17" t="s">
         <v>196</v>
@@ -11628,7 +11615,7 @@
         <v>2</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="U129" s="17" t="str" cm="1">
         <f t="array" ref="U129">_xlfn.REGEXEXTRACT(B129,"(?&lt;=//)[^/]+")</f>
@@ -11647,10 +11634,10 @@
         <v>57</v>
       </c>
       <c r="D130" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="E130" s="17" t="s">
         <v>581</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>582</v>
       </c>
       <c r="F130" s="17" t="s">
         <v>77</v>
@@ -11680,13 +11667,13 @@
         <v>267</v>
       </c>
       <c r="O130" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P130" s="17" t="s">
         <v>416</v>
       </c>
       <c r="Q130" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R130" s="17" t="s">
         <v>91</v>
@@ -11695,14 +11682,14 @@
         <v>2</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="U130" s="17" t="str" cm="1">
         <f t="array" ref="U130">_xlfn.REGEXEXTRACT(B130,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="str">
         <f>IF(ISBLANK(R131)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -11714,13 +11701,13 @@
         <v>57</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G131" s="17" t="s">
         <v>77</v>
@@ -11729,7 +11716,7 @@
         <v>117</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J131" s="17" t="s">
         <v>130</v>
@@ -11747,7 +11734,7 @@
         <v>77</v>
       </c>
       <c r="O131" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P131" s="17" t="s">
         <v>395</v>
@@ -11762,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="T131" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U131" s="17" t="str" cm="1">
         <f t="array" ref="U131">_xlfn.REGEXEXTRACT(B131,"(?&lt;=//)[^/]+")</f>
@@ -11781,10 +11768,10 @@
         <v>64</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F132" s="17" t="s">
         <v>77</v>
@@ -11799,10 +11786,10 @@
         <v>340</v>
       </c>
       <c r="J132" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="K132" s="17" t="s">
         <v>600</v>
-      </c>
-      <c r="K132" s="17" t="s">
-        <v>601</v>
       </c>
       <c r="L132" s="17" t="s">
         <v>162</v>
@@ -11820,7 +11807,7 @@
         <v>388</v>
       </c>
       <c r="Q132" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R132" s="17" t="s">
         <v>91</v>
@@ -11829,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="T132" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U132" s="17" t="str" cm="1">
         <f t="array" ref="U132">_xlfn.REGEXEXTRACT(B132,"(?&lt;=//)[^/]+")</f>
@@ -11970,7 +11957,7 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="str">
         <f>IF(ISBLANK(R135)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -11997,7 +11984,7 @@
         <v>117</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J135" s="17" t="s">
         <v>77</v>
@@ -12030,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U135" s="17" t="str" cm="1">
         <f t="array" ref="U135">_xlfn.REGEXEXTRACT(B135,"(?&lt;=//)[^/]+")</f>
@@ -12047,8 +12034,8 @@
     <sortCondition ref="C1:C136"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:U120 A121:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A121:XFD1048576 A1:U120">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12541,7 +12528,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/master_links.xlsx
+++ b/data/master_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC44A00-A781-4E4D-9834-0A5A0F7216E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A04519B-429A-4447-9370-E71F6FA0B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_links" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="bdsmvilla" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main_links!$A$1:$U$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main_links!$A$1:$U$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="828">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -2466,6 +2466,87 @@
   </si>
   <si>
     <t>full length divine bitches library</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/sites/men-in-pain/most-popular/</t>
+  </si>
+  <si>
+    <t>go to most viewed</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22501001/47e1b5131fea40a07c8dbe676b82203b/</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22501682/839b596862993727fd9847f01e9660fa/</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22496998/e3ddcb0614bd2e35f425251178c9885f/</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22498489/ad30ac38767161a6b1b21f0b051cf0e3/</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22502128/48becf08ce1d8544f1ecd11b29940273/</t>
+  </si>
+  <si>
+    <t>daphne rosen</t>
+  </si>
+  <si>
+    <t>blackmail at 10m,flogging at 11m,doggy at 25m,paddling at 27m</t>
+  </si>
+  <si>
+    <t>maitresse madeline marlowe</t>
+  </si>
+  <si>
+    <t>cloth tear at 12m,flogging at 14m,trampling at 18m, foot on dick at 20m, ass eating at 24m,pegging at 40m</t>
+  </si>
+  <si>
+    <t>bobbi starr</t>
+  </si>
+  <si>
+    <t>suspended upside down</t>
+  </si>
+  <si>
+    <t>cbt at 12m,spanking at 16m,pegging at 22m,pussy eating at 33m</t>
+  </si>
+  <si>
+    <t>cassandra cruz</t>
+  </si>
+  <si>
+    <t>samantha sin</t>
+  </si>
+  <si>
+    <t>flogging at 2m,cunnilingus at 15m,pegging at 16m,female pretzel,dildo on mouth at 20m,cock clothespin at 26m</t>
+  </si>
+  <si>
+    <t>aiden starr</t>
+  </si>
+  <si>
+    <t>madison young</t>
+  </si>
+  <si>
+    <t>ass eating at 15m,flogging at 23m,pegging at 25m,spitroast</t>
+  </si>
+  <si>
+    <t>2f-1m</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22500252/dceae482c25e7ba144d7049394deb6c5/</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22498130/5e56d5f6751aabd60f0eec589638cb10/</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22564804/1910c56168474048302fda1693b08f22/</t>
+  </si>
+  <si>
+    <t>gia dimarco</t>
+  </si>
+  <si>
+    <t>ariel x</t>
+  </si>
+  <si>
+    <t>arabelle raphael</t>
   </si>
 </sst>
 </file>
@@ -2965,17 +3046,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U140"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="16" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="16" customWidth="1"/>
@@ -5806,19 +5887,19 @@
         <v>Done</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>21</v>
+        <v>801</v>
       </c>
       <c r="C43" s="17">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>673</v>
+        <v>694</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>731</v>
+        <v>611</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>731</v>
+        <v>77</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>77</v>
@@ -5827,132 +5908,132 @@
         <v>116</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>648</v>
+        <v>118</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>672</v>
+        <v>95</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>614</v>
+        <v>100</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>395</v>
+        <v>128</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>128</v>
+        <v>438</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>679</v>
+        <v>91</v>
       </c>
       <c r="S43" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>678</v>
+        <v>802</v>
       </c>
       <c r="U43" s="17" t="str" cm="1">
         <f t="array" ref="U43">_xlfn.REGEXEXTRACT(B43,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.porntry.com</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>736</v>
+        <v>804</v>
       </c>
       <c r="C44" s="17">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>731</v>
+        <v>810</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>731</v>
+        <v>77</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>383</v>
+        <v>193</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>196</v>
+        <v>707</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>162</v>
+        <v>401</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>689</v>
+        <v>95</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>690</v>
-      </c>
-      <c r="O44" s="17">
-        <v>69</v>
+        <v>524</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>438</v>
       </c>
       <c r="P44" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q44" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="R44" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S44" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>688</v>
+        <v>811</v>
       </c>
       <c r="U44" s="17" t="str" cm="1">
         <f t="array" ref="U44">_xlfn.REGEXEXTRACT(B44,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.porntry.com</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C45" s="17">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>663</v>
+        <v>731</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>77</v>
+        <v>731</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>77</v>
@@ -5961,98 +6042,98 @@
         <v>116</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>486</v>
+        <v>648</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>150</v>
+        <v>672</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>661</v>
+        <v>174</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>665</v>
+        <v>614</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>584</v>
+        <v>229</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>666</v>
+        <v>395</v>
       </c>
       <c r="Q45" s="17" t="s">
-        <v>640</v>
+        <v>128</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>91</v>
+        <v>679</v>
       </c>
       <c r="S45" s="17">
         <v>5</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="U45" s="17" t="str" cm="1">
         <f t="array" ref="U45">_xlfn.REGEXEXTRACT(B45,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>14</v>
+        <v>736</v>
       </c>
       <c r="C46" s="17">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>132</v>
+        <v>731</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>563</v>
+        <v>731</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>218</v>
+        <v>731</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>649</v>
+        <v>328</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>653</v>
+        <v>690</v>
+      </c>
+      <c r="O46" s="17">
+        <v>69</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>584</v>
+        <v>229</v>
       </c>
       <c r="Q46" s="17" t="s">
-        <v>654</v>
+        <v>189</v>
       </c>
       <c r="R46" s="17" t="s">
         <v>91</v>
@@ -6061,29 +6142,29 @@
         <v>5</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="U46" s="17" t="str" cm="1">
         <f t="array" ref="U46">_xlfn.REGEXEXTRACT(B46,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C47" s="17">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>149</v>
+        <v>662</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>77</v>
@@ -6092,34 +6173,34 @@
         <v>77</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I47" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N47" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="N47" s="17" t="s">
-        <v>154</v>
-      </c>
       <c r="O47" s="17" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>138</v>
+        <v>666</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>584</v>
+        <v>640</v>
       </c>
       <c r="R47" s="17" t="s">
         <v>91</v>
@@ -6128,11 +6209,11 @@
         <v>5</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>605</v>
+        <v>664</v>
       </c>
       <c r="U47" s="17" t="str" cm="1">
         <f t="array" ref="U47">_xlfn.REGEXEXTRACT(B47,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>punishworld.com</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -6141,19 +6222,19 @@
         <v>Done</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" s="17">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>77</v>
@@ -6162,31 +6243,31 @@
         <v>116</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>135</v>
+        <v>649</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>547</v>
+        <v>651</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>154</v>
+        <v>652</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>189</v>
+        <v>653</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>127</v>
+        <v>584</v>
       </c>
       <c r="Q48" s="17" t="s">
-        <v>363</v>
+        <v>654</v>
       </c>
       <c r="R48" s="17" t="s">
         <v>91</v>
@@ -6195,7 +6276,7 @@
         <v>5</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>597</v>
+        <v>650</v>
       </c>
       <c r="U48" s="17" t="str" cm="1">
         <f t="array" ref="U48">_xlfn.REGEXEXTRACT(B48,"(?&lt;=//)[^/]+")</f>
@@ -6208,16 +6289,16 @@
         <v>Done</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C49" s="17">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>526</v>
+        <v>149</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>77</v>
@@ -6232,28 +6313,28 @@
         <v>118</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>478</v>
+        <v>135</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M49" s="17" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="N49" s="17" t="s">
         <v>154</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
       <c r="P49" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q49" s="17" t="s">
         <v>584</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>493</v>
       </c>
       <c r="R49" s="17" t="s">
         <v>91</v>
@@ -6262,7 +6343,7 @@
         <v>5</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="U49" s="17" t="str" cm="1">
         <f t="array" ref="U49">_xlfn.REGEXEXTRACT(B49,"(?&lt;=//)[^/]+")</f>
@@ -6275,52 +6356,52 @@
         <v>Done</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C50" s="17">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>216</v>
+        <v>594</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>116</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>119</v>
+        <v>500</v>
       </c>
       <c r="J50" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K50" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="K50" s="17" t="s">
-        <v>150</v>
-      </c>
       <c r="L50" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="N50" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="M50" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="N50" s="17" t="s">
-        <v>161</v>
-      </c>
       <c r="O50" s="17" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Q50" s="17" t="s">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="R50" s="17" t="s">
         <v>91</v>
@@ -6329,29 +6410,29 @@
         <v>5</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>221</v>
+        <v>597</v>
       </c>
       <c r="U50" s="17" t="str" cm="1">
         <f t="array" ref="U50">_xlfn.REGEXEXTRACT(B50,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C51" s="17">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>191</v>
+        <v>526</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>452</v>
+        <v>592</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>77</v>
@@ -6360,34 +6441,34 @@
         <v>77</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="I51" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="J51" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>201</v>
-      </c>
       <c r="M51" s="17" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>200</v>
+        <v>584</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="R51" s="17" t="s">
         <v>91</v>
@@ -6396,65 +6477,65 @@
         <v>5</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>249</v>
+        <v>593</v>
       </c>
       <c r="U51" s="17" t="str" cm="1">
         <f t="array" ref="U51">_xlfn.REGEXEXTRACT(B51,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="C52" s="17">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>132</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>402</v>
+        <v>216</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="H52" s="17" t="s">
         <v>116</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>485</v>
+        <v>119</v>
       </c>
       <c r="J52" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L52" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K52" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>555</v>
-      </c>
       <c r="M52" s="17" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>556</v>
+        <v>161</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>552</v>
+        <v>77</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="R52" s="17" t="s">
         <v>91</v>
@@ -6463,11 +6544,11 @@
         <v>5</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>554</v>
+        <v>221</v>
       </c>
       <c r="U52" s="17" t="str" cm="1">
         <f t="array" ref="U52">_xlfn.REGEXEXTRACT(B52,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -6476,16 +6557,16 @@
         <v>Done</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C53" s="17">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>731</v>
+        <v>191</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>731</v>
+        <v>452</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>77</v>
@@ -6494,34 +6575,34 @@
         <v>77</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>558</v>
+        <v>135</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>559</v>
+        <v>95</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="M53" s="17" t="s">
-        <v>524</v>
+        <v>202</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>483</v>
+        <v>119</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>560</v>
+        <v>167</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>511</v>
+        <v>200</v>
       </c>
       <c r="Q53" s="17" t="s">
-        <v>561</v>
+        <v>77</v>
       </c>
       <c r="R53" s="17" t="s">
         <v>91</v>
@@ -6530,11 +6611,11 @@
         <v>5</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>562</v>
+        <v>249</v>
       </c>
       <c r="U53" s="17" t="str" cm="1">
         <f t="array" ref="U53">_xlfn.REGEXEXTRACT(B53,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -6543,16 +6624,16 @@
         <v>Done</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="C54" s="17">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>529</v>
+        <v>402</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>77</v>
@@ -6564,31 +6645,31 @@
         <v>116</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>135</v>
+        <v>485</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>160</v>
+        <v>553</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>354</v>
+        <v>555</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>573</v>
+        <v>438</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="Q54" s="17" t="s">
-        <v>531</v>
+        <v>103</v>
       </c>
       <c r="R54" s="17" t="s">
         <v>91</v>
@@ -6597,11 +6678,11 @@
         <v>5</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="U54" s="17" t="str" cm="1">
         <f t="array" ref="U54">_xlfn.REGEXEXTRACT(B54,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -6610,16 +6691,16 @@
         <v>Done</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C55" s="17">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>526</v>
+        <v>731</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>447</v>
+        <v>731</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>77</v>
@@ -6631,31 +6712,31 @@
         <v>117</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>135</v>
+        <v>558</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="K55" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="L55" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="L55" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="M55" s="17" t="s">
-        <v>130</v>
+        <v>524</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="Q55" s="17" t="s">
-        <v>128</v>
+        <v>561</v>
       </c>
       <c r="R55" s="17" t="s">
         <v>91</v>
@@ -6664,11 +6745,11 @@
         <v>5</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="U55" s="17" t="str" cm="1">
         <f t="array" ref="U55">_xlfn.REGEXEXTRACT(B55,"(?&lt;=//)[^/]+")</f>
-        <v>hcbdsm.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -6677,16 +6758,16 @@
         <v>Done</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C56" s="17">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>77</v>
@@ -6698,31 +6779,31 @@
         <v>116</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>102</v>
+        <v>354</v>
       </c>
       <c r="M56" s="17" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="O56" s="17" t="s">
-        <v>155</v>
+        <v>573</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>189</v>
+        <v>493</v>
       </c>
       <c r="Q56" s="17" t="s">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="R56" s="17" t="s">
         <v>91</v>
@@ -6731,7 +6812,7 @@
         <v>5</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="U56" s="17" t="str" cm="1">
         <f t="array" ref="U56">_xlfn.REGEXEXTRACT(B56,"(?&lt;=//)[^/]+")</f>
@@ -6744,16 +6825,16 @@
         <v>Done</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>768</v>
+        <v>41</v>
       </c>
       <c r="C57" s="17">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>769</v>
+        <v>447</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>77</v>
@@ -6762,34 +6843,34 @@
         <v>77</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>795</v>
+        <v>135</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>796</v>
+        <v>102</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>614</v>
+        <v>160</v>
       </c>
       <c r="M57" s="17" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>390</v>
+        <v>468</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>206</v>
+        <v>527</v>
       </c>
       <c r="P57" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q57" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="Q57" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="R57" s="17" t="s">
         <v>91</v>
@@ -6798,32 +6879,32 @@
         <v>5</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>797</v>
+        <v>528</v>
       </c>
       <c r="U57" s="17" t="str" cm="1">
         <f t="array" ref="U57">_xlfn.REGEXEXTRACT(B57,"(?&lt;=//)[^/]+")</f>
-        <v>www.porntrex.com</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>hcbdsm.com</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="C58" s="17">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>77</v>
@@ -6832,10 +6913,10 @@
         <v>116</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>648</v>
+        <v>147</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="K58" s="17" t="s">
         <v>135</v>
@@ -6844,19 +6925,19 @@
         <v>102</v>
       </c>
       <c r="M58" s="17" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>438</v>
+        <v>155</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>564</v>
+        <v>189</v>
       </c>
       <c r="Q58" s="17" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="R58" s="17" t="s">
         <v>91</v>
@@ -6865,11 +6946,11 @@
         <v>5</v>
       </c>
       <c r="T58" s="17" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="U58" s="17" t="str" cm="1">
         <f t="array" ref="U58">_xlfn.REGEXEXTRACT(B58,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -6878,52 +6959,52 @@
         <v>Done</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>8</v>
+        <v>768</v>
       </c>
       <c r="C59" s="17">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>366</v>
+        <v>769</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>196</v>
+        <v>795</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>119</v>
+        <v>796</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>408</v>
+        <v>121</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>328</v>
+        <v>614</v>
       </c>
       <c r="M59" s="17" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="N59" s="17" t="s">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="O59" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="P59" s="17">
-        <v>69</v>
+        <v>206</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="Q59" s="17" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="R59" s="17" t="s">
         <v>91</v>
@@ -6932,65 +7013,65 @@
         <v>5</v>
       </c>
       <c r="T59" s="17" t="s">
-        <v>428</v>
+        <v>797</v>
       </c>
       <c r="U59" s="17" t="str" cm="1">
         <f t="array" ref="U59">_xlfn.REGEXEXTRACT(B59,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.porntrex.com</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="C60" s="17">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>406</v>
+        <v>149</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I60" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="J60" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J60" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="K60" s="17" t="s">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>408</v>
+        <v>102</v>
       </c>
       <c r="M60" s="17" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="O60" s="17" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="P60" s="17" t="s">
-        <v>189</v>
+        <v>564</v>
       </c>
       <c r="Q60" s="17" t="s">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="R60" s="17" t="s">
         <v>91</v>
@@ -6999,65 +7080,65 @@
         <v>5</v>
       </c>
       <c r="T60" s="17" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="U60" s="17" t="str" cm="1">
         <f t="array" ref="U60">_xlfn.REGEXEXTRACT(B60,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C61" s="17">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>148</v>
+        <v>425</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>181</v>
+        <v>408</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="M61" s="17" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="O61" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="P61" s="17" t="s">
-        <v>179</v>
+        <v>233</v>
+      </c>
+      <c r="P61" s="17">
+        <v>69</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="R61" s="17" t="s">
         <v>91</v>
@@ -7066,65 +7147,65 @@
         <v>5</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="U61" s="17" t="str" cm="1">
         <f t="array" ref="U61">_xlfn.REGEXEXTRACT(B61,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C62" s="17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>148</v>
+        <v>406</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>648</v>
+        <v>118</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>478</v>
+        <v>328</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="M62" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O62" s="17" t="s">
-        <v>108</v>
+        <v>363</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q62" s="17">
-        <v>69</v>
+        <v>189</v>
+      </c>
+      <c r="Q62" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="R62" s="17" t="s">
         <v>91</v>
@@ -7133,29 +7214,29 @@
         <v>5</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>244</v>
+        <v>407</v>
       </c>
       <c r="U62" s="17" t="str" cm="1">
         <f t="array" ref="U62">_xlfn.REGEXEXTRACT(B62,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>721</v>
+        <v>22</v>
       </c>
       <c r="C63" s="17">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>731</v>
+        <v>148</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>731</v>
+        <v>169</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>77</v>
@@ -7164,34 +7245,34 @@
         <v>77</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>478</v>
+        <v>176</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>722</v>
+        <v>144</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>520</v>
+        <v>177</v>
       </c>
       <c r="M63" s="17" t="s">
-        <v>724</v>
+        <v>112</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="O63" s="17" t="s">
-        <v>438</v>
+        <v>178</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="R63" s="17" t="s">
         <v>91</v>
@@ -7200,65 +7281,65 @@
         <v>5</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>723</v>
+        <v>246</v>
       </c>
       <c r="U63" s="17" t="str" cm="1">
         <f t="array" ref="U63">_xlfn.REGEXEXTRACT(B63,"(?&lt;=//)[^/]+")</f>
-        <v>beeg.com</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>725</v>
+        <v>44</v>
       </c>
       <c r="C64" s="17">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>781</v>
+        <v>148</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>731</v>
+        <v>448</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>782</v>
+        <v>116</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>265</v>
+        <v>648</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>783</v>
+        <v>478</v>
       </c>
       <c r="L64" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="M64" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M64" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="N64" s="17" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O64" s="17" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q64" s="17" t="s">
-        <v>77</v>
+        <v>109</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>69</v>
       </c>
       <c r="R64" s="17" t="s">
         <v>91</v>
@@ -7267,29 +7348,29 @@
         <v>5</v>
       </c>
       <c r="T64" s="17" t="s">
-        <v>787</v>
+        <v>244</v>
       </c>
       <c r="U64" s="17" t="str" cm="1">
         <f t="array" ref="U64">_xlfn.REGEXEXTRACT(B64,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>318</v>
+        <v>721</v>
       </c>
       <c r="C65" s="17">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>325</v>
+        <v>731</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>326</v>
+        <v>731</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>77</v>
@@ -7298,34 +7379,34 @@
         <v>77</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>256</v>
+        <v>478</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>327</v>
+        <v>722</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>154</v>
+        <v>520</v>
       </c>
       <c r="M65" s="17" t="s">
-        <v>328</v>
+        <v>724</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="O65" s="17" t="s">
-        <v>255</v>
+        <v>438</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="Q65" s="17" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="R65" s="17" t="s">
         <v>91</v>
@@ -7334,29 +7415,29 @@
         <v>5</v>
       </c>
       <c r="T65" s="17" t="s">
-        <v>569</v>
+        <v>723</v>
       </c>
       <c r="U65" s="17" t="str" cm="1">
         <f t="array" ref="U65">_xlfn.REGEXEXTRACT(B65,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>beeg.com</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>304</v>
+        <v>725</v>
       </c>
       <c r="C66" s="17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>321</v>
+        <v>781</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>322</v>
+        <v>731</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>77</v>
@@ -7365,34 +7446,34 @@
         <v>77</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>116</v>
+        <v>782</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>154</v>
+        <v>783</v>
       </c>
       <c r="L66" s="17" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="M66" s="17" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="N66" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O66" s="17" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="P66" s="17" t="s">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="Q66" s="17" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="R66" s="17" t="s">
         <v>91</v>
@@ -7401,11 +7482,11 @@
         <v>5</v>
       </c>
       <c r="T66" s="17" t="s">
-        <v>324</v>
+        <v>787</v>
       </c>
       <c r="U66" s="17" t="str" cm="1">
         <f t="array" ref="U66">_xlfn.REGEXEXTRACT(B66,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7414,16 +7495,16 @@
         <v>Done</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>704</v>
+        <v>318</v>
       </c>
       <c r="C67" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>731</v>
+        <v>325</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>731</v>
+        <v>326</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>77</v>
@@ -7432,28 +7513,28 @@
         <v>77</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="J67" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="K67" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="K67" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="L67" s="17" t="s">
-        <v>774</v>
+        <v>154</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="N67" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O67" s="17" t="s">
-        <v>742</v>
+        <v>255</v>
       </c>
       <c r="P67" s="17" t="s">
         <v>77</v>
@@ -7462,35 +7543,35 @@
         <v>77</v>
       </c>
       <c r="R67" s="17" t="s">
-        <v>679</v>
+        <v>91</v>
       </c>
       <c r="S67" s="17">
         <v>5</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>775</v>
+        <v>569</v>
       </c>
       <c r="U67" s="17" t="str" cm="1">
         <f t="array" ref="U67">_xlfn.REGEXEXTRACT(B67,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster44.desi</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>697</v>
+        <v>304</v>
       </c>
       <c r="C68" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>698</v>
+        <v>321</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>708</v>
+        <v>322</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>77</v>
@@ -7502,31 +7583,31 @@
         <v>116</v>
       </c>
       <c r="I68" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K68" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J68" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>375</v>
-      </c>
       <c r="L68" s="17" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="N68" s="17" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="O68" s="17" t="s">
-        <v>395</v>
+        <v>103</v>
       </c>
       <c r="P68" s="17" t="s">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>493</v>
+        <v>229</v>
       </c>
       <c r="R68" s="17" t="s">
         <v>91</v>
@@ -7535,29 +7616,29 @@
         <v>5</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>700</v>
+        <v>324</v>
       </c>
       <c r="U68" s="17" t="str" cm="1">
         <f t="array" ref="U68">_xlfn.REGEXEXTRACT(B68,"(?&lt;=//)[^/]+")</f>
-        <v>www.txxx.porn</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C69" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>611</v>
+        <v>731</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>77</v>
@@ -7569,44 +7650,44 @@
         <v>193</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>738</v>
+        <v>102</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>750</v>
+        <v>153</v>
       </c>
       <c r="L69" s="17" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="M69" s="17" t="s">
-        <v>752</v>
+        <v>77</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>753</v>
+        <v>77</v>
       </c>
       <c r="O69" s="17" t="s">
-        <v>128</v>
+        <v>742</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>686</v>
+        <v>77</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>91</v>
+        <v>679</v>
       </c>
       <c r="S69" s="17">
         <v>5</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="U69" s="17" t="str" cm="1">
         <f t="array" ref="U69">_xlfn.REGEXEXTRACT(B69,"(?&lt;=//)[^/]+")</f>
-        <v>www.fuq.com</v>
+        <v>xhamster44.desi</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7615,16 +7696,16 @@
         <v>Done</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>68</v>
+        <v>697</v>
       </c>
       <c r="C70" s="17">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>77</v>
@@ -7636,44 +7717,44 @@
         <v>116</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>648</v>
+        <v>154</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>652</v>
+        <v>100</v>
       </c>
       <c r="K70" s="17" t="s">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="L70" s="17" t="s">
-        <v>486</v>
+        <v>614</v>
       </c>
       <c r="M70" s="17" t="s">
-        <v>684</v>
+        <v>265</v>
       </c>
       <c r="N70" s="17" t="s">
-        <v>685</v>
+        <v>102</v>
       </c>
       <c r="O70" s="17" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>686</v>
+        <v>129</v>
       </c>
       <c r="Q70" s="17" t="s">
-        <v>687</v>
+        <v>493</v>
       </c>
       <c r="R70" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S70" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="U70" s="17" t="str" cm="1">
         <f t="array" ref="U70">_xlfn.REGEXEXTRACT(B70,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
+        <v>www.txxx.porn</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7682,65 +7763,65 @@
         <v>Done</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>69</v>
+        <v>718</v>
       </c>
       <c r="C71" s="17">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>674</v>
+        <v>798</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>675</v>
+        <v>611</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>676</v>
+        <v>77</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>534</v>
+        <v>208</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>486</v>
+        <v>738</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>154</v>
+        <v>750</v>
       </c>
       <c r="L71" s="17" t="s">
-        <v>680</v>
+        <v>751</v>
       </c>
       <c r="M71" s="17" t="s">
-        <v>681</v>
+        <v>752</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>682</v>
+        <v>753</v>
       </c>
       <c r="O71" s="17" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="P71" s="17" t="s">
-        <v>640</v>
+        <v>103</v>
       </c>
       <c r="Q71" s="17" t="s">
-        <v>511</v>
+        <v>686</v>
       </c>
       <c r="R71" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S71" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="U71" s="17" t="str" cm="1">
         <f t="array" ref="U71">_xlfn.REGEXEXTRACT(B71,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
+        <v>www.fuq.com</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7749,37 +7830,37 @@
         <v>Done</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>264</v>
+        <v>807</v>
       </c>
       <c r="C72" s="17">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>261</v>
+        <v>694</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>455</v>
+        <v>812</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="L72" s="17" t="s">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="M72" s="17" t="s">
         <v>77</v>
@@ -7788,26 +7869,26 @@
         <v>77</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>584</v>
+        <v>813</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>196</v>
+        <v>686</v>
       </c>
       <c r="R72" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S72" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>266</v>
+        <v>814</v>
       </c>
       <c r="U72" s="17" t="str" cm="1">
         <f t="array" ref="U72">_xlfn.REGEXEXTRACT(B72,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>www.porntry.com</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7816,19 +7897,19 @@
         <v>Done</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>63</v>
+        <v>805</v>
       </c>
       <c r="C73" s="17">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>191</v>
+        <v>694</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>192</v>
+        <v>818</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>77</v>
+        <v>819</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>77</v>
@@ -7837,44 +7918,44 @@
         <v>193</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="K73" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L73" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="L73" s="17" t="s">
+      <c r="M73" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="M73" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="N73" s="17" t="s">
-        <v>77</v>
+        <v>821</v>
       </c>
       <c r="O73" s="17" t="s">
-        <v>186</v>
+        <v>686</v>
       </c>
       <c r="P73" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q73" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>196</v>
       </c>
       <c r="R73" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S73" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>198</v>
+        <v>820</v>
       </c>
       <c r="U73" s="17" t="str" cm="1">
         <f t="array" ref="U73">_xlfn.REGEXEXTRACT(B73,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.porntry.com</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7883,16 +7964,16 @@
         <v>Done</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="C74" s="17">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>623</v>
+        <v>731</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>624</v>
+        <v>731</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>77</v>
@@ -7901,34 +7982,34 @@
         <v>77</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>368</v>
+        <v>116</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>340</v>
+        <v>652</v>
       </c>
       <c r="K74" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L74" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="L74" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="M74" s="17" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="O74" s="17" t="s">
         <v>189</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>627</v>
+        <v>686</v>
       </c>
       <c r="Q74" s="17" t="s">
-        <v>628</v>
+        <v>687</v>
       </c>
       <c r="R74" s="17" t="s">
         <v>91</v>
@@ -7937,65 +8018,65 @@
         <v>4</v>
       </c>
       <c r="T74" s="17" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
       <c r="U74" s="17" t="str" cm="1">
         <f t="array" ref="U74">_xlfn.REGEXEXTRACT(B74,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>punishbang.com</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="C75" s="17">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>321</v>
+        <v>674</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>591</v>
+        <v>675</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>147</v>
+        <v>534</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>102</v>
+        <v>486</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>524</v>
+        <v>680</v>
       </c>
       <c r="M75" s="17" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>174</v>
+        <v>682</v>
       </c>
       <c r="O75" s="17" t="s">
         <v>189</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>128</v>
+        <v>640</v>
       </c>
       <c r="Q75" s="17" t="s">
-        <v>584</v>
+        <v>511</v>
       </c>
       <c r="R75" s="17" t="s">
         <v>91</v>
@@ -8004,11 +8085,11 @@
         <v>4</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="U75" s="17" t="str" cm="1">
         <f t="array" ref="U75">_xlfn.REGEXEXTRACT(B75,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>punishbang.com</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8017,19 +8098,19 @@
         <v>Done</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="C76" s="17">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>77</v>
@@ -8038,31 +8119,31 @@
         <v>117</v>
       </c>
       <c r="I76" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J76" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J76" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="K76" s="17" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="M76" s="17" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="O76" s="17" t="s">
-        <v>127</v>
+        <v>584</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="Q76" s="17" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="R76" s="17" t="s">
         <v>91</v>
@@ -8071,11 +8152,11 @@
         <v>4</v>
       </c>
       <c r="T76" s="17" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="U76" s="17" t="str" cm="1">
         <f t="array" ref="U76">_xlfn.REGEXEXTRACT(B76,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8084,52 +8165,52 @@
         <v>Done</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C77" s="17">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>585</v>
+        <v>192</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>578</v>
+        <v>77</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>588</v>
+        <v>195</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>590</v>
+        <v>135</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="O77" s="17" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="Q77" s="17" t="s">
-        <v>584</v>
+        <v>196</v>
       </c>
       <c r="R77" s="17" t="s">
         <v>91</v>
@@ -8138,11 +8219,11 @@
         <v>4</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>589</v>
+        <v>198</v>
       </c>
       <c r="U77" s="17" t="str" cm="1">
         <f t="array" ref="U77">_xlfn.REGEXEXTRACT(B77,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8151,16 +8232,16 @@
         <v>Done</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="C78" s="17">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>148</v>
+        <v>623</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>451</v>
+        <v>624</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>77</v>
@@ -8169,34 +8250,34 @@
         <v>77</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>153</v>
+        <v>626</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="M78" s="17" t="s">
-        <v>150</v>
+        <v>629</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>100</v>
+        <v>630</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="P78" s="17" t="s">
-        <v>151</v>
+        <v>627</v>
       </c>
       <c r="Q78" s="17" t="s">
-        <v>77</v>
+        <v>628</v>
       </c>
       <c r="R78" s="17" t="s">
         <v>91</v>
@@ -8205,65 +8286,65 @@
         <v>4</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>152</v>
+        <v>625</v>
       </c>
       <c r="U78" s="17" t="str" cm="1">
         <f t="array" ref="U78">_xlfn.REGEXEXTRACT(B78,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="C79" s="17">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>216</v>
+        <v>591</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>77</v>
+        <v>603</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>544</v>
+        <v>147</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>399</v>
+        <v>102</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>545</v>
+        <v>135</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>135</v>
+        <v>524</v>
       </c>
       <c r="M79" s="17" t="s">
-        <v>534</v>
+        <v>162</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="O79" s="17">
-        <v>69</v>
+        <v>174</v>
+      </c>
+      <c r="O79" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="Q79" s="17" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="R79" s="17" t="s">
         <v>91</v>
@@ -8272,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="U79" s="17" t="str" cm="1">
         <f t="array" ref="U79">_xlfn.REGEXEXTRACT(B79,"(?&lt;=//)[^/]+")</f>
@@ -8285,52 +8366,52 @@
         <v>Done</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C80" s="17">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>403</v>
+        <v>119</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>485</v>
+        <v>120</v>
       </c>
       <c r="M80" s="17" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="O80" s="17" t="s">
-        <v>549</v>
+        <v>127</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>550</v>
+        <v>128</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="R80" s="17" t="s">
         <v>91</v>
@@ -8339,11 +8420,11 @@
         <v>4</v>
       </c>
       <c r="T80" s="17" t="s">
-        <v>551</v>
+        <v>131</v>
       </c>
       <c r="U80" s="17" t="str" cm="1">
         <f t="array" ref="U80">_xlfn.REGEXEXTRACT(B80,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8352,52 +8433,52 @@
         <v>Done</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C81" s="17">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>349</v>
+        <v>132</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>731</v>
+        <v>585</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>77</v>
+        <v>578</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>160</v>
+        <v>588</v>
       </c>
       <c r="K81" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="N81" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="L81" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="M81" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N81" s="17" t="s">
-        <v>154</v>
-      </c>
       <c r="O81" s="17" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>536</v>
+        <v>363</v>
       </c>
       <c r="Q81" s="17" t="s">
-        <v>189</v>
+        <v>584</v>
       </c>
       <c r="R81" s="17" t="s">
         <v>91</v>
@@ -8406,29 +8487,29 @@
         <v>4</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>537</v>
+        <v>589</v>
       </c>
       <c r="U81" s="17" t="str" cm="1">
         <f t="array" ref="U81">_xlfn.REGEXEXTRACT(B81,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.party</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C82" s="17">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>148</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>77</v>
@@ -8440,28 +8521,28 @@
         <v>116</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>465</v>
+        <v>153</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="K82" s="17" t="s">
         <v>464</v>
       </c>
       <c r="L82" s="17" t="s">
-        <v>499</v>
+        <v>154</v>
       </c>
       <c r="M82" s="17" t="s">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N82" s="17" t="s">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="O82" s="17" t="s">
-        <v>498</v>
+        <v>149</v>
       </c>
       <c r="P82" s="17" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="Q82" s="17" t="s">
         <v>77</v>
@@ -8473,11 +8554,11 @@
         <v>4</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>501</v>
+        <v>152</v>
       </c>
       <c r="U82" s="17" t="str" cm="1">
         <f t="array" ref="U82">_xlfn.REGEXEXTRACT(B82,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8486,16 +8567,16 @@
         <v>Done</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C83" s="17">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>149</v>
+        <v>441</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>484</v>
+        <v>216</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>77</v>
@@ -8504,34 +8585,34 @@
         <v>77</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="L83" s="17" t="s">
         <v>135</v>
       </c>
       <c r="M83" s="17" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>189</v>
+        <v>547</v>
+      </c>
+      <c r="O83" s="17">
+        <v>69</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>487</v>
+        <v>229</v>
       </c>
       <c r="Q83" s="17" t="s">
-        <v>149</v>
+        <v>548</v>
       </c>
       <c r="R83" s="17" t="s">
         <v>91</v>
@@ -8540,7 +8621,7 @@
         <v>4</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="U83" s="17" t="str" cm="1">
         <f t="array" ref="U83">_xlfn.REGEXEXTRACT(B83,"(?&lt;=//)[^/]+")</f>
@@ -8553,16 +8634,16 @@
         <v>Done</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C84" s="17">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>463</v>
+        <v>543</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>77</v>
@@ -8574,31 +8655,31 @@
         <v>116</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>465</v>
+        <v>102</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="L84" s="17" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="M84" s="17" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>468</v>
+        <v>154</v>
       </c>
       <c r="O84" s="17" t="s">
-        <v>466</v>
+        <v>549</v>
       </c>
       <c r="P84" s="17" t="s">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="Q84" s="17" t="s">
-        <v>438</v>
+        <v>138</v>
       </c>
       <c r="R84" s="17" t="s">
         <v>91</v>
@@ -8607,7 +8688,7 @@
         <v>4</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
       <c r="U84" s="17" t="str" cm="1">
         <f t="array" ref="U84">_xlfn.REGEXEXTRACT(B84,"(?&lt;=//)[^/]+")</f>
@@ -8620,52 +8701,52 @@
         <v>Done</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C85" s="17">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D85" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>731</v>
       </c>
-      <c r="E85" s="17" t="s">
-        <v>474</v>
-      </c>
       <c r="F85" s="17" t="s">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>475</v>
+        <v>116</v>
       </c>
       <c r="I85" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="J85" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="J85" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="K85" s="17" t="s">
-        <v>478</v>
+        <v>135</v>
       </c>
       <c r="L85" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M85" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M85" s="17" t="s">
-        <v>130</v>
-      </c>
       <c r="N85" s="17" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="O85" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="P85" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q85" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="P85" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q85" s="17" t="s">
-        <v>479</v>
       </c>
       <c r="R85" s="17" t="s">
         <v>91</v>
@@ -8674,11 +8755,11 @@
         <v>4</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="U85" s="17" t="str" cm="1">
         <f t="array" ref="U85">_xlfn.REGEXEXTRACT(B85,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
+        <v>spankbang.party</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8687,16 +8768,16 @@
         <v>Done</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="C86" s="17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>77</v>
@@ -8708,28 +8789,28 @@
         <v>116</v>
       </c>
       <c r="I86" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="J86" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J86" s="17" t="s">
-        <v>431</v>
-      </c>
       <c r="K86" s="17" t="s">
-        <v>135</v>
+        <v>464</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>162</v>
+        <v>499</v>
       </c>
       <c r="M86" s="17" t="s">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="O86" s="17" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="P86" s="17" t="s">
-        <v>430</v>
+        <v>229</v>
       </c>
       <c r="Q86" s="17" t="s">
         <v>77</v>
@@ -8741,11 +8822,11 @@
         <v>4</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="U86" s="17" t="str" cm="1">
         <f t="array" ref="U86">_xlfn.REGEXEXTRACT(B86,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8754,16 +8835,16 @@
         <v>Done</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C87" s="17">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>216</v>
+        <v>484</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>77</v>
@@ -8775,31 +8856,31 @@
         <v>116</v>
       </c>
       <c r="I87" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="K87" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L87" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="J87" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="K87" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="L87" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="M87" s="17" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="P87" s="17" t="s">
-        <v>167</v>
+        <v>487</v>
       </c>
       <c r="Q87" s="17" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="R87" s="17" t="s">
         <v>91</v>
@@ -8808,11 +8889,11 @@
         <v>4</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="U87" s="17" t="str" cm="1">
         <f t="array" ref="U87">_xlfn.REGEXEXTRACT(B87,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8821,16 +8902,16 @@
         <v>Done</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="C88" s="17">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>362</v>
+        <v>148</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>77</v>
@@ -8839,34 +8920,34 @@
         <v>77</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>368</v>
+        <v>116</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>328</v>
+        <v>467</v>
       </c>
       <c r="M88" s="17" t="s">
-        <v>77</v>
+        <v>470</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="O88" s="17" t="s">
-        <v>128</v>
+        <v>466</v>
       </c>
       <c r="P88" s="17" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="Q88" s="17" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="R88" s="17" t="s">
         <v>91</v>
@@ -8875,65 +8956,65 @@
         <v>4</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="U88" s="17" t="str" cm="1">
         <f t="array" ref="U88">_xlfn.REGEXEXTRACT(B88,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C89" s="17">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>391</v>
+        <v>731</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>383</v>
+        <v>475</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>393</v>
+        <v>102</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="L89" s="17" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="M89" s="17" t="s">
-        <v>397</v>
+        <v>130</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="O89" s="17" t="s">
         <v>189</v>
       </c>
       <c r="P89" s="17" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Q89" s="17" t="s">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="R89" s="17" t="s">
         <v>91</v>
@@ -8942,32 +9023,32 @@
         <v>4</v>
       </c>
       <c r="T89" s="17" t="s">
-        <v>396</v>
+        <v>477</v>
       </c>
       <c r="U89" s="17" t="str" cm="1">
         <f t="array" ref="U89">_xlfn.REGEXEXTRACT(B89,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C90" s="17">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>132</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>77</v>
@@ -8976,28 +9057,28 @@
         <v>116</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="J90" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="K90" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="K90" s="17" t="s">
-        <v>112</v>
-      </c>
       <c r="L90" s="17" t="s">
-        <v>390</v>
+        <v>162</v>
       </c>
       <c r="M90" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="N90" s="17" t="s">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>229</v>
+        <v>432</v>
       </c>
       <c r="P90" s="17" t="s">
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="Q90" s="17" t="s">
         <v>77</v>
@@ -9009,11 +9090,11 @@
         <v>4</v>
       </c>
       <c r="T90" s="17" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="U90" s="17" t="str" cm="1">
         <f t="array" ref="U90">_xlfn.REGEXEXTRACT(B90,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9022,16 +9103,16 @@
         <v>Done</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>728</v>
+        <v>47</v>
       </c>
       <c r="C91" s="17">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>730</v>
+        <v>216</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>77</v>
@@ -9040,34 +9121,34 @@
         <v>77</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>789</v>
+        <v>135</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="L91" s="17" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>790</v>
+        <v>100</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>751</v>
+        <v>77</v>
       </c>
       <c r="O91" s="17" t="s">
-        <v>742</v>
+        <v>165</v>
       </c>
       <c r="P91" s="17" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="Q91" s="17" t="s">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="R91" s="17" t="s">
         <v>91</v>
@@ -9076,11 +9157,11 @@
         <v>4</v>
       </c>
       <c r="T91" s="17" t="s">
-        <v>791</v>
+        <v>320</v>
       </c>
       <c r="U91" s="17" t="str" cm="1">
         <f t="array" ref="U91">_xlfn.REGEXEXTRACT(B91,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9089,16 +9170,16 @@
         <v>Done</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C92" s="17">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>77</v>
@@ -9107,19 +9188,19 @@
         <v>77</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>154</v>
+        <v>411</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>118</v>
+        <v>412</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>135</v>
+        <v>390</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="M92" s="17" t="s">
         <v>77</v>
@@ -9128,13 +9209,13 @@
         <v>77</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>351</v>
+        <v>129</v>
       </c>
       <c r="Q92" s="17" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="R92" s="17" t="s">
         <v>91</v>
@@ -9143,11 +9224,11 @@
         <v>4</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="U92" s="17" t="str" cm="1">
         <f t="array" ref="U92">_xlfn.REGEXEXTRACT(B92,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -9156,16 +9237,16 @@
         <v>Done</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="C93" s="17">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>77</v>
@@ -9174,28 +9255,28 @@
         <v>77</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K93" s="17" t="s">
         <v>162</v>
       </c>
       <c r="L93" s="17" t="s">
-        <v>641</v>
+        <v>293</v>
       </c>
       <c r="M93" s="17" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="N93" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O93" s="17" t="s">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="P93" s="17" t="s">
         <v>77</v>
@@ -9210,11 +9291,11 @@
         <v>4</v>
       </c>
       <c r="T93" s="17" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="U93" s="17" t="str" cm="1">
         <f t="array" ref="U93">_xlfn.REGEXEXTRACT(B93,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>txxx.me</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9223,52 +9304,52 @@
         <v>Done</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C94" s="17">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>338</v>
+        <v>132</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>168</v>
+        <v>447</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>368</v>
+        <v>116</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="K94" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L94" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="L94" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="M94" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O94" s="17">
-        <v>69</v>
-      </c>
-      <c r="P94" s="17">
-        <v>619</v>
+        <v>483</v>
+      </c>
+      <c r="O94" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="P94" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="Q94" s="17" t="s">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="R94" s="17" t="s">
         <v>91</v>
@@ -9277,11 +9358,11 @@
         <v>4</v>
       </c>
       <c r="T94" s="17" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="U94" s="17" t="str" cm="1">
         <f t="array" ref="U94">_xlfn.REGEXEXTRACT(B94,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9290,16 +9371,16 @@
         <v>Done</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="C95" s="17">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>445</v>
+        <v>269</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>326</v>
+        <v>730</v>
       </c>
       <c r="F95" s="17" t="s">
         <v>77</v>
@@ -9308,34 +9389,34 @@
         <v>77</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>121</v>
+        <v>789</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>390</v>
+        <v>118</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>342</v>
+        <v>195</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="M95" s="17" t="s">
-        <v>77</v>
+        <v>790</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>77</v>
+        <v>751</v>
       </c>
       <c r="O95" s="17" t="s">
-        <v>330</v>
+        <v>742</v>
       </c>
       <c r="P95" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q95" s="17" t="s">
-        <v>128</v>
+        <v>438</v>
       </c>
       <c r="R95" s="17" t="s">
         <v>91</v>
@@ -9344,29 +9425,29 @@
         <v>4</v>
       </c>
       <c r="T95" s="17" t="s">
-        <v>329</v>
+        <v>791</v>
       </c>
       <c r="U95" s="17" t="str" cm="1">
         <f t="array" ref="U95">_xlfn.REGEXEXTRACT(B95,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="C96" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>798</v>
+        <v>349</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>611</v>
+        <v>348</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>77</v>
@@ -9375,19 +9456,19 @@
         <v>77</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>737</v>
+        <v>116</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="M96" s="17" t="s">
         <v>77</v>
@@ -9396,10 +9477,10 @@
         <v>77</v>
       </c>
       <c r="O96" s="17" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="P96" s="17" t="s">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Q96" s="17" t="s">
         <v>77</v>
@@ -9411,29 +9492,29 @@
         <v>4</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>618</v>
+        <v>352</v>
       </c>
       <c r="U96" s="17" t="str" cm="1">
         <f t="array" ref="U96">_xlfn.REGEXEXTRACT(B96,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C97" s="17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>798</v>
+        <v>349</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>611</v>
+        <v>347</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>77</v>
@@ -9442,28 +9523,28 @@
         <v>77</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>737</v>
+        <v>116</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="L97" s="17" t="s">
-        <v>77</v>
+        <v>641</v>
       </c>
       <c r="M97" s="17" t="s">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="N97" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O97" s="17" t="s">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="P97" s="17" t="s">
         <v>77</v>
@@ -9478,11 +9559,11 @@
         <v>4</v>
       </c>
       <c r="T97" s="17" t="s">
-        <v>621</v>
+        <v>350</v>
       </c>
       <c r="U97" s="17" t="str" cm="1">
         <f t="array" ref="U97">_xlfn.REGEXEXTRACT(B97,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9491,16 +9572,16 @@
         <v>Done</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>701</v>
+        <v>316</v>
       </c>
       <c r="C98" s="17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>798</v>
+        <v>338</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>611</v>
+        <v>168</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>77</v>
@@ -9509,132 +9590,132 @@
         <v>77</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>193</v>
+        <v>368</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>679</v>
+        <v>121</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>706</v>
+        <v>119</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>707</v>
+        <v>390</v>
       </c>
       <c r="L98" s="17" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="M98" s="17" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="N98" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="O98" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="P98" s="17" t="s">
-        <v>167</v>
+        <v>77</v>
+      </c>
+      <c r="O98" s="17">
+        <v>69</v>
+      </c>
+      <c r="P98" s="17">
+        <v>619</v>
       </c>
       <c r="Q98" s="17" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="R98" s="17" t="s">
-        <v>679</v>
+        <v>91</v>
       </c>
       <c r="S98" s="17">
         <v>4</v>
       </c>
       <c r="T98" s="17" t="s">
-        <v>702</v>
+        <v>339</v>
       </c>
       <c r="U98" s="17" t="str" cm="1">
         <f t="array" ref="U98">_xlfn.REGEXEXTRACT(B98,"(?&lt;=//)[^/]+")</f>
-        <v>www.tubegalore.com</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.porndead.org</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="C99" s="17">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>731</v>
+        <v>445</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>731</v>
+        <v>326</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>731</v>
+        <v>77</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>709</v>
+        <v>121</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>710</v>
+        <v>390</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>706</v>
+        <v>342</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>784</v>
+        <v>77</v>
       </c>
       <c r="M99" s="17" t="s">
-        <v>785</v>
+        <v>77</v>
       </c>
       <c r="N99" s="17" t="s">
-        <v>682</v>
+        <v>77</v>
       </c>
       <c r="O99" s="17" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="P99" s="17" t="s">
         <v>129</v>
       </c>
       <c r="Q99" s="17" t="s">
-        <v>438</v>
+        <v>128</v>
       </c>
       <c r="R99" s="17" t="s">
-        <v>679</v>
+        <v>91</v>
       </c>
       <c r="S99" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T99" s="17" t="s">
-        <v>711</v>
+        <v>329</v>
       </c>
       <c r="U99" s="17" t="str" cm="1">
         <f t="array" ref="U99">_xlfn.REGEXEXTRACT(B99,"(?&lt;=//)[^/]+")</f>
-        <v>www.eporner.com</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>xhamster18.desi</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Done</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C100" s="17">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>263</v>
+        <v>798</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>456</v>
+        <v>611</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>77</v>
@@ -9643,47 +9724,47 @@
         <v>77</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>116</v>
+        <v>737</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="M100" s="17" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="N100" s="17" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="O100" s="17" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="P100" s="17" t="s">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="Q100" s="17" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="R100" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S100" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>243</v>
+        <v>618</v>
       </c>
       <c r="U100" s="17" t="str" cm="1">
         <f t="array" ref="U100">_xlfn.REGEXEXTRACT(B100,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>netfapx.net</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9692,16 +9773,16 @@
         <v>Done</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>312</v>
+        <v>10</v>
       </c>
       <c r="C101" s="17">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>132</v>
+        <v>798</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>402</v>
+        <v>611</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>77</v>
@@ -9710,19 +9791,19 @@
         <v>77</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>116</v>
+        <v>737</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>583</v>
+        <v>77</v>
       </c>
       <c r="L101" s="17" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="M101" s="17" t="s">
         <v>77</v>
@@ -9731,7 +9812,7 @@
         <v>77</v>
       </c>
       <c r="O101" s="17" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="P101" s="17" t="s">
         <v>77</v>
@@ -9743,14 +9824,14 @@
         <v>91</v>
       </c>
       <c r="S101" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="U101" s="17" t="str" cm="1">
         <f t="array" ref="U101">_xlfn.REGEXEXTRACT(B101,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>pornzog</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9759,16 +9840,16 @@
         <v>Done</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>62</v>
+        <v>701</v>
       </c>
       <c r="C102" s="17">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>148</v>
+        <v>798</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>77</v>
@@ -9777,98 +9858,98 @@
         <v>77</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>134</v>
+        <v>679</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>574</v>
+        <v>706</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="L102" s="17" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="M102" s="17" t="s">
-        <v>637</v>
+        <v>95</v>
       </c>
       <c r="N102" s="17" t="s">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="O102" s="17" t="s">
-        <v>149</v>
+        <v>493</v>
       </c>
       <c r="P102" s="17" t="s">
-        <v>632</v>
+        <v>167</v>
       </c>
       <c r="Q102" s="17" t="s">
-        <v>635</v>
+        <v>438</v>
       </c>
       <c r="R102" s="17" t="s">
-        <v>91</v>
+        <v>679</v>
       </c>
       <c r="S102" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T102" s="17" t="s">
-        <v>636</v>
+        <v>702</v>
       </c>
       <c r="U102" s="17" t="str" cm="1">
         <f t="array" ref="U102">_xlfn.REGEXEXTRACT(B102,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.tubegalore.com</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="str">
         <f t="shared" ref="A103:A134" si="3">IF(ISBLANK(R103)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>64</v>
+        <v>803</v>
       </c>
       <c r="C103" s="17">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>444</v>
+        <v>694</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>454</v>
+        <v>808</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="J103" s="17" t="s">
         <v>135</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="L103" s="17" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="M103" s="17" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="N103" s="17" t="s">
-        <v>190</v>
+        <v>690</v>
       </c>
       <c r="O103" s="17" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="P103" s="17" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="Q103" s="17" t="s">
         <v>77</v>
@@ -9877,35 +9958,35 @@
         <v>91</v>
       </c>
       <c r="S103" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>248</v>
+        <v>809</v>
       </c>
       <c r="U103" s="17" t="str" cm="1">
         <f t="array" ref="U103">_xlfn.REGEXEXTRACT(B103,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.porntry.com</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>538</v>
+        <v>806</v>
       </c>
       <c r="C104" s="17">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>191</v>
+        <v>694</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>539</v>
+        <v>815</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>77</v>
+        <v>816</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>77</v>
@@ -9917,62 +9998,62 @@
         <v>135</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>540</v>
+        <v>690</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>541</v>
+        <v>95</v>
       </c>
       <c r="L104" s="17" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="M104" s="17" t="s">
-        <v>524</v>
+        <v>118</v>
       </c>
       <c r="N104" s="17" t="s">
-        <v>542</v>
+        <v>821</v>
       </c>
       <c r="O104" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="P104" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q104" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="P104" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q104" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="R104" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S104" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>735</v>
+        <v>817</v>
       </c>
       <c r="U104" s="17" t="str" cm="1">
         <f t="array" ref="U104">_xlfn.REGEXEXTRACT(B104,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.porntry.com</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>210</v>
+        <v>703</v>
       </c>
       <c r="C105" s="17">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>191</v>
+        <v>731</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>211</v>
+        <v>731</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>77</v>
+        <v>731</v>
       </c>
       <c r="G105" s="17" t="s">
         <v>77</v>
@@ -9981,44 +10062,44 @@
         <v>193</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>118</v>
+        <v>709</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>212</v>
+        <v>710</v>
       </c>
       <c r="K105" s="17" t="s">
-        <v>540</v>
+        <v>706</v>
       </c>
       <c r="L105" s="17" t="s">
-        <v>213</v>
+        <v>784</v>
       </c>
       <c r="M105" s="17" t="s">
-        <v>95</v>
+        <v>785</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>77</v>
+        <v>682</v>
       </c>
       <c r="O105" s="17" t="s">
         <v>189</v>
       </c>
       <c r="P105" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q105" s="17" t="s">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="R105" s="17" t="s">
-        <v>91</v>
+        <v>679</v>
       </c>
       <c r="S105" s="17">
         <v>3</v>
       </c>
       <c r="T105" s="17" t="s">
-        <v>251</v>
+        <v>711</v>
       </c>
       <c r="U105" s="17" t="str" cm="1">
         <f t="array" ref="U105">_xlfn.REGEXEXTRACT(B105,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>www.eporner.com</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10027,16 +10108,16 @@
         <v>Done</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C106" s="17">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>77</v>
@@ -10048,31 +10129,31 @@
         <v>116</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>472</v>
+        <v>140</v>
       </c>
       <c r="J106" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K106" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="K106" s="17" t="s">
-        <v>154</v>
-      </c>
       <c r="L106" s="17" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M106" s="17" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="N106" s="17" t="s">
-        <v>500</v>
+        <v>146</v>
       </c>
       <c r="O106" s="17" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P106" s="17" t="s">
-        <v>229</v>
+        <v>487</v>
       </c>
       <c r="Q106" s="17" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="R106" s="17" t="s">
         <v>91</v>
@@ -10081,65 +10162,65 @@
         <v>3</v>
       </c>
       <c r="T106" s="17" t="s">
-        <v>496</v>
+        <v>243</v>
       </c>
       <c r="U106" s="17" t="str" cm="1">
         <f t="array" ref="U106">_xlfn.REGEXEXTRACT(B106,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>734</v>
+        <v>312</v>
       </c>
       <c r="C107" s="17">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>731</v>
+        <v>132</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>508</v>
+        <v>77</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>510</v>
+        <v>102</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>119</v>
+        <v>583</v>
       </c>
       <c r="L107" s="17" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="M107" s="17" t="s">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="N107" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="O107" s="17">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="O107" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="P107" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="Q107" s="17" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="R107" s="17" t="s">
         <v>91</v>
@@ -10148,11 +10229,11 @@
         <v>3</v>
       </c>
       <c r="T107" s="17" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="U107" s="17" t="str" cm="1">
         <f t="array" ref="U107">_xlfn.REGEXEXTRACT(B107,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10161,16 +10242,16 @@
         <v>Done</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="C108" s="17">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>222</v>
+        <v>631</v>
       </c>
       <c r="F108" s="17" t="s">
         <v>77</v>
@@ -10179,101 +10260,101 @@
         <v>77</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>232</v>
+        <v>574</v>
       </c>
       <c r="K108" s="17" t="s">
-        <v>174</v>
+        <v>634</v>
       </c>
       <c r="L108" s="17" t="s">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="M108" s="17" t="s">
-        <v>77</v>
+        <v>637</v>
       </c>
       <c r="N108" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="O108" s="17" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="P108" s="17" t="s">
-        <v>138</v>
+        <v>632</v>
       </c>
       <c r="Q108" s="17" t="s">
-        <v>77</v>
+        <v>635</v>
       </c>
       <c r="R108" s="17" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="S108" s="17">
         <v>3</v>
       </c>
       <c r="T108" s="17" t="s">
-        <v>252</v>
+        <v>636</v>
       </c>
       <c r="U108" s="17" t="str" cm="1">
         <f t="array" ref="U108">_xlfn.REGEXEXTRACT(B108,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="C109" s="17">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="G109" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>368</v>
+        <v>115</v>
       </c>
       <c r="I109" s="17" t="s">
-        <v>472</v>
+        <v>112</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K109" s="17" t="s">
-        <v>390</v>
+        <v>187</v>
       </c>
       <c r="L109" s="17" t="s">
-        <v>328</v>
+        <v>188</v>
       </c>
       <c r="M109" s="17" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="N109" s="17" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="O109" s="17" t="s">
-        <v>333</v>
+        <v>103</v>
       </c>
       <c r="P109" s="17" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="Q109" s="17" t="s">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="R109" s="17" t="s">
         <v>91</v>
@@ -10282,11 +10363,11 @@
         <v>3</v>
       </c>
       <c r="T109" s="17" t="s">
-        <v>473</v>
+        <v>248</v>
       </c>
       <c r="U109" s="17" t="str" cm="1">
         <f t="array" ref="U109">_xlfn.REGEXEXTRACT(B109,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10295,16 +10376,16 @@
         <v>Done</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>1</v>
+        <v>538</v>
       </c>
       <c r="C110" s="17">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>435</v>
+        <v>191</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>168</v>
+        <v>539</v>
       </c>
       <c r="F110" s="17" t="s">
         <v>77</v>
@@ -10313,34 +10394,34 @@
         <v>77</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="I110" s="17" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>121</v>
+        <v>540</v>
       </c>
       <c r="K110" s="17" t="s">
-        <v>119</v>
+        <v>541</v>
       </c>
       <c r="L110" s="17" t="s">
-        <v>390</v>
+        <v>95</v>
       </c>
       <c r="M110" s="17" t="s">
-        <v>77</v>
+        <v>524</v>
       </c>
       <c r="N110" s="17" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="O110" s="17" t="s">
-        <v>432</v>
+        <v>189</v>
       </c>
       <c r="P110" s="17" t="s">
         <v>128</v>
       </c>
       <c r="Q110" s="17" t="s">
-        <v>129</v>
+        <v>438</v>
       </c>
       <c r="R110" s="17" t="s">
         <v>91</v>
@@ -10349,29 +10430,29 @@
         <v>3</v>
       </c>
       <c r="T110" s="17" t="s">
-        <v>436</v>
+        <v>735</v>
       </c>
       <c r="U110" s="17" t="str" cm="1">
         <f t="array" ref="U110">_xlfn.REGEXEXTRACT(B110,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>pervtube.net</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="C111" s="17">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>413</v>
+        <v>191</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>414</v>
+        <v>211</v>
       </c>
       <c r="F111" s="17" t="s">
         <v>77</v>
@@ -10380,34 +10461,34 @@
         <v>77</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="K111" s="17" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="L111" s="17" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="M111" s="17" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="N111" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O111" s="17" t="s">
-        <v>416</v>
+        <v>189</v>
       </c>
       <c r="P111" s="17" t="s">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="Q111" s="17" t="s">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="R111" s="17" t="s">
         <v>91</v>
@@ -10416,65 +10497,65 @@
         <v>3</v>
       </c>
       <c r="T111" s="17" t="s">
-        <v>417</v>
+        <v>251</v>
       </c>
       <c r="U111" s="17" t="str" cm="1">
         <f t="array" ref="U111">_xlfn.REGEXEXTRACT(B111,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C112" s="17">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>228</v>
+        <v>495</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="G112" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>399</v>
+        <v>135</v>
       </c>
       <c r="K112" s="17" t="s">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="L112" s="17" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="M112" s="17" t="s">
-        <v>77</v>
+        <v>614</v>
       </c>
       <c r="N112" s="17" t="s">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="O112" s="17" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="P112" s="17" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="Q112" s="17" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="R112" s="17" t="s">
         <v>91</v>
@@ -10483,7 +10564,7 @@
         <v>3</v>
       </c>
       <c r="T112" s="17" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="U112" s="17" t="str" cm="1">
         <f t="array" ref="U112">_xlfn.REGEXEXTRACT(B112,"(?&lt;=//)[^/]+")</f>
@@ -10496,19 +10577,19 @@
         <v>Done</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>74</v>
+        <v>734</v>
       </c>
       <c r="C113" s="17">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>365</v>
+        <v>731</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>366</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>367</v>
+        <v>508</v>
       </c>
       <c r="G113" s="17" t="s">
         <v>77</v>
@@ -10517,31 +10598,31 @@
         <v>383</v>
       </c>
       <c r="I113" s="17" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="J113" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="K113" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="K113" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="L113" s="17" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="M113" s="17" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N113" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O113" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="P113" s="17">
+        <v>328</v>
+      </c>
+      <c r="O113" s="17">
         <v>69</v>
       </c>
+      <c r="P113" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="Q113" s="17" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="R113" s="17" t="s">
         <v>91</v>
@@ -10550,11 +10631,11 @@
         <v>3</v>
       </c>
       <c r="T113" s="17" t="s">
-        <v>380</v>
+        <v>509</v>
       </c>
       <c r="U113" s="17" t="str" cm="1">
         <f t="array" ref="U113">_xlfn.REGEXEXTRACT(B113,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10563,16 +10644,16 @@
         <v>Done</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="C114" s="17">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>385</v>
+        <v>222</v>
       </c>
       <c r="F114" s="17" t="s">
         <v>77</v>
@@ -10581,19 +10662,19 @@
         <v>77</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>369</v>
+        <v>115</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>387</v>
+        <v>232</v>
       </c>
       <c r="K114" s="17" t="s">
-        <v>390</v>
+        <v>174</v>
       </c>
       <c r="L114" s="17" t="s">
-        <v>389</v>
+        <v>235</v>
       </c>
       <c r="M114" s="17" t="s">
         <v>77</v>
@@ -10602,26 +10683,26 @@
         <v>77</v>
       </c>
       <c r="O114" s="17" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="P114" s="17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q114" s="17" t="s">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="R114" s="17" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="S114" s="17">
         <v>3</v>
       </c>
       <c r="T114" s="17" t="s">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="U114" s="17" t="str" cm="1">
         <f t="array" ref="U114">_xlfn.REGEXEXTRACT(B114,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10630,16 +10711,16 @@
         <v>Done</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="C115" s="17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>362</v>
+        <v>471</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>168</v>
+        <v>385</v>
       </c>
       <c r="F115" s="17" t="s">
         <v>77</v>
@@ -10651,16 +10732,16 @@
         <v>368</v>
       </c>
       <c r="I115" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="J115" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J115" s="17" t="s">
+      <c r="K115" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="K115" s="17" t="s">
+      <c r="L115" s="17" t="s">
         <v>328</v>
-      </c>
-      <c r="L115" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="M115" s="17" t="s">
         <v>77</v>
@@ -10672,10 +10753,10 @@
         <v>333</v>
       </c>
       <c r="P115" s="17" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="Q115" s="17" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="R115" s="17" t="s">
         <v>91</v>
@@ -10684,11 +10765,11 @@
         <v>3</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>364</v>
+        <v>473</v>
       </c>
       <c r="U115" s="17" t="str" cm="1">
         <f t="array" ref="U115">_xlfn.REGEXEXTRACT(B115,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10697,16 +10778,16 @@
         <v>Done</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="C116" s="17">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>132</v>
+        <v>435</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>447</v>
+        <v>168</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>77</v>
@@ -10715,34 +10796,34 @@
         <v>77</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
       <c r="I116" s="17" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>342</v>
+        <v>121</v>
       </c>
       <c r="K116" s="17" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L116" s="17" t="s">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="M116" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="N116" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O116" s="17" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="P116" s="17" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="Q116" s="17" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="R116" s="17" t="s">
         <v>91</v>
@@ -10751,50 +10832,50 @@
         <v>3</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="U116" s="17" t="str" cm="1">
         <f t="array" ref="U116">_xlfn.REGEXEXTRACT(B116,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="C117" s="17">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>228</v>
+        <v>413</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>226</v>
+        <v>414</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="G117" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>117</v>
+        <v>368</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>256</v>
+        <v>121</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="K117" s="17" t="s">
-        <v>259</v>
+        <v>418</v>
       </c>
       <c r="L117" s="17" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="M117" s="17" t="s">
         <v>77</v>
@@ -10803,13 +10884,13 @@
         <v>77</v>
       </c>
       <c r="O117" s="17" t="s">
-        <v>255</v>
+        <v>416</v>
       </c>
       <c r="P117" s="17" t="s">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="Q117" s="17" t="s">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="R117" s="17" t="s">
         <v>91</v>
@@ -10818,62 +10899,62 @@
         <v>3</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>258</v>
+        <v>417</v>
       </c>
       <c r="U117" s="17" t="str" cm="1">
         <f t="array" ref="U117">_xlfn.REGEXEXTRACT(B117,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C118" s="17">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>353</v>
+        <v>228</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="G118" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>154</v>
+        <v>398</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>118</v>
+        <v>399</v>
       </c>
       <c r="K118" s="17" t="s">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="L118" s="17" t="s">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="M118" s="17" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="N118" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O118" s="17" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="P118" s="17" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Q118" s="17" t="s">
         <v>77</v>
@@ -10885,7 +10966,7 @@
         <v>3</v>
       </c>
       <c r="T118" s="17" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="U118" s="17" t="str" cm="1">
         <f t="array" ref="U118">_xlfn.REGEXEXTRACT(B118,"(?&lt;=//)[^/]+")</f>
@@ -10898,52 +10979,52 @@
         <v>Done</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>313</v>
+        <v>74</v>
       </c>
       <c r="C119" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="G119" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K119" s="17" t="s">
-        <v>390</v>
+        <v>162</v>
       </c>
       <c r="L119" s="17" t="s">
-        <v>267</v>
+        <v>381</v>
       </c>
       <c r="M119" s="17" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="N119" s="17" t="s">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="O119" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="P119" s="17" t="s">
-        <v>128</v>
+        <v>196</v>
+      </c>
+      <c r="P119" s="17">
+        <v>69</v>
       </c>
       <c r="Q119" s="17" t="s">
-        <v>334</v>
+        <v>138</v>
       </c>
       <c r="R119" s="17" t="s">
         <v>91</v>
@@ -10952,29 +11033,29 @@
         <v>3</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="U119" s="17" t="str" cm="1">
         <f t="array" ref="U119">_xlfn.REGEXEXTRACT(B119,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C120" s="17">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>110</v>
+        <v>384</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="F120" s="17" t="s">
         <v>77</v>
@@ -10983,19 +11064,19 @@
         <v>77</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>116</v>
+        <v>369</v>
       </c>
       <c r="I120" s="17" t="s">
         <v>101</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>112</v>
+        <v>387</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="L120" s="17" t="s">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="M120" s="17" t="s">
         <v>77</v>
@@ -11004,13 +11085,13 @@
         <v>77</v>
       </c>
       <c r="O120" s="17" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="P120" s="17" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="Q120" s="17" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="R120" s="17" t="s">
         <v>91</v>
@@ -11019,29 +11100,29 @@
         <v>3</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>113</v>
+        <v>386</v>
       </c>
       <c r="U120" s="17" t="str" cm="1">
         <f t="array" ref="U120">_xlfn.REGEXEXTRACT(B120,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>765</v>
+        <v>2</v>
       </c>
       <c r="C121" s="17">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>731</v>
+        <v>362</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>731</v>
+        <v>168</v>
       </c>
       <c r="F121" s="17" t="s">
         <v>77</v>
@@ -11050,16 +11131,16 @@
         <v>77</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>193</v>
+        <v>368</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>738</v>
+        <v>121</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="K121" s="17" t="s">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="L121" s="17" t="s">
         <v>77</v>
@@ -11071,44 +11152,44 @@
         <v>77</v>
       </c>
       <c r="O121" s="17" t="s">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="P121" s="17" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="Q121" s="17" t="s">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="R121" s="17" t="s">
-        <v>778</v>
+        <v>91</v>
       </c>
       <c r="S121" s="17">
         <v>3</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>779</v>
+        <v>364</v>
       </c>
       <c r="U121" s="17" t="str" cm="1">
         <f t="array" ref="U121">_xlfn.REGEXEXTRACT(B121,"(?&lt;=//)[^/]+")</f>
-        <v>www.eporner.com</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>727</v>
+        <v>283</v>
       </c>
       <c r="C122" s="17">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>729</v>
+        <v>447</v>
       </c>
       <c r="F122" s="17" t="s">
         <v>77</v>
@@ -11117,31 +11198,31 @@
         <v>77</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>121</v>
+        <v>342</v>
       </c>
       <c r="K122" s="17" t="s">
-        <v>776</v>
+        <v>135</v>
       </c>
       <c r="L122" s="17" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="M122" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N122" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O122" s="17" t="s">
-        <v>189</v>
+        <v>358</v>
       </c>
       <c r="P122" s="17" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="Q122" s="17" t="s">
         <v>77</v>
@@ -11153,11 +11234,11 @@
         <v>3</v>
       </c>
       <c r="T122" s="17" t="s">
-        <v>777</v>
+        <v>359</v>
       </c>
       <c r="U122" s="17" t="str" cm="1">
         <f t="array" ref="U122">_xlfn.REGEXEXTRACT(B122,"(?&lt;=//)[^/]+")</f>
-        <v>www.porntopedia.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -11166,52 +11247,52 @@
         <v>Done</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="C123" s="17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>798</v>
+        <v>228</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>348</v>
+        <v>226</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="G123" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>614</v>
+        <v>256</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="K123" s="17" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="L123" s="17" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="N123" s="17" t="s">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="O123" s="17" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="P123" s="17" t="s">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="Q123" s="17" t="s">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="R123" s="17" t="s">
         <v>91</v>
@@ -11220,11 +11301,11 @@
         <v>3</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>615</v>
+        <v>258</v>
       </c>
       <c r="U123" s="17" t="str" cm="1">
         <f t="array" ref="U123">_xlfn.REGEXEXTRACT(B123,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -11233,16 +11314,16 @@
         <v>Done</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="C124" s="17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>798</v>
+        <v>349</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="F124" s="17" t="s">
         <v>77</v>
@@ -11254,31 +11335,31 @@
         <v>116</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>614</v>
+        <v>154</v>
       </c>
       <c r="J124" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K124" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="K124" s="17" t="s">
-        <v>174</v>
-      </c>
       <c r="L124" s="17" t="s">
-        <v>616</v>
+        <v>354</v>
       </c>
       <c r="M124" s="17" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="N124" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O124" s="17" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="P124" s="17" t="s">
-        <v>552</v>
+        <v>77</v>
       </c>
       <c r="Q124" s="17" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="R124" s="17" t="s">
         <v>91</v>
@@ -11287,29 +11368,29 @@
         <v>3</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>617</v>
+        <v>355</v>
       </c>
       <c r="U124" s="17" t="str" cm="1">
         <f t="array" ref="U124">_xlfn.REGEXEXTRACT(B124,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C125" s="17">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>598</v>
+        <v>331</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>604</v>
+        <v>332</v>
       </c>
       <c r="F125" s="17" t="s">
         <v>77</v>
@@ -11321,62 +11402,62 @@
         <v>368</v>
       </c>
       <c r="I125" s="17" t="s">
-        <v>340</v>
+        <v>101</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>599</v>
+        <v>121</v>
       </c>
       <c r="K125" s="17" t="s">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="L125" s="17" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="N125" s="17" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="O125" s="17" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="P125" s="17" t="s">
-        <v>388</v>
+        <v>128</v>
       </c>
       <c r="Q125" s="17" t="s">
-        <v>602</v>
+        <v>334</v>
       </c>
       <c r="R125" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S125" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>601</v>
+        <v>337</v>
       </c>
       <c r="U125" s="17" t="str" cm="1">
         <f t="array" ref="U125">_xlfn.REGEXEXTRACT(B125,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C126" s="17">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>581</v>
+        <v>446</v>
       </c>
       <c r="F126" s="17" t="s">
         <v>77</v>
@@ -11388,83 +11469,83 @@
         <v>116</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>102</v>
+        <v>614</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="K126" s="17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L126" s="17" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="M126" s="17" t="s">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="N126" s="17" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="O126" s="17" t="s">
-        <v>438</v>
+        <v>108</v>
       </c>
       <c r="P126" s="17" t="s">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="Q126" s="17" t="s">
-        <v>584</v>
+        <v>77</v>
       </c>
       <c r="R126" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S126" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T126" s="17" t="s">
-        <v>582</v>
+        <v>113</v>
       </c>
       <c r="U126" s="17" t="str" cm="1">
         <f t="array" ref="U126">_xlfn.REGEXEXTRACT(B126,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>anyporn.com</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>311</v>
+        <v>765</v>
       </c>
       <c r="C127" s="17">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>494</v>
+        <v>731</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>455</v>
+        <v>731</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>577</v>
+        <v>77</v>
       </c>
       <c r="G127" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>478</v>
+        <v>738</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="L127" s="17" t="s">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="M127" s="17" t="s">
         <v>77</v>
@@ -11473,93 +11554,93 @@
         <v>77</v>
       </c>
       <c r="O127" s="17" t="s">
-        <v>586</v>
+        <v>438</v>
       </c>
       <c r="P127" s="17" t="s">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="Q127" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="R127" s="17" t="s">
-        <v>91</v>
+        <v>778</v>
       </c>
       <c r="S127" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T127" s="17" t="s">
-        <v>587</v>
+        <v>779</v>
       </c>
       <c r="U127" s="17" t="str" cm="1">
         <f t="array" ref="U127">_xlfn.REGEXEXTRACT(B127,"(?&lt;=//)[^/]+")</f>
-        <v>www.omg.xxx</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.eporner.com</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>288</v>
+        <v>727</v>
       </c>
       <c r="C128" s="17">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>516</v>
+        <v>729</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>517</v>
+        <v>77</v>
       </c>
       <c r="G128" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="I128" s="17" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>518</v>
+        <v>121</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>119</v>
+        <v>776</v>
       </c>
       <c r="L128" s="17" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="M128" s="17" t="s">
-        <v>520</v>
+        <v>77</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="O128" s="17" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="P128" s="17" t="s">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="Q128" s="17" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="R128" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S128" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>519</v>
+        <v>777</v>
       </c>
       <c r="U128" s="17" t="str" cm="1">
         <f t="array" ref="U128">_xlfn.REGEXEXTRACT(B128,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>www.porntopedia.com</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -11568,16 +11649,16 @@
         <v>Done</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C129" s="17">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>148</v>
+        <v>798</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="F129" s="17" t="s">
         <v>77</v>
@@ -11586,47 +11667,47 @@
         <v>77</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I129" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K129" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L129" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J129" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="K129" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="L129" s="17" t="s">
-        <v>184</v>
-      </c>
       <c r="M129" s="17" t="s">
-        <v>482</v>
+        <v>121</v>
       </c>
       <c r="N129" s="17" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="O129" s="17" t="s">
         <v>395</v>
       </c>
       <c r="P129" s="17" t="s">
-        <v>388</v>
+        <v>493</v>
       </c>
       <c r="Q129" s="17" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="R129" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S129" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>480</v>
+        <v>615</v>
       </c>
       <c r="U129" s="17" t="str" cm="1">
         <f t="array" ref="U129">_xlfn.REGEXEXTRACT(B129,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -11635,13 +11716,13 @@
         <v>Done</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C130" s="17">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>132</v>
+        <v>798</v>
       </c>
       <c r="E130" s="17" t="s">
         <v>402</v>
@@ -11656,98 +11737,98 @@
         <v>116</v>
       </c>
       <c r="I130" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="J130" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="J130" s="17" t="s">
-        <v>403</v>
-      </c>
       <c r="K130" s="17" t="s">
-        <v>390</v>
+        <v>174</v>
       </c>
       <c r="L130" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="M130" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N130" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M130" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N130" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="O130" s="17" t="s">
-        <v>571</v>
+        <v>189</v>
       </c>
       <c r="P130" s="17" t="s">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="Q130" s="17" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="R130" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S130" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>404</v>
+        <v>617</v>
       </c>
       <c r="U130" s="17" t="str" cm="1">
         <f t="array" ref="U130">_xlfn.REGEXEXTRACT(B130,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C131" s="17">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>228</v>
+        <v>598</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>228</v>
+        <v>604</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="G131" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>117</v>
+        <v>368</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>356</v>
+        <v>599</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>135</v>
+        <v>600</v>
       </c>
       <c r="L131" s="17" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="M131" s="17" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="N131" s="17" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="O131" s="17" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="P131" s="17" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Q131" s="17" t="s">
-        <v>77</v>
+        <v>602</v>
       </c>
       <c r="R131" s="17" t="s">
         <v>91</v>
@@ -11756,65 +11837,65 @@
         <v>2</v>
       </c>
       <c r="T131" s="17" t="s">
-        <v>357</v>
+        <v>601</v>
       </c>
       <c r="U131" s="17" t="str" cm="1">
         <f t="array" ref="U131">_xlfn.REGEXEXTRACT(B131,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.peekvids.com</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="C132" s="17">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>731</v>
+        <v>580</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>277</v>
+        <v>581</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="G132" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>648</v>
+        <v>102</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="K132" s="17" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="L132" s="17" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="M132" s="17" t="s">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="N132" s="17" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="O132" s="17" t="s">
-        <v>280</v>
+        <v>438</v>
       </c>
       <c r="P132" s="17" t="s">
-        <v>189</v>
+        <v>416</v>
       </c>
       <c r="Q132" s="17" t="s">
-        <v>77</v>
+        <v>584</v>
       </c>
       <c r="R132" s="17" t="s">
         <v>91</v>
@@ -11823,65 +11904,65 @@
         <v>2</v>
       </c>
       <c r="T132" s="17" t="s">
-        <v>733</v>
+        <v>582</v>
       </c>
       <c r="U132" s="17" t="str" cm="1">
         <f t="array" ref="U132">_xlfn.REGEXEXTRACT(B132,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="C133" s="17">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>269</v>
+        <v>494</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>270</v>
+        <v>455</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>77</v>
+        <v>577</v>
       </c>
       <c r="G133" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="K133" s="17" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="L133" s="17" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="M133" s="17" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="N133" s="17" t="s">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="O133" s="17" t="s">
-        <v>189</v>
+        <v>586</v>
       </c>
       <c r="P133" s="17" t="s">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="Q133" s="17" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="R133" s="17" t="s">
         <v>91</v>
@@ -11890,32 +11971,32 @@
         <v>2</v>
       </c>
       <c r="T133" s="17" t="s">
-        <v>732</v>
+        <v>587</v>
       </c>
       <c r="U133" s="17" t="str" cm="1">
         <f t="array" ref="U133">_xlfn.REGEXEXTRACT(B133,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.omg.xxx</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Done</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C134" s="17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>228</v>
+        <v>516</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="G134" s="17" t="s">
         <v>77</v>
@@ -11924,65 +12005,65 @@
         <v>117</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="K134" s="17" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="L134" s="17" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="M134" s="17" t="s">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N134" s="17" t="s">
-        <v>77</v>
+        <v>521</v>
       </c>
       <c r="O134" s="17" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="P134" s="17" t="s">
-        <v>189</v>
+        <v>493</v>
       </c>
       <c r="Q134" s="17" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="R134" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S134" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T134" s="17" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="U134" s="17" t="str" cm="1">
         <f t="array" ref="U134">_xlfn.REGEXEXTRACT(B134,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>m.hqporner.com</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="str">
-        <f t="shared" ref="A135:A140" si="4">IF(ISBLANK(R135)=TRUE,"Pending","Done")</f>
+        <f t="shared" ref="A135:A141" si="4">IF(ISBLANK(R135)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="C135" s="17">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="G135" s="17" t="s">
         <v>77</v>
@@ -11991,40 +12072,40 @@
         <v>117</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="K135" s="17" t="s">
-        <v>147</v>
+        <v>481</v>
       </c>
       <c r="L135" s="17" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="M135" s="17" t="s">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="N135" s="17" t="s">
-        <v>77</v>
+        <v>483</v>
       </c>
       <c r="O135" s="17" t="s">
-        <v>229</v>
+        <v>395</v>
       </c>
       <c r="P135" s="17" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Q135" s="17" t="s">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="R135" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S135" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>231</v>
+        <v>480</v>
       </c>
       <c r="U135" s="17" t="str" cm="1">
         <f t="array" ref="U135">_xlfn.REGEXEXTRACT(B135,"(?&lt;=//)[^/]+")</f>
@@ -12037,16 +12118,16 @@
         <v>Done</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="C136" s="17">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>344</v>
+        <v>132</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>168</v>
+        <v>402</v>
       </c>
       <c r="F136" s="17" t="s">
         <v>77</v>
@@ -12055,19 +12136,19 @@
         <v>77</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>368</v>
+        <v>116</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="K136" s="17" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="L136" s="17" t="s">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="M136" s="17" t="s">
         <v>77</v>
@@ -12076,10 +12157,10 @@
         <v>77</v>
       </c>
       <c r="O136" s="17" t="s">
-        <v>343</v>
+        <v>571</v>
       </c>
       <c r="P136" s="17" t="s">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Q136" s="17" t="s">
         <v>77</v>
@@ -12088,133 +12169,551 @@
         <v>91</v>
       </c>
       <c r="S136" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T136" s="17" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="U136" s="17" t="str" cm="1">
         <f t="array" ref="U136">_xlfn.REGEXEXTRACT(B136,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>Pending</v>
-      </c>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
-      <c r="R137" s="17"/>
-      <c r="S137" s="17"/>
-      <c r="T137" s="17"/>
-      <c r="U137" s="17"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+        <v>Done</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" s="17">
+        <v>23</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I137" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="K137" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L137" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M137" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N137" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O137" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="P137" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q137" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R137" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S137" s="17">
+        <v>2</v>
+      </c>
+      <c r="T137" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="U137" s="17" t="str" cm="1">
+        <f t="array" ref="U137">_xlfn.REGEXEXTRACT(B137,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>Pending</v>
-      </c>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
-      <c r="R138" s="17"/>
-      <c r="S138" s="17"/>
-      <c r="T138" s="17"/>
-      <c r="U138" s="17"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+        <v>Done</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" s="17">
+        <v>18</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="K138" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L138" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M138" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N138" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O138" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="P138" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q138" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R138" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S138" s="17">
+        <v>2</v>
+      </c>
+      <c r="T138" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="U138" s="17" t="str" cm="1">
+        <f t="array" ref="U138">_xlfn.REGEXEXTRACT(B138,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>Pending</v>
-      </c>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
-      <c r="I139" s="17"/>
-      <c r="J139" s="17"/>
-      <c r="K139" s="17"/>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
-      <c r="R139" s="17"/>
-      <c r="S139" s="17"/>
-      <c r="T139" s="17"/>
-      <c r="U139" s="17"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+        <v>Done</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C139" s="17">
+        <v>14</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="K139" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L139" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M139" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="N139" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="O139" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="P139" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q139" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R139" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S139" s="17">
+        <v>2</v>
+      </c>
+      <c r="T139" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="U139" s="17" t="str" cm="1">
+        <f t="array" ref="U139">_xlfn.REGEXEXTRACT(B139,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="str">
         <f t="shared" si="4"/>
+        <v>Done</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" s="17">
+        <v>48</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K140" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L140" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M140" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N140" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O140" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="P140" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q140" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R140" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S140" s="17">
+        <v>1</v>
+      </c>
+      <c r="T140" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="U140" s="17" t="str" cm="1">
+        <f t="array" ref="U140">_xlfn.REGEXEXTRACT(B140,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>Done</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" s="17">
+        <v>34</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I141" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="K141" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L141" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M141" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N141" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O141" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="P141" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q141" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R141" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S141" s="17">
+        <v>1</v>
+      </c>
+      <c r="T141" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U141" s="17" t="str" cm="1">
+        <f t="array" ref="U141">_xlfn.REGEXEXTRACT(B141,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="str">
+        <f t="shared" ref="A142:A144" si="5">IF(ISBLANK(R142)=TRUE,"Pending","Done")</f>
         <v>Pending</v>
       </c>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
-      <c r="R140" s="17"/>
-      <c r="S140" s="17"/>
-      <c r="T140" s="17"/>
-      <c r="U140" s="17"/>
+      <c r="B142" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="C142" s="17">
+        <v>46</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
+      <c r="R142" s="17"/>
+      <c r="S142" s="17"/>
+      <c r="T142" s="17"/>
+      <c r="U142" s="17"/>
+    </row>
+    <row r="143" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Pending</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="C143" s="17">
+        <v>70</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
+      <c r="R143" s="17"/>
+      <c r="S143" s="17"/>
+      <c r="T143" s="17"/>
+      <c r="U143" s="17"/>
+    </row>
+    <row r="144" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Pending</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="C144" s="17">
+        <v>54</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
+      <c r="R144" s="17"/>
+      <c r="S144" s="17"/>
+      <c r="T144" s="17"/>
+      <c r="U144" s="17"/>
+    </row>
+    <row r="145" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="17" t="str">
+        <f>IF(ISBLANK(R145)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="17">
+        <v>11</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="I145" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J145" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="K145" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="L145" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="M145" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N145" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O145" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="P145" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q145" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R145" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S145" s="17">
+        <v>1</v>
+      </c>
+      <c r="T145" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="U145" s="17" t="str" cm="1">
+        <f t="array" ref="U145">_xlfn.REGEXEXTRACT(B145,"(?&lt;=//)[^/]+")</f>
+        <v>www.pornhub.com</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U140" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
+  <autoFilter ref="A1:U145" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
     <filterColumn colId="0">
       <filters>
         <filter val="Pending"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U140">
-      <sortCondition descending="1" ref="S1:S140"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U145">
+      <sortCondition descending="1" ref="S1:S145"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:U141">
-    <sortCondition ref="C1:C141"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:U146">
+    <sortCondition ref="C1:C146"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:U125 A126:XFD1048576">

--- a/data/master_links.xlsx
+++ b/data/master_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BEE9C5-2D72-4DC8-8C49-DDBAEDA4E68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1CC8F0-64DF-467E-8575-1A9FA94CFB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2145" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_links" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="bdsmvilla" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main_links!$A$1:$U$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main_links!$A$1:$U$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3045,11 +3045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-  <dimension ref="A1:U144"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8030,16 +8030,16 @@
         <v>Done</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>68</v>
+        <v>822</v>
       </c>
       <c r="C75" s="17">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>730</v>
+        <v>190</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>77</v>
@@ -8048,47 +8048,47 @@
         <v>77</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>647</v>
+        <v>153</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>651</v>
+        <v>134</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>100</v>
+        <v>523</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>485</v>
+        <v>95</v>
       </c>
       <c r="M75" s="17" t="s">
-        <v>683</v>
+        <v>272</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>684</v>
+        <v>400</v>
       </c>
       <c r="O75" s="17" t="s">
         <v>188</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>685</v>
+        <v>127</v>
       </c>
       <c r="Q75" s="17" t="s">
-        <v>686</v>
+        <v>77</v>
       </c>
       <c r="R75" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S75" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>682</v>
+        <v>827</v>
       </c>
       <c r="U75" s="17" t="str" cm="1">
         <f t="array" ref="U75">_xlfn.REGEXEXTRACT(B75,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
+        <v>www.porntry.com</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8097,52 +8097,52 @@
         <v>Done</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="17">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>673</v>
+        <v>730</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>675</v>
+        <v>77</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
       <c r="J76" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L76" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="K76" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L76" s="17" t="s">
-        <v>679</v>
-      </c>
       <c r="M76" s="17" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="O76" s="17" t="s">
         <v>188</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="Q76" s="17" t="s">
-        <v>510</v>
+        <v>686</v>
       </c>
       <c r="R76" s="17" t="s">
         <v>91</v>
@@ -8151,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="T76" s="17" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="U76" s="17" t="str" cm="1">
         <f t="array" ref="U76">_xlfn.REGEXEXTRACT(B76,"(?&lt;=//)[^/]+")</f>
@@ -8164,19 +8164,19 @@
         <v>Done</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="C77" s="17">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>260</v>
+        <v>673</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>454</v>
+        <v>674</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>460</v>
+        <v>675</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>77</v>
@@ -8185,31 +8185,31 @@
         <v>117</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>264</v>
+        <v>533</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>129</v>
+        <v>485</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>77</v>
+        <v>679</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>77</v>
+        <v>680</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>77</v>
+        <v>681</v>
       </c>
       <c r="O77" s="17" t="s">
-        <v>583</v>
+        <v>188</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>188</v>
+        <v>639</v>
       </c>
       <c r="Q77" s="17" t="s">
-        <v>195</v>
+        <v>510</v>
       </c>
       <c r="R77" s="17" t="s">
         <v>91</v>
@@ -8218,11 +8218,11 @@
         <v>4</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>265</v>
+        <v>676</v>
       </c>
       <c r="U77" s="17" t="str" cm="1">
         <f t="array" ref="U77">_xlfn.REGEXEXTRACT(B77,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>punishbang.com</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8231,46 +8231,46 @@
         <v>Done</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C78" s="17">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>191</v>
+        <v>454</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M78" s="17" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="N78" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>185</v>
+        <v>583</v>
       </c>
       <c r="P78" s="17" t="s">
         <v>188</v>
@@ -8285,11 +8285,11 @@
         <v>4</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="U78" s="17" t="str" cm="1">
         <f t="array" ref="U78">_xlfn.REGEXEXTRACT(B78,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8298,16 +8298,16 @@
         <v>Done</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="C79" s="17">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>622</v>
+        <v>190</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>623</v>
+        <v>191</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>77</v>
@@ -8316,34 +8316,34 @@
         <v>77</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>367</v>
+        <v>192</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>625</v>
+        <v>193</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>339</v>
+        <v>194</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>485</v>
+        <v>134</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M79" s="17" t="s">
-        <v>628</v>
+        <v>196</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>629</v>
+        <v>77</v>
       </c>
       <c r="O79" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="P79" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="P79" s="17" t="s">
-        <v>626</v>
-      </c>
       <c r="Q79" s="17" t="s">
-        <v>627</v>
+        <v>195</v>
       </c>
       <c r="R79" s="17" t="s">
         <v>91</v>
@@ -8352,65 +8352,65 @@
         <v>4</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>624</v>
+        <v>197</v>
       </c>
       <c r="U79" s="17" t="str" cm="1">
         <f t="array" ref="U79">_xlfn.REGEXEXTRACT(B79,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="str">
         <f>IF(ISBLANK(R80)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C80" s="17">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>320</v>
+        <v>622</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>602</v>
+        <v>77</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>146</v>
+        <v>625</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>134</v>
+        <v>485</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>523</v>
+        <v>120</v>
       </c>
       <c r="M80" s="17" t="s">
-        <v>161</v>
+        <v>628</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>173</v>
+        <v>629</v>
       </c>
       <c r="O80" s="17" t="s">
         <v>188</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>127</v>
+        <v>626</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>583</v>
+        <v>627</v>
       </c>
       <c r="R80" s="17" t="s">
         <v>91</v>
@@ -8419,65 +8419,65 @@
         <v>4</v>
       </c>
       <c r="T80" s="17" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="U80" s="17" t="str" cm="1">
         <f t="array" ref="U80">_xlfn.REGEXEXTRACT(B80,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="str">
         <f>IF(ISBLANK(R81)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="C81" s="17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>452</v>
+        <v>590</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>458</v>
+        <v>602</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="M81" s="17" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="N81" s="17" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="O81" s="17" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="P81" s="17" t="s">
         <v>127</v>
       </c>
       <c r="Q81" s="17" t="s">
-        <v>128</v>
+        <v>583</v>
       </c>
       <c r="R81" s="17" t="s">
         <v>91</v>
@@ -8486,11 +8486,11 @@
         <v>4</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>130</v>
+        <v>595</v>
       </c>
       <c r="U81" s="17" t="str" cm="1">
         <f t="array" ref="U81">_xlfn.REGEXEXTRACT(B81,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8499,19 +8499,19 @@
         <v>Done</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C82" s="17">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>584</v>
+        <v>452</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>577</v>
+        <v>458</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>77</v>
@@ -8520,31 +8520,31 @@
         <v>117</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>587</v>
+        <v>118</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>589</v>
+        <v>119</v>
       </c>
       <c r="L82" s="17" t="s">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="M82" s="17" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="N82" s="17" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="O82" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q82" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="P82" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q82" s="17" t="s">
-        <v>583</v>
       </c>
       <c r="R82" s="17" t="s">
         <v>91</v>
@@ -8553,11 +8553,11 @@
         <v>4</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>588</v>
+        <v>130</v>
       </c>
       <c r="U82" s="17" t="str" cm="1">
         <f t="array" ref="U82">_xlfn.REGEXEXTRACT(B82,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8566,52 +8566,52 @@
         <v>Done</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C83" s="17">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>77</v>
+        <v>577</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>173</v>
+        <v>587</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>463</v>
+        <v>589</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="M83" s="17" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="Q83" s="17" t="s">
-        <v>77</v>
+        <v>583</v>
       </c>
       <c r="R83" s="17" t="s">
         <v>91</v>
@@ -8620,11 +8620,11 @@
         <v>4</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>151</v>
+        <v>588</v>
       </c>
       <c r="U83" s="17" t="str" cm="1">
         <f t="array" ref="U83">_xlfn.REGEXEXTRACT(B83,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8633,16 +8633,16 @@
         <v>Done</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C84" s="17">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>440</v>
+        <v>147</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>77</v>
@@ -8651,34 +8651,34 @@
         <v>77</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>543</v>
+        <v>152</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>398</v>
+        <v>173</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>544</v>
+        <v>463</v>
       </c>
       <c r="L84" s="17" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M84" s="17" t="s">
-        <v>533</v>
+        <v>149</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="O84" s="17">
-        <v>69</v>
+        <v>100</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="P84" s="17" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="Q84" s="17" t="s">
-        <v>547</v>
+        <v>77</v>
       </c>
       <c r="R84" s="17" t="s">
         <v>91</v>
@@ -8687,11 +8687,11 @@
         <v>4</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>545</v>
+        <v>151</v>
       </c>
       <c r="U84" s="17" t="str" cm="1">
         <f t="array" ref="U84">_xlfn.REGEXEXTRACT(B84,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8700,16 +8700,16 @@
         <v>Done</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C85" s="17">
         <v>53</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>148</v>
+        <v>440</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>542</v>
+        <v>215</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>77</v>
@@ -8718,34 +8718,34 @@
         <v>77</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>353</v>
+        <v>543</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>402</v>
+        <v>544</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>484</v>
+        <v>134</v>
       </c>
       <c r="M85" s="17" t="s">
-        <v>100</v>
+        <v>533</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="O85" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
+      </c>
+      <c r="O85" s="17">
+        <v>69</v>
       </c>
       <c r="P85" s="17" t="s">
-        <v>549</v>
+        <v>228</v>
       </c>
       <c r="Q85" s="17" t="s">
-        <v>137</v>
+        <v>547</v>
       </c>
       <c r="R85" s="17" t="s">
         <v>91</v>
@@ -8754,7 +8754,7 @@
         <v>4</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="U85" s="17" t="str" cm="1">
         <f t="array" ref="U85">_xlfn.REGEXEXTRACT(B85,"(?&lt;=//)[^/]+")</f>
@@ -8767,16 +8767,16 @@
         <v>Done</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C86" s="17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>348</v>
+        <v>148</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>730</v>
+        <v>542</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>77</v>
@@ -8788,16 +8788,16 @@
         <v>116</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>118</v>
+        <v>484</v>
       </c>
       <c r="M86" s="17" t="s">
         <v>100</v>
@@ -8806,13 +8806,13 @@
         <v>153</v>
       </c>
       <c r="O86" s="17" t="s">
-        <v>148</v>
+        <v>548</v>
       </c>
       <c r="P86" s="17" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="Q86" s="17" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="R86" s="17" t="s">
         <v>91</v>
@@ -8821,29 +8821,29 @@
         <v>4</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="U86" s="17" t="str" cm="1">
         <f t="array" ref="U86">_xlfn.REGEXEXTRACT(B86,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.party</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="str">
         <f>IF(ISBLANK(R87)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C87" s="17">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>147</v>
+        <v>348</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>496</v>
+        <v>730</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>77</v>
@@ -8855,31 +8855,31 @@
         <v>116</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>464</v>
+        <v>327</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>463</v>
+        <v>134</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>498</v>
+        <v>118</v>
       </c>
       <c r="M87" s="17" t="s">
-        <v>499</v>
+        <v>100</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>485</v>
+        <v>153</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>497</v>
+        <v>148</v>
       </c>
       <c r="P87" s="17" t="s">
-        <v>228</v>
+        <v>535</v>
       </c>
       <c r="Q87" s="17" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="R87" s="17" t="s">
         <v>91</v>
@@ -8888,29 +8888,29 @@
         <v>4</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="U87" s="17" t="str" cm="1">
         <f t="array" ref="U87">_xlfn.REGEXEXTRACT(B87,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.party</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="str">
         <f>IF(ISBLANK(R88)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C88" s="17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>77</v>
@@ -8922,31 +8922,31 @@
         <v>116</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="J88" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K88" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="L88" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="M88" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="N88" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="K88" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="L88" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M88" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="N88" s="17" t="s">
-        <v>487</v>
-      </c>
       <c r="O88" s="17" t="s">
-        <v>188</v>
+        <v>497</v>
       </c>
       <c r="P88" s="17" t="s">
-        <v>486</v>
+        <v>228</v>
       </c>
       <c r="Q88" s="17" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="R88" s="17" t="s">
         <v>91</v>
@@ -8955,7 +8955,7 @@
         <v>4</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="U88" s="17" t="str" cm="1">
         <f t="array" ref="U88">_xlfn.REGEXEXTRACT(B88,"(?&lt;=//)[^/]+")</f>
@@ -8968,16 +8968,16 @@
         <v>Done</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C89" s="17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>77</v>
@@ -8989,31 +8989,31 @@
         <v>116</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>353</v>
+        <v>112</v>
       </c>
       <c r="L89" s="17" t="s">
-        <v>466</v>
+        <v>134</v>
       </c>
       <c r="M89" s="17" t="s">
-        <v>469</v>
+        <v>149</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="O89" s="17" t="s">
-        <v>465</v>
+        <v>188</v>
       </c>
       <c r="P89" s="17" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="Q89" s="17" t="s">
-        <v>437</v>
+        <v>148</v>
       </c>
       <c r="R89" s="17" t="s">
         <v>91</v>
@@ -9022,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="T89" s="17" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="U89" s="17" t="str" cm="1">
         <f t="array" ref="U89">_xlfn.REGEXEXTRACT(B89,"(?&lt;=//)[^/]+")</f>
@@ -9035,52 +9035,52 @@
         <v>Done</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="C90" s="17">
         <v>44</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>730</v>
+        <v>147</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>474</v>
+        <v>116</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>159</v>
+        <v>463</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>102</v>
+        <v>464</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>477</v>
+        <v>353</v>
       </c>
       <c r="L90" s="17" t="s">
-        <v>100</v>
+        <v>466</v>
       </c>
       <c r="M90" s="17" t="s">
-        <v>129</v>
+        <v>469</v>
       </c>
       <c r="N90" s="17" t="s">
-        <v>119</v>
+        <v>467</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>188</v>
+        <v>465</v>
       </c>
       <c r="P90" s="17" t="s">
-        <v>126</v>
+        <v>432</v>
       </c>
       <c r="Q90" s="17" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="R90" s="17" t="s">
         <v>91</v>
@@ -9089,65 +9089,65 @@
         <v>4</v>
       </c>
       <c r="T90" s="17" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="U90" s="17" t="str" cm="1">
         <f t="array" ref="U90">_xlfn.REGEXEXTRACT(B90,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="str">
         <f>IF(ISBLANK(R91)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C91" s="17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>131</v>
+        <v>730</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>116</v>
+        <v>474</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>430</v>
+        <v>102</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="L91" s="17" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="O91" s="17" t="s">
-        <v>431</v>
+        <v>188</v>
       </c>
       <c r="P91" s="17" t="s">
-        <v>429</v>
+        <v>126</v>
       </c>
       <c r="Q91" s="17" t="s">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="R91" s="17" t="s">
         <v>91</v>
@@ -9156,29 +9156,29 @@
         <v>4</v>
       </c>
       <c r="T91" s="17" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="U91" s="17" t="str" cm="1">
         <f t="array" ref="U91">_xlfn.REGEXEXTRACT(B91,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="str">
         <f>IF(ISBLANK(R92)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="C92" s="17">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>215</v>
+        <v>428</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>77</v>
@@ -9190,28 +9190,28 @@
         <v>116</v>
       </c>
       <c r="I92" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="K92" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="J92" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="L92" s="17" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="M92" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="N92" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>164</v>
+        <v>431</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>166</v>
+        <v>429</v>
       </c>
       <c r="Q92" s="17" t="s">
         <v>77</v>
@@ -9223,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>319</v>
+        <v>433</v>
       </c>
       <c r="U92" s="17" t="str" cm="1">
         <f t="array" ref="U92">_xlfn.REGEXEXTRACT(B92,"(?&lt;=//)[^/]+")</f>
@@ -9236,16 +9236,16 @@
         <v>Done</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>313</v>
+        <v>47</v>
       </c>
       <c r="C93" s="17">
         <v>36</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>361</v>
+        <v>163</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>408</v>
+        <v>215</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>77</v>
@@ -9254,34 +9254,34 @@
         <v>77</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>410</v>
+        <v>134</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>411</v>
+        <v>153</v>
       </c>
       <c r="K93" s="17" t="s">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="L93" s="17" t="s">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c r="M93" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N93" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O93" s="17" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="P93" s="17" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="Q93" s="17" t="s">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="R93" s="17" t="s">
         <v>91</v>
@@ -9290,29 +9290,29 @@
         <v>4</v>
       </c>
       <c r="T93" s="17" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="U93" s="17" t="str" cm="1">
         <f t="array" ref="U93">_xlfn.REGEXEXTRACT(B93,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="str">
         <f>IF(ISBLANK(R94)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C94" s="17">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>77</v>
@@ -9321,34 +9321,34 @@
         <v>77</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>101</v>
+        <v>410</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M94" s="17" t="s">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="N94" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O94" s="17" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="P94" s="17" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="Q94" s="17" t="s">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="R94" s="17" t="s">
         <v>91</v>
@@ -9357,62 +9357,62 @@
         <v>4</v>
       </c>
       <c r="T94" s="17" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="U94" s="17" t="str" cm="1">
         <f t="array" ref="U94">_xlfn.REGEXEXTRACT(B94,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="str">
         <f>IF(ISBLANK(R95)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C95" s="17">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>134</v>
+        <v>392</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>389</v>
+        <v>292</v>
       </c>
       <c r="M95" s="17" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>482</v>
+        <v>77</v>
       </c>
       <c r="O95" s="17" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="P95" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="Q95" s="17" t="s">
         <v>77</v>
@@ -9424,11 +9424,11 @@
         <v>4</v>
       </c>
       <c r="T95" s="17" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="U95" s="17" t="str" cm="1">
         <f t="array" ref="U95">_xlfn.REGEXEXTRACT(B95,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>txxx.me</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9437,52 +9437,52 @@
         <v>Done</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>727</v>
+        <v>283</v>
       </c>
       <c r="C96" s="17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>729</v>
+        <v>446</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>788</v>
+        <v>149</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>134</v>
+        <v>389</v>
       </c>
       <c r="M96" s="17" t="s">
-        <v>789</v>
+        <v>100</v>
       </c>
       <c r="N96" s="17" t="s">
-        <v>750</v>
+        <v>482</v>
       </c>
       <c r="O96" s="17" t="s">
-        <v>741</v>
+        <v>228</v>
       </c>
       <c r="P96" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q96" s="17" t="s">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="R96" s="17" t="s">
         <v>91</v>
@@ -9491,7 +9491,7 @@
         <v>4</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>790</v>
+        <v>360</v>
       </c>
       <c r="U96" s="17" t="str" cm="1">
         <f t="array" ref="U96">_xlfn.REGEXEXTRACT(B96,"(?&lt;=//)[^/]+")</f>
@@ -9504,16 +9504,16 @@
         <v>Done</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>308</v>
+        <v>727</v>
       </c>
       <c r="C97" s="17">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>347</v>
+        <v>729</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>77</v>
@@ -9522,34 +9522,34 @@
         <v>77</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>153</v>
+        <v>788</v>
       </c>
       <c r="J97" s="17" t="s">
         <v>118</v>
       </c>
       <c r="K97" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="L97" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L97" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="M97" s="17" t="s">
-        <v>77</v>
+        <v>789</v>
       </c>
       <c r="N97" s="17" t="s">
-        <v>77</v>
+        <v>750</v>
       </c>
       <c r="O97" s="17" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="P97" s="17" t="s">
-        <v>350</v>
+        <v>127</v>
       </c>
       <c r="Q97" s="17" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="R97" s="17" t="s">
         <v>91</v>
@@ -9558,29 +9558,29 @@
         <v>4</v>
       </c>
       <c r="T97" s="17" t="s">
-        <v>351</v>
+        <v>790</v>
       </c>
       <c r="U97" s="17" t="str" cm="1">
         <f t="array" ref="U97">_xlfn.REGEXEXTRACT(B97,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="str">
         <f>IF(ISBLANK(R98)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="C98" s="17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>348</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>77</v>
@@ -9592,28 +9592,28 @@
         <v>116</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>389</v>
+        <v>118</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L98" s="17" t="s">
-        <v>640</v>
+        <v>100</v>
       </c>
       <c r="M98" s="17" t="s">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="N98" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O98" s="17" t="s">
-        <v>432</v>
+        <v>148</v>
       </c>
       <c r="P98" s="17" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="Q98" s="17" t="s">
         <v>77</v>
@@ -9625,29 +9625,29 @@
         <v>4</v>
       </c>
       <c r="T98" s="17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="U98" s="17" t="str" cm="1">
         <f t="array" ref="U98">_xlfn.REGEXEXTRACT(B98,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="str">
         <f>IF(ISBLANK(R99)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>315</v>
+        <v>4</v>
       </c>
       <c r="C99" s="17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>77</v>
@@ -9656,34 +9656,34 @@
         <v>77</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="I99" s="17" t="s">
         <v>120</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>389</v>
+        <v>161</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>77</v>
+        <v>640</v>
       </c>
       <c r="M99" s="17" t="s">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="N99" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O99" s="17">
-        <v>69</v>
-      </c>
-      <c r="P99" s="17">
-        <v>619</v>
+      <c r="O99" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="P99" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="Q99" s="17" t="s">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="R99" s="17" t="s">
         <v>91</v>
@@ -9692,11 +9692,11 @@
         <v>4</v>
       </c>
       <c r="T99" s="17" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="U99" s="17" t="str" cm="1">
         <f t="array" ref="U99">_xlfn.REGEXEXTRACT(B99,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9705,16 +9705,16 @@
         <v>Done</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="C100" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>444</v>
+        <v>337</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>77</v>
@@ -9723,17 +9723,17 @@
         <v>77</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I100" s="17" t="s">
         <v>120</v>
       </c>
       <c r="J100" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K100" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="K100" s="17" t="s">
-        <v>341</v>
-      </c>
       <c r="L100" s="17" t="s">
         <v>77</v>
       </c>
@@ -9743,14 +9743,14 @@
       <c r="N100" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O100" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="P100" s="17" t="s">
-        <v>128</v>
+      <c r="O100" s="17">
+        <v>69</v>
+      </c>
+      <c r="P100" s="17">
+        <v>619</v>
       </c>
       <c r="Q100" s="17" t="s">
-        <v>127</v>
+        <v>414</v>
       </c>
       <c r="R100" s="17" t="s">
         <v>91</v>
@@ -9759,29 +9759,29 @@
         <v>4</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="U100" s="17" t="str" cm="1">
         <f t="array" ref="U100">_xlfn.REGEXEXTRACT(B100,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+        <v>www.porndead.org</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="str">
         <f>IF(ISBLANK(R101)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B101" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="17">
         <v>9</v>
       </c>
-      <c r="C101" s="17">
-        <v>0</v>
-      </c>
       <c r="D101" s="17" t="s">
-        <v>797</v>
+        <v>444</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>610</v>
+        <v>325</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>77</v>
@@ -9790,16 +9790,16 @@
         <v>77</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>736</v>
+        <v>368</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="L101" s="17" t="s">
         <v>77</v>
@@ -9811,13 +9811,13 @@
         <v>77</v>
       </c>
       <c r="O101" s="17" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="P101" s="17" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="Q101" s="17" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="R101" s="17" t="s">
         <v>91</v>
@@ -9826,20 +9826,20 @@
         <v>4</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>617</v>
+        <v>328</v>
       </c>
       <c r="U101" s="17" t="str" cm="1">
         <f t="array" ref="U101">_xlfn.REGEXEXTRACT(B101,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>xhamster18.desi</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="str">
         <f>IF(ISBLANK(R102)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" s="17">
         <v>0</v>
@@ -9893,11 +9893,11 @@
         <v>4</v>
       </c>
       <c r="T102" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U102" s="17" t="str" cm="1">
         <f t="array" ref="U102">_xlfn.REGEXEXTRACT(B102,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
+        <v>netfapx.net</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9906,7 +9906,7 @@
         <v>Done</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="C103" s="17">
         <v>0</v>
@@ -9924,47 +9924,47 @@
         <v>77</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>192</v>
+        <v>736</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>678</v>
+        <v>77</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>705</v>
+        <v>77</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>706</v>
+        <v>77</v>
       </c>
       <c r="L103" s="17" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="M103" s="17" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="N103" s="17" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="O103" s="17" t="s">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="P103" s="17" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Q103" s="17" t="s">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="R103" s="17" t="s">
-        <v>678</v>
+        <v>91</v>
       </c>
       <c r="S103" s="17">
         <v>4</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>701</v>
+        <v>620</v>
       </c>
       <c r="U103" s="17" t="str" cm="1">
         <f t="array" ref="U103">_xlfn.REGEXEXTRACT(B103,"(?&lt;=//)[^/]+")</f>
-        <v>www.tubegalore.com</v>
+        <v>pornzog</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9973,16 +9973,16 @@
         <v>Done</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>802</v>
+        <v>700</v>
       </c>
       <c r="C104" s="17">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>693</v>
+        <v>797</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>807</v>
+        <v>610</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>77</v>
@@ -9994,65 +9994,65 @@
         <v>192</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>159</v>
+        <v>678</v>
       </c>
       <c r="J104" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="L104" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="K104" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L104" s="17" t="s">
+      <c r="M104" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="M104" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="N104" s="17" t="s">
-        <v>689</v>
+        <v>339</v>
       </c>
       <c r="O104" s="17" t="s">
-        <v>188</v>
+        <v>492</v>
       </c>
       <c r="P104" s="17" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="Q104" s="17" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="R104" s="17" t="s">
-        <v>91</v>
+        <v>678</v>
       </c>
       <c r="S104" s="17">
         <v>4</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>808</v>
+        <v>701</v>
       </c>
       <c r="U104" s="17" t="str" cm="1">
         <f t="array" ref="U104">_xlfn.REGEXEXTRACT(B104,"(?&lt;=//)[^/]+")</f>
-        <v>www.porntry.com</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.tubegalore.com</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="str">
         <f>IF(ISBLANK(R105)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C105" s="17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>693</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>815</v>
+        <v>77</v>
       </c>
       <c r="G105" s="17" t="s">
         <v>77</v>
@@ -10061,31 +10061,31 @@
         <v>192</v>
       </c>
       <c r="I105" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J105" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="J105" s="17" t="s">
-        <v>689</v>
-      </c>
       <c r="K105" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L105" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="L105" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="M105" s="17" t="s">
         <v>118</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>820</v>
+        <v>689</v>
       </c>
       <c r="O105" s="17" t="s">
-        <v>437</v>
+        <v>188</v>
       </c>
       <c r="P105" s="17" t="s">
-        <v>394</v>
+        <v>127</v>
       </c>
       <c r="Q105" s="17" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="R105" s="17" t="s">
         <v>91</v>
@@ -10094,7 +10094,7 @@
         <v>4</v>
       </c>
       <c r="T105" s="17" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="U105" s="17" t="str" cm="1">
         <f t="array" ref="U105">_xlfn.REGEXEXTRACT(B105,"(?&lt;=//)[^/]+")</f>
@@ -10107,19 +10107,19 @@
         <v>Done</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>702</v>
+        <v>805</v>
       </c>
       <c r="C106" s="17">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>730</v>
+        <v>814</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>77</v>
@@ -10128,111 +10128,111 @@
         <v>192</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>708</v>
+        <v>134</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>705</v>
+        <v>95</v>
       </c>
       <c r="L106" s="17" t="s">
-        <v>783</v>
+        <v>173</v>
       </c>
       <c r="M106" s="17" t="s">
-        <v>784</v>
+        <v>118</v>
       </c>
       <c r="N106" s="17" t="s">
-        <v>681</v>
+        <v>820</v>
       </c>
       <c r="O106" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="P106" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q106" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="P106" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q106" s="17" t="s">
-        <v>437</v>
-      </c>
       <c r="R106" s="17" t="s">
-        <v>678</v>
+        <v>91</v>
       </c>
       <c r="S106" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T106" s="17" t="s">
-        <v>710</v>
+        <v>816</v>
       </c>
       <c r="U106" s="17" t="str" cm="1">
         <f t="array" ref="U106">_xlfn.REGEXEXTRACT(B106,"(?&lt;=//)[^/]+")</f>
-        <v>www.eporner.com</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.porntry.com</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="str">
         <f>IF(ISBLANK(R107)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>36</v>
+        <v>702</v>
       </c>
       <c r="C107" s="17">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>262</v>
+        <v>730</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>455</v>
+        <v>730</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>77</v>
+        <v>730</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>139</v>
+        <v>708</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>140</v>
+        <v>709</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>134</v>
+        <v>705</v>
       </c>
       <c r="L107" s="17" t="s">
-        <v>142</v>
+        <v>783</v>
       </c>
       <c r="M107" s="17" t="s">
-        <v>143</v>
+        <v>784</v>
       </c>
       <c r="N107" s="17" t="s">
-        <v>145</v>
+        <v>681</v>
       </c>
       <c r="O107" s="17" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="P107" s="17" t="s">
-        <v>486</v>
+        <v>128</v>
       </c>
       <c r="Q107" s="17" t="s">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="R107" s="17" t="s">
-        <v>91</v>
+        <v>678</v>
       </c>
       <c r="S107" s="17">
         <v>3</v>
       </c>
       <c r="T107" s="17" t="s">
-        <v>242</v>
+        <v>710</v>
       </c>
       <c r="U107" s="17" t="str" cm="1">
         <f t="array" ref="U107">_xlfn.REGEXEXTRACT(B107,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.eporner.com</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10241,16 +10241,16 @@
         <v>Done</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="C108" s="17">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="F108" s="17" t="s">
         <v>77</v>
@@ -10262,31 +10262,31 @@
         <v>116</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="K108" s="17" t="s">
-        <v>582</v>
+        <v>134</v>
       </c>
       <c r="L108" s="17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M108" s="17" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="N108" s="17" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="O108" s="17" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="P108" s="17" t="s">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="Q108" s="17" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="R108" s="17" t="s">
         <v>91</v>
@@ -10295,11 +10295,11 @@
         <v>3</v>
       </c>
       <c r="T108" s="17" t="s">
-        <v>556</v>
+        <v>242</v>
       </c>
       <c r="U108" s="17" t="str" cm="1">
         <f t="array" ref="U108">_xlfn.REGEXEXTRACT(B108,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10308,16 +10308,16 @@
         <v>Done</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="C109" s="17">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>630</v>
+        <v>401</v>
       </c>
       <c r="F109" s="17" t="s">
         <v>77</v>
@@ -10329,31 +10329,31 @@
         <v>116</v>
       </c>
       <c r="I109" s="17" t="s">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>573</v>
+        <v>102</v>
       </c>
       <c r="K109" s="17" t="s">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="L109" s="17" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="M109" s="17" t="s">
-        <v>636</v>
+        <v>77</v>
       </c>
       <c r="N109" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O109" s="17" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="P109" s="17" t="s">
-        <v>631</v>
+        <v>77</v>
       </c>
       <c r="Q109" s="17" t="s">
-        <v>634</v>
+        <v>77</v>
       </c>
       <c r="R109" s="17" t="s">
         <v>91</v>
@@ -10362,65 +10362,65 @@
         <v>3</v>
       </c>
       <c r="T109" s="17" t="s">
-        <v>635</v>
+        <v>556</v>
       </c>
       <c r="U109" s="17" t="str" cm="1">
         <f t="array" ref="U109">_xlfn.REGEXEXTRACT(B109,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="str">
         <f>IF(ISBLANK(R110)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C110" s="17">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>443</v>
+        <v>147</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>453</v>
+        <v>630</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="G110" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I110" s="17" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>134</v>
+        <v>573</v>
       </c>
       <c r="K110" s="17" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="L110" s="17" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="M110" s="17" t="s">
-        <v>161</v>
+        <v>636</v>
       </c>
       <c r="N110" s="17" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="O110" s="17" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="P110" s="17" t="s">
-        <v>188</v>
+        <v>631</v>
       </c>
       <c r="Q110" s="17" t="s">
-        <v>77</v>
+        <v>634</v>
       </c>
       <c r="R110" s="17" t="s">
         <v>91</v>
@@ -10429,65 +10429,65 @@
         <v>3</v>
       </c>
       <c r="T110" s="17" t="s">
-        <v>247</v>
+        <v>635</v>
       </c>
       <c r="U110" s="17" t="str" cm="1">
         <f t="array" ref="U110">_xlfn.REGEXEXTRACT(B110,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="str">
         <f>IF(ISBLANK(R111)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>537</v>
+        <v>64</v>
       </c>
       <c r="C111" s="17">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>190</v>
+        <v>443</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>538</v>
+        <v>453</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="G111" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="I111" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J111" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="J111" s="17" t="s">
-        <v>539</v>
-      </c>
       <c r="K111" s="17" t="s">
-        <v>540</v>
+        <v>186</v>
       </c>
       <c r="L111" s="17" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="M111" s="17" t="s">
-        <v>523</v>
+        <v>161</v>
       </c>
       <c r="N111" s="17" t="s">
-        <v>541</v>
+        <v>189</v>
       </c>
       <c r="O111" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P111" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="P111" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="Q111" s="17" t="s">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="R111" s="17" t="s">
         <v>91</v>
@@ -10496,11 +10496,11 @@
         <v>3</v>
       </c>
       <c r="T111" s="17" t="s">
-        <v>734</v>
+        <v>247</v>
       </c>
       <c r="U111" s="17" t="str" cm="1">
         <f t="array" ref="U111">_xlfn.REGEXEXTRACT(B111,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10509,16 +10509,16 @@
         <v>Done</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="C112" s="17">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>210</v>
+        <v>538</v>
       </c>
       <c r="F112" s="17" t="s">
         <v>77</v>
@@ -10530,22 +10530,22 @@
         <v>192</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>211</v>
+        <v>539</v>
       </c>
       <c r="K112" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L112" s="17" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="M112" s="17" t="s">
-        <v>95</v>
+        <v>523</v>
       </c>
       <c r="N112" s="17" t="s">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="O112" s="17" t="s">
         <v>188</v>
@@ -10554,7 +10554,7 @@
         <v>127</v>
       </c>
       <c r="Q112" s="17" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="R112" s="17" t="s">
         <v>91</v>
@@ -10563,11 +10563,11 @@
         <v>3</v>
       </c>
       <c r="T112" s="17" t="s">
-        <v>250</v>
+        <v>734</v>
       </c>
       <c r="U112" s="17" t="str" cm="1">
         <f t="array" ref="U112">_xlfn.REGEXEXTRACT(B112,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>pervtube.net</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10576,16 +10576,16 @@
         <v>Done</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="C113" s="17">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>494</v>
+        <v>210</v>
       </c>
       <c r="F113" s="17" t="s">
         <v>77</v>
@@ -10594,34 +10594,34 @@
         <v>77</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="I113" s="17" t="s">
-        <v>471</v>
+        <v>118</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="K113" s="17" t="s">
-        <v>153</v>
+        <v>539</v>
       </c>
       <c r="L113" s="17" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="M113" s="17" t="s">
-        <v>613</v>
+        <v>95</v>
       </c>
       <c r="N113" s="17" t="s">
-        <v>499</v>
+        <v>77</v>
       </c>
       <c r="O113" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="P113" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="P113" s="17" t="s">
-        <v>228</v>
-      </c>
       <c r="Q113" s="17" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="R113" s="17" t="s">
         <v>91</v>
@@ -10630,65 +10630,65 @@
         <v>3</v>
       </c>
       <c r="T113" s="17" t="s">
-        <v>495</v>
+        <v>250</v>
       </c>
       <c r="U113" s="17" t="str" cm="1">
         <f t="array" ref="U113">_xlfn.REGEXEXTRACT(B113,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="str">
         <f>IF(ISBLANK(R114)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>733</v>
+        <v>26</v>
       </c>
       <c r="C114" s="17">
         <v>46</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>730</v>
+        <v>320</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>365</v>
+        <v>494</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>507</v>
+        <v>77</v>
       </c>
       <c r="G114" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>382</v>
+        <v>116</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>509</v>
+        <v>134</v>
       </c>
       <c r="K114" s="17" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="L114" s="17" t="s">
-        <v>344</v>
+        <v>152</v>
       </c>
       <c r="M114" s="17" t="s">
-        <v>389</v>
+        <v>613</v>
       </c>
       <c r="N114" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="O114" s="17">
-        <v>69</v>
+        <v>499</v>
+      </c>
+      <c r="O114" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="P114" s="17" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="Q114" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R114" s="17" t="s">
         <v>91</v>
@@ -10697,78 +10697,78 @@
         <v>3</v>
       </c>
       <c r="T114" s="17" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="U114" s="17" t="str" cm="1">
         <f t="array" ref="U114">_xlfn.REGEXEXTRACT(B114,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="str">
         <f>IF(ISBLANK(R115)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>219</v>
+        <v>733</v>
       </c>
       <c r="C115" s="17">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>203</v>
+        <v>730</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="G115" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>231</v>
+        <v>509</v>
       </c>
       <c r="K115" s="17" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="L115" s="17" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="M115" s="17" t="s">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="N115" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O115" s="17" t="s">
-        <v>232</v>
+        <v>327</v>
+      </c>
+      <c r="O115" s="17">
+        <v>69</v>
       </c>
       <c r="P115" s="17" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="Q115" s="17" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="R115" s="17" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="S115" s="17">
         <v>3</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>251</v>
+        <v>508</v>
       </c>
       <c r="U115" s="17" t="str" cm="1">
         <f t="array" ref="U115">_xlfn.REGEXEXTRACT(B115,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10777,16 +10777,16 @@
         <v>Done</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="C116" s="17">
         <v>44</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>470</v>
+        <v>203</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>384</v>
+        <v>221</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>77</v>
@@ -10795,19 +10795,19 @@
         <v>77</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="I116" s="17" t="s">
-        <v>471</v>
+        <v>102</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="K116" s="17" t="s">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="L116" s="17" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="M116" s="17" t="s">
         <v>77</v>
@@ -10816,26 +10816,26 @@
         <v>77</v>
       </c>
       <c r="O116" s="17" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="P116" s="17" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="Q116" s="17" t="s">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="R116" s="17" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="S116" s="17">
         <v>3</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>472</v>
+        <v>251</v>
       </c>
       <c r="U116" s="17" t="str" cm="1">
         <f t="array" ref="U116">_xlfn.REGEXEXTRACT(B116,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10844,16 +10844,16 @@
         <v>Done</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C117" s="17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="F117" s="17" t="s">
         <v>77</v>
@@ -10865,16 +10865,16 @@
         <v>367</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="J117" s="17" t="s">
         <v>120</v>
       </c>
       <c r="K117" s="17" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
       <c r="L117" s="17" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="M117" s="17" t="s">
         <v>77</v>
@@ -10883,13 +10883,13 @@
         <v>77</v>
       </c>
       <c r="O117" s="17" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="P117" s="17" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="Q117" s="17" t="s">
-        <v>128</v>
+        <v>415</v>
       </c>
       <c r="R117" s="17" t="s">
         <v>91</v>
@@ -10898,29 +10898,29 @@
         <v>3</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="U117" s="17" t="str" cm="1">
         <f t="array" ref="U117">_xlfn.REGEXEXTRACT(B117,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="str">
         <f>IF(ISBLANK(R118)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="C118" s="17">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>413</v>
+        <v>167</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>77</v>
@@ -10932,16 +10932,16 @@
         <v>367</v>
       </c>
       <c r="I118" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J118" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J118" s="17" t="s">
-        <v>266</v>
-      </c>
       <c r="K118" s="17" t="s">
-        <v>417</v>
+        <v>119</v>
       </c>
       <c r="L118" s="17" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="M118" s="17" t="s">
         <v>77</v>
@@ -10950,13 +10950,13 @@
         <v>77</v>
       </c>
       <c r="O118" s="17" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="P118" s="17" t="s">
-        <v>362</v>
+        <v>127</v>
       </c>
       <c r="Q118" s="17" t="s">
-        <v>394</v>
+        <v>128</v>
       </c>
       <c r="R118" s="17" t="s">
         <v>91</v>
@@ -10965,50 +10965,50 @@
         <v>3</v>
       </c>
       <c r="T118" s="17" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="U118" s="17" t="str" cm="1">
         <f t="array" ref="U118">_xlfn.REGEXEXTRACT(B118,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="str">
         <f>IF(ISBLANK(R119)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="C119" s="17">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>227</v>
+        <v>412</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>227</v>
+        <v>413</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="G119" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>397</v>
+        <v>120</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="K119" s="17" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="L119" s="17" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="M119" s="17" t="s">
         <v>77</v>
@@ -11017,13 +11017,13 @@
         <v>77</v>
       </c>
       <c r="O119" s="17" t="s">
-        <v>188</v>
+        <v>415</v>
       </c>
       <c r="P119" s="17" t="s">
-        <v>195</v>
+        <v>362</v>
       </c>
       <c r="Q119" s="17" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="R119" s="17" t="s">
         <v>91</v>
@@ -11032,11 +11032,11 @@
         <v>3</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="U119" s="17" t="str" cm="1">
         <f t="array" ref="U119">_xlfn.REGEXEXTRACT(B119,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -11045,52 +11045,52 @@
         <v>Done</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C120" s="17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="G120" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>118</v>
+        <v>397</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>119</v>
+        <v>398</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="L120" s="17" t="s">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="M120" s="17" t="s">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="N120" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O120" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="P120" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="P120" s="17">
-        <v>69</v>
-      </c>
       <c r="Q120" s="17" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="R120" s="17" t="s">
         <v>91</v>
@@ -11099,65 +11099,65 @@
         <v>3</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="U120" s="17" t="str" cm="1">
         <f t="array" ref="U120">_xlfn.REGEXEXTRACT(B120,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="str">
         <f>IF(ISBLANK(R121)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C121" s="17">
         <v>30</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="G121" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>386</v>
+        <v>119</v>
       </c>
       <c r="K121" s="17" t="s">
-        <v>389</v>
+        <v>161</v>
       </c>
       <c r="L121" s="17" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="M121" s="17" t="s">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="N121" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O121" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="P121" s="17" t="s">
-        <v>128</v>
+        <v>195</v>
+      </c>
+      <c r="P121" s="17">
+        <v>69</v>
       </c>
       <c r="Q121" s="17" t="s">
-        <v>387</v>
+        <v>137</v>
       </c>
       <c r="R121" s="17" t="s">
         <v>91</v>
@@ -11166,11 +11166,11 @@
         <v>3</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U121" s="17" t="str" cm="1">
         <f t="array" ref="U121">_xlfn.REGEXEXTRACT(B121,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>tube.perverzija.com</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -11179,16 +11179,16 @@
         <v>Done</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C122" s="17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="F122" s="17" t="s">
         <v>77</v>
@@ -11197,19 +11197,19 @@
         <v>77</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="J122" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="K122" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="K122" s="17" t="s">
-        <v>327</v>
-      </c>
       <c r="L122" s="17" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="M122" s="17" t="s">
         <v>77</v>
@@ -11218,13 +11218,13 @@
         <v>77</v>
       </c>
       <c r="O122" s="17" t="s">
-        <v>332</v>
+        <v>188</v>
       </c>
       <c r="P122" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q122" s="17" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="R122" s="17" t="s">
         <v>91</v>
@@ -11233,7 +11233,7 @@
         <v>3</v>
       </c>
       <c r="T122" s="17" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="U122" s="17" t="str" cm="1">
         <f t="array" ref="U122">_xlfn.REGEXEXTRACT(B122,"(?&lt;=//)[^/]+")</f>
@@ -11246,16 +11246,16 @@
         <v>Done</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>282</v>
+        <v>2</v>
       </c>
       <c r="C123" s="17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>446</v>
+        <v>167</v>
       </c>
       <c r="F123" s="17" t="s">
         <v>77</v>
@@ -11264,34 +11264,34 @@
         <v>77</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="K123" s="17" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="L123" s="17" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="N123" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O123" s="17" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="P123" s="17" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="Q123" s="17" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="R123" s="17" t="s">
         <v>91</v>
@@ -11300,11 +11300,11 @@
         <v>3</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="U123" s="17" t="str" cm="1">
         <f t="array" ref="U123">_xlfn.REGEXEXTRACT(B123,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -11313,49 +11313,49 @@
         <v>Done</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="C124" s="17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>225</v>
+        <v>446</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="G124" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="K124" s="17" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="L124" s="17" t="s">
-        <v>259</v>
+        <v>107</v>
       </c>
       <c r="M124" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N124" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O124" s="17" t="s">
-        <v>254</v>
+        <v>357</v>
       </c>
       <c r="P124" s="17" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Q124" s="17" t="s">
         <v>77</v>
@@ -11367,7 +11367,7 @@
         <v>3</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="U124" s="17" t="str" cm="1">
         <f t="array" ref="U124">_xlfn.REGEXEXTRACT(B124,"(?&lt;=//)[^/]+")</f>
@@ -11380,46 +11380,46 @@
         <v>Done</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="C125" s="17">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>352</v>
+        <v>225</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="G125" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I125" s="17" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="K125" s="17" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="L125" s="17" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="N125" s="17" t="s">
         <v>77</v>
       </c>
       <c r="O125" s="17" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="P125" s="17" t="s">
         <v>77</v>
@@ -11434,29 +11434,29 @@
         <v>3</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="U125" s="17" t="str" cm="1">
         <f t="array" ref="U125">_xlfn.REGEXEXTRACT(B125,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="str">
         <f>IF(ISBLANK(R126)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="C126" s="17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F126" s="17" t="s">
         <v>77</v>
@@ -11465,34 +11465,34 @@
         <v>77</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K126" s="17" t="s">
-        <v>389</v>
+        <v>134</v>
       </c>
       <c r="L126" s="17" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="M126" s="17" t="s">
-        <v>334</v>
+        <v>143</v>
       </c>
       <c r="N126" s="17" t="s">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="O126" s="17" t="s">
-        <v>332</v>
+        <v>126</v>
       </c>
       <c r="P126" s="17" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="Q126" s="17" t="s">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="R126" s="17" t="s">
         <v>91</v>
@@ -11501,11 +11501,11 @@
         <v>3</v>
       </c>
       <c r="T126" s="17" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="U126" s="17" t="str" cm="1">
         <f t="array" ref="U126">_xlfn.REGEXEXTRACT(B126,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -11514,16 +11514,16 @@
         <v>Done</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="C127" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>445</v>
+        <v>331</v>
       </c>
       <c r="F127" s="17" t="s">
         <v>77</v>
@@ -11532,34 +11532,34 @@
         <v>77</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>613</v>
+        <v>101</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="L127" s="17" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="M127" s="17" t="s">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="N127" s="17" t="s">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="O127" s="17" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="P127" s="17" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Q127" s="17" t="s">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="R127" s="17" t="s">
         <v>91</v>
@@ -11568,29 +11568,29 @@
         <v>3</v>
       </c>
       <c r="T127" s="17" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="U127" s="17" t="str" cm="1">
         <f t="array" ref="U127">_xlfn.REGEXEXTRACT(B127,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="str">
         <f>IF(ISBLANK(R128)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>764</v>
+        <v>40</v>
       </c>
       <c r="C128" s="17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>730</v>
+        <v>110</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>730</v>
+        <v>445</v>
       </c>
       <c r="F128" s="17" t="s">
         <v>77</v>
@@ -11599,16 +11599,16 @@
         <v>77</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="I128" s="17" t="s">
-        <v>737</v>
+        <v>613</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>779</v>
+        <v>112</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="L128" s="17" t="s">
         <v>77</v>
@@ -11620,7 +11620,7 @@
         <v>77</v>
       </c>
       <c r="O128" s="17" t="s">
-        <v>437</v>
+        <v>108</v>
       </c>
       <c r="P128" s="17" t="s">
         <v>77</v>
@@ -11629,35 +11629,35 @@
         <v>77</v>
       </c>
       <c r="R128" s="17" t="s">
-        <v>777</v>
+        <v>91</v>
       </c>
       <c r="S128" s="17">
         <v>3</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>778</v>
+        <v>113</v>
       </c>
       <c r="U128" s="17" t="str" cm="1">
         <f t="array" ref="U128">_xlfn.REGEXEXTRACT(B128,"(?&lt;=//)[^/]+")</f>
-        <v>www.eporner.com</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+        <v>anyporn.com</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="str">
         <f>IF(ISBLANK(R129)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>726</v>
+        <v>764</v>
       </c>
       <c r="C129" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>190</v>
+        <v>730</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F129" s="17" t="s">
         <v>77</v>
@@ -11669,13 +11669,13 @@
         <v>192</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>133</v>
+        <v>737</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>120</v>
+        <v>779</v>
       </c>
       <c r="K129" s="17" t="s">
-        <v>775</v>
+        <v>77</v>
       </c>
       <c r="L129" s="17" t="s">
         <v>77</v>
@@ -11687,7 +11687,7 @@
         <v>77</v>
       </c>
       <c r="O129" s="17" t="s">
-        <v>188</v>
+        <v>437</v>
       </c>
       <c r="P129" s="17" t="s">
         <v>77</v>
@@ -11696,35 +11696,35 @@
         <v>77</v>
       </c>
       <c r="R129" s="17" t="s">
-        <v>91</v>
+        <v>777</v>
       </c>
       <c r="S129" s="17">
         <v>3</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="U129" s="17" t="str" cm="1">
         <f t="array" ref="U129">_xlfn.REGEXEXTRACT(B129,"(?&lt;=//)[^/]+")</f>
-        <v>www.porntopedia.com</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.eporner.com</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="str">
         <f>IF(ISBLANK(R130)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>307</v>
+        <v>726</v>
       </c>
       <c r="C130" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>797</v>
+        <v>190</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>347</v>
+        <v>728</v>
       </c>
       <c r="F130" s="17" t="s">
         <v>77</v>
@@ -11733,34 +11733,34 @@
         <v>77</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>613</v>
+        <v>133</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K130" s="17" t="s">
-        <v>102</v>
+        <v>775</v>
       </c>
       <c r="L130" s="17" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="M130" s="17" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N130" s="17" t="s">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="O130" s="17" t="s">
-        <v>394</v>
+        <v>188</v>
       </c>
       <c r="P130" s="17" t="s">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="Q130" s="17" t="s">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="R130" s="17" t="s">
         <v>91</v>
@@ -11769,11 +11769,11 @@
         <v>3</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>614</v>
+        <v>776</v>
       </c>
       <c r="U130" s="17" t="str" cm="1">
         <f t="array" ref="U130">_xlfn.REGEXEXTRACT(B130,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>www.porntopedia.com</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -11782,7 +11782,7 @@
         <v>Done</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C131" s="17">
         <v>0</v>
@@ -11791,7 +11791,7 @@
         <v>797</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="F131" s="17" t="s">
         <v>77</v>
@@ -11809,25 +11809,25 @@
         <v>134</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="L131" s="17" t="s">
-        <v>615</v>
+        <v>153</v>
       </c>
       <c r="M131" s="17" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N131" s="17" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="O131" s="17" t="s">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="P131" s="17" t="s">
-        <v>551</v>
+        <v>492</v>
       </c>
       <c r="Q131" s="17" t="s">
-        <v>103</v>
+        <v>437</v>
       </c>
       <c r="R131" s="17" t="s">
         <v>91</v>
@@ -11836,29 +11836,29 @@
         <v>3</v>
       </c>
       <c r="T131" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="U131" s="17" t="str" cm="1">
         <f t="array" ref="U131">_xlfn.REGEXEXTRACT(B131,"(?&lt;=//)[^/]+")</f>
         <v>curebdsm.com</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="str">
         <f>IF(ISBLANK(R132)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C132" s="17">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>597</v>
+        <v>797</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>603</v>
+        <v>401</v>
       </c>
       <c r="F132" s="17" t="s">
         <v>77</v>
@@ -11867,65 +11867,65 @@
         <v>77</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>339</v>
+        <v>613</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>598</v>
+        <v>134</v>
       </c>
       <c r="K132" s="17" t="s">
-        <v>599</v>
+        <v>173</v>
       </c>
       <c r="L132" s="17" t="s">
-        <v>161</v>
+        <v>615</v>
       </c>
       <c r="M132" s="17" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="N132" s="17" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="O132" s="17" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="P132" s="17" t="s">
-        <v>387</v>
+        <v>551</v>
       </c>
       <c r="Q132" s="17" t="s">
-        <v>601</v>
+        <v>103</v>
       </c>
       <c r="R132" s="17" t="s">
         <v>91</v>
       </c>
       <c r="S132" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T132" s="17" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="U132" s="17" t="str" cm="1">
         <f t="array" ref="U132">_xlfn.REGEXEXTRACT(B132,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="str">
         <f>IF(ISBLANK(R133)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="C133" s="17">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="F133" s="17" t="s">
         <v>77</v>
@@ -11934,34 +11934,34 @@
         <v>77</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>146</v>
+        <v>598</v>
       </c>
       <c r="K133" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="L133" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M133" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="N133" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="L133" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M133" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="N133" s="17" t="s">
-        <v>266</v>
-      </c>
       <c r="O133" s="17" t="s">
-        <v>437</v>
+        <v>108</v>
       </c>
       <c r="P133" s="17" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="Q133" s="17" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="R133" s="17" t="s">
         <v>91</v>
@@ -11970,65 +11970,65 @@
         <v>2</v>
       </c>
       <c r="T133" s="17" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="U133" s="17" t="str" cm="1">
         <f t="array" ref="U133">_xlfn.REGEXEXTRACT(B133,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>www.peekvids.com</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="str">
         <f>IF(ISBLANK(R134)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="C134" s="17">
         <v>57</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>576</v>
+        <v>77</v>
       </c>
       <c r="G134" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>477</v>
+        <v>102</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K134" s="17" t="s">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c r="L134" s="17" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="M134" s="17" t="s">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="N134" s="17" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="O134" s="17" t="s">
-        <v>585</v>
+        <v>437</v>
       </c>
       <c r="P134" s="17" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="Q134" s="17" t="s">
-        <v>127</v>
+        <v>583</v>
       </c>
       <c r="R134" s="17" t="s">
         <v>91</v>
@@ -12037,32 +12037,32 @@
         <v>2</v>
       </c>
       <c r="T134" s="17" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="U134" s="17" t="str" cm="1">
         <f t="array" ref="U134">_xlfn.REGEXEXTRACT(B134,"(?&lt;=//)[^/]+")</f>
-        <v>www.omg.xxx</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="str">
         <f>IF(ISBLANK(R135)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="C135" s="17">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>260</v>
+        <v>493</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="G135" s="17" t="s">
         <v>77</v>
@@ -12071,31 +12071,31 @@
         <v>117</v>
       </c>
       <c r="I135" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="L135" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="J135" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="K135" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="L135" s="17" t="s">
-        <v>161</v>
-      </c>
       <c r="M135" s="17" t="s">
-        <v>519</v>
+        <v>77</v>
       </c>
       <c r="N135" s="17" t="s">
-        <v>520</v>
+        <v>77</v>
       </c>
       <c r="O135" s="17" t="s">
-        <v>126</v>
+        <v>585</v>
       </c>
       <c r="P135" s="17" t="s">
-        <v>492</v>
+        <v>394</v>
       </c>
       <c r="Q135" s="17" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="R135" s="17" t="s">
         <v>91</v>
@@ -12104,11 +12104,11 @@
         <v>2</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="U135" s="17" t="str" cm="1">
         <f t="array" ref="U135">_xlfn.REGEXEXTRACT(B135,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>www.omg.xxx</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -12117,19 +12117,19 @@
         <v>Done</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="C136" s="17">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>215</v>
+        <v>515</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>77</v>
+        <v>516</v>
       </c>
       <c r="G136" s="17" t="s">
         <v>77</v>
@@ -12138,31 +12138,31 @@
         <v>117</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>102</v>
+        <v>517</v>
       </c>
       <c r="K136" s="17" t="s">
-        <v>480</v>
+        <v>119</v>
       </c>
       <c r="L136" s="17" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="M136" s="17" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="N136" s="17" t="s">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="O136" s="17" t="s">
-        <v>394</v>
+        <v>126</v>
       </c>
       <c r="P136" s="17" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="Q136" s="17" t="s">
-        <v>481</v>
+        <v>195</v>
       </c>
       <c r="R136" s="17" t="s">
         <v>91</v>
@@ -12171,11 +12171,11 @@
         <v>2</v>
       </c>
       <c r="T136" s="17" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="U136" s="17" t="str" cm="1">
         <f t="array" ref="U136">_xlfn.REGEXEXTRACT(B136,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>m.hqporner.com</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -12184,16 +12184,16 @@
         <v>Done</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="C137" s="17">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>401</v>
+        <v>215</v>
       </c>
       <c r="F137" s="17" t="s">
         <v>77</v>
@@ -12202,34 +12202,34 @@
         <v>77</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="K137" s="17" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="L137" s="17" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="M137" s="17" t="s">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="N137" s="17" t="s">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="O137" s="17" t="s">
-        <v>570</v>
+        <v>394</v>
       </c>
       <c r="P137" s="17" t="s">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="Q137" s="17" t="s">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="R137" s="17" t="s">
         <v>91</v>
@@ -12238,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="T137" s="17" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="U137" s="17" t="str" cm="1">
         <f t="array" ref="U137">_xlfn.REGEXEXTRACT(B137,"(?&lt;=//)[^/]+")</f>
@@ -12251,37 +12251,37 @@
         <v>Done</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C138" s="17">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>227</v>
+        <v>401</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="G138" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="K138" s="17" t="s">
-        <v>134</v>
+        <v>389</v>
       </c>
       <c r="L138" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="M138" s="17" t="s">
         <v>77</v>
@@ -12290,7 +12290,7 @@
         <v>77</v>
       </c>
       <c r="O138" s="17" t="s">
-        <v>188</v>
+        <v>570</v>
       </c>
       <c r="P138" s="17" t="s">
         <v>77</v>
@@ -12305,47 +12305,47 @@
         <v>2</v>
       </c>
       <c r="T138" s="17" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="U138" s="17" t="str" cm="1">
         <f t="array" ref="U138">_xlfn.REGEXEXTRACT(B138,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="str">
         <f>IF(ISBLANK(R139)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="C139" s="17">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>730</v>
+        <v>227</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="G139" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I139" s="17" t="s">
-        <v>647</v>
+        <v>133</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="K139" s="17" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="L139" s="17" t="s">
         <v>77</v>
@@ -12357,10 +12357,10 @@
         <v>77</v>
       </c>
       <c r="O139" s="17" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="P139" s="17" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Q139" s="17" t="s">
         <v>77</v>
@@ -12372,62 +12372,62 @@
         <v>2</v>
       </c>
       <c r="T139" s="17" t="s">
-        <v>732</v>
+        <v>356</v>
       </c>
       <c r="U139" s="17" t="str" cm="1">
         <f t="array" ref="U139">_xlfn.REGEXEXTRACT(B139,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="str">
         <f>IF(ISBLANK(R140)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C140" s="17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>268</v>
+        <v>730</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="G140" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="I140" s="17" t="s">
-        <v>270</v>
+        <v>647</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K140" s="17" t="s">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="L140" s="17" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="M140" s="17" t="s">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="N140" s="17" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="O140" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="P140" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="P140" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="Q140" s="17" t="s">
         <v>77</v>
@@ -12439,29 +12439,29 @@
         <v>2</v>
       </c>
       <c r="T140" s="17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="U140" s="17" t="str" cm="1">
         <f t="array" ref="U140">_xlfn.REGEXEXTRACT(B140,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="str">
         <f>IF(ISBLANK(R141)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C141" s="17">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="F141" s="17" t="s">
         <v>77</v>
@@ -12470,31 +12470,31 @@
         <v>77</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="I141" s="17" t="s">
-        <v>503</v>
+        <v>270</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="K141" s="17" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="L141" s="17" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="M141" s="17" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="N141" s="17" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="O141" s="17" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="P141" s="17" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Q141" s="17" t="s">
         <v>77</v>
@@ -12503,35 +12503,35 @@
         <v>91</v>
       </c>
       <c r="S141" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T141" s="17" t="s">
-        <v>521</v>
+        <v>731</v>
       </c>
       <c r="U141" s="17" t="str" cm="1">
         <f t="array" ref="U141">_xlfn.REGEXEXTRACT(B141,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="str">
         <f>IF(ISBLANK(R142)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="C142" s="17">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>227</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="G142" s="17" t="s">
         <v>77</v>
@@ -12540,16 +12540,16 @@
         <v>117</v>
       </c>
       <c r="I142" s="17" t="s">
-        <v>194</v>
+        <v>503</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="K142" s="17" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="L142" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="M142" s="17" t="s">
         <v>77</v>
@@ -12558,10 +12558,10 @@
         <v>77</v>
       </c>
       <c r="O142" s="17" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="P142" s="17" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Q142" s="17" t="s">
         <v>77</v>
@@ -12573,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="T142" s="17" t="s">
-        <v>230</v>
+        <v>521</v>
       </c>
       <c r="U142" s="17" t="str" cm="1">
         <f t="array" ref="U142">_xlfn.REGEXEXTRACT(B142,"(?&lt;=//)[^/]+")</f>
@@ -12586,37 +12586,37 @@
         <v>Done</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="C143" s="17">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="G143" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="I143" s="17" t="s">
-        <v>339</v>
+        <v>194</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="K143" s="17" t="s">
-        <v>341</v>
+        <v>146</v>
       </c>
       <c r="L143" s="17" t="s">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="M143" s="17" t="s">
         <v>77</v>
@@ -12625,10 +12625,10 @@
         <v>77</v>
       </c>
       <c r="O143" s="17" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="P143" s="17" t="s">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Q143" s="17" t="s">
         <v>77</v>
@@ -12640,11 +12640,11 @@
         <v>1</v>
       </c>
       <c r="T143" s="17" t="s">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="U143" s="17" t="str" cm="1">
         <f t="array" ref="U143">_xlfn.REGEXEXTRACT(B143,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -12653,16 +12653,16 @@
         <v>Done</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>822</v>
+        <v>3</v>
       </c>
       <c r="C144" s="17">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>825</v>
+        <v>167</v>
       </c>
       <c r="F144" s="17" t="s">
         <v>77</v>
@@ -12671,31 +12671,31 @@
         <v>77</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>192</v>
+        <v>367</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>153</v>
+        <v>339</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="K144" s="17" t="s">
-        <v>523</v>
+        <v>341</v>
       </c>
       <c r="L144" s="17" t="s">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="M144" s="17" t="s">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="N144" s="17" t="s">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="O144" s="17" t="s">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="P144" s="17" t="s">
-        <v>127</v>
+        <v>332</v>
       </c>
       <c r="Q144" s="17" t="s">
         <v>77</v>
@@ -12704,32 +12704,101 @@
         <v>91</v>
       </c>
       <c r="S144" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T144" s="17" t="s">
-        <v>827</v>
+        <v>345</v>
       </c>
       <c r="U144" s="17" t="str" cm="1">
         <f t="array" ref="U144">_xlfn.REGEXEXTRACT(B144,"(?&lt;=//)[^/]+")</f>
-        <v>www.porntry.com</v>
-      </c>
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="17"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="17"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="17"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
+      <c r="R146" s="17"/>
+      <c r="S146" s="17"/>
+      <c r="T146" s="17"/>
+      <c r="U146" s="17"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="17"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
+      <c r="R147" s="17"/>
+      <c r="S147" s="17"/>
+      <c r="T147" s="17"/>
+      <c r="U147" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U144" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U144">
-      <sortCondition descending="1" ref="S1:S144"/>
+  <autoFilter ref="A1:U148" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U148">
+      <sortCondition descending="1" ref="S1:S148"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:U145">
-    <sortCondition ref="C1:C145"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:U149">
+    <sortCondition ref="C1:C149"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:U125 A126:XFD1048576">
+  <conditionalFormatting sqref="A1:U125 A149:XFD1048576 V148:XFD148 A126:XFD147">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576">
+  <conditionalFormatting sqref="S149:S1048576 S1:S147">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
